--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="22020" windowHeight="10056" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="156" windowWidth="22020" windowHeight="9996" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
     <sheet name="Scales" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt. Tunings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="fingerboard">Scales!$B$4:$T$9</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="26">
   <si>
     <t>E</t>
   </si>
@@ -77,6 +77,27 @@
   <si>
     <t>Cb</t>
   </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>4ths</t>
+  </si>
+  <si>
+    <t>3rds</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +153,30 @@
           <color theme="9" tint="0.80001220740379042"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -298,7 +343,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,8 +351,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,9 +459,35 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="7th" xfId="3"/>
     <cellStyle name="Black" xfId="1"/>
+    <cellStyle name="Major" xfId="5"/>
+    <cellStyle name="minor" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="White" xfId="2"/>
   </cellStyles>
@@ -422,7 +502,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="20" fmlaLink="$W$1" fmlaRange="$V$2:$V$13" sel="11" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="20" fmlaLink="$W$1" fmlaRange="$V$2:$V$13" sel="6" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1568,8 +1648,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:T9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1661,7 @@
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
       <c r="W1">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
@@ -2577,12 +2657,1892 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:AQ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="20" width="3" customWidth="1"/>
+    <col min="22" max="40" width="3" style="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="37">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="37">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="37"/>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="37">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="37">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="37"/>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="37"/>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="37"/>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="37">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="37">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="38"/>
+      <c r="W19" s="38">
+        <v>3</v>
+      </c>
+      <c r="X19" s="38">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="38">
+        <v>5</v>
+      </c>
+      <c r="AB19" s="38">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="38">
+        <v>7</v>
+      </c>
+      <c r="AE19" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="38">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="38">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="38">
+        <v>4</v>
+      </c>
+      <c r="AL19" s="38">
+        <v>5</v>
+      </c>
+      <c r="AN19" s="38">
+        <v>6</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="38">
+        <v>7</v>
+      </c>
+      <c r="W20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="38">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="38">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="38">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="38">
+        <v>6</v>
+      </c>
+      <c r="AH20" s="38">
+        <v>7</v>
+      </c>
+      <c r="AI20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="38">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="38">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="38">
+        <v>4</v>
+      </c>
+      <c r="AP20">
+        <v>4</v>
+      </c>
+      <c r="AQ20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="38"/>
+      <c r="V21" s="38">
+        <v>5</v>
+      </c>
+      <c r="X21" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="38">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="38">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="38">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="38">
+        <v>4</v>
+      </c>
+      <c r="AH21" s="38">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="38">
+        <v>6</v>
+      </c>
+      <c r="AL21" s="38">
+        <v>7</v>
+      </c>
+      <c r="AM21" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>5</v>
+      </c>
+      <c r="AQ21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="38"/>
+      <c r="W22" s="38">
+        <v>3</v>
+      </c>
+      <c r="X22" s="38">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="38">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="38">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="38">
+        <v>7</v>
+      </c>
+      <c r="AE22" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="38">
+        <v>2</v>
+      </c>
+      <c r="AI22" s="38">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="38">
+        <v>4</v>
+      </c>
+      <c r="AL22" s="38">
+        <v>5</v>
+      </c>
+      <c r="AN22" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="38">
+        <v>7</v>
+      </c>
+      <c r="W23" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="38">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="38">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="38">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="38">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="38">
+        <v>7</v>
+      </c>
+      <c r="AI23" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="38">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="38">
+        <v>3</v>
+      </c>
+      <c r="AN23" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B24" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="38"/>
+      <c r="V24" s="38">
+        <v>5</v>
+      </c>
+      <c r="X24" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="42">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="44">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="43">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="44">
+        <v>4</v>
+      </c>
+      <c r="AH24" s="44">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="43">
+        <v>6</v>
+      </c>
+      <c r="AL24" s="42">
+        <v>7</v>
+      </c>
+      <c r="AM24" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B26" s="38"/>
+      <c r="C26" s="44">
+        <v>3</v>
+      </c>
+      <c r="D26" s="38">
+        <v>4</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="44">
+        <v>5</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38">
+        <v>6</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38">
+        <v>7</v>
+      </c>
+      <c r="K26" s="45">
+        <v>1</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38">
+        <v>2</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26" s="44">
+        <v>3</v>
+      </c>
+      <c r="P26" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="44">
+        <v>5</v>
+      </c>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38">
+        <v>6</v>
+      </c>
+      <c r="V26" s="2"/>
+      <c r="W26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B27" s="38">
+        <v>7</v>
+      </c>
+      <c r="C27" s="45">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38">
+        <v>2</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="44">
+        <v>3</v>
+      </c>
+      <c r="H27" s="38">
+        <v>4</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="J27" s="44">
+        <v>5</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38">
+        <v>6</v>
+      </c>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38">
+        <v>7</v>
+      </c>
+      <c r="O27" s="45">
+        <v>1</v>
+      </c>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38">
+        <v>2</v>
+      </c>
+      <c r="R27" s="38"/>
+      <c r="S27" s="44">
+        <v>3</v>
+      </c>
+      <c r="T27" s="38">
+        <v>4</v>
+      </c>
+      <c r="V27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="W27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN27" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B28" s="44">
+        <v>5</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38">
+        <v>6</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38">
+        <v>7</v>
+      </c>
+      <c r="G28" s="45">
+        <v>1</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38">
+        <v>2</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="44">
+        <v>3</v>
+      </c>
+      <c r="L28" s="38">
+        <v>4</v>
+      </c>
+      <c r="M28" s="38"/>
+      <c r="N28" s="44">
+        <v>5</v>
+      </c>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38">
+        <v>7</v>
+      </c>
+      <c r="S28" s="45">
+        <v>1</v>
+      </c>
+      <c r="T28" s="38"/>
+      <c r="V28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM28" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN28" s="2"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B29" s="38"/>
+      <c r="C29" s="44">
+        <v>3</v>
+      </c>
+      <c r="D29" s="38">
+        <v>4</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="44">
+        <v>5</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38">
+        <v>6</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38">
+        <v>7</v>
+      </c>
+      <c r="K29" s="45">
+        <v>1</v>
+      </c>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38">
+        <v>2</v>
+      </c>
+      <c r="N29" s="38"/>
+      <c r="O29" s="44">
+        <v>3</v>
+      </c>
+      <c r="P29" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="44">
+        <v>5</v>
+      </c>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38">
+        <v>6</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="X29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B30" s="38">
+        <v>7</v>
+      </c>
+      <c r="C30" s="45">
+        <v>1</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38">
+        <v>2</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="44">
+        <v>3</v>
+      </c>
+      <c r="H30" s="38">
+        <v>4</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="J30" s="44">
+        <v>5</v>
+      </c>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38">
+        <v>6</v>
+      </c>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38">
+        <v>7</v>
+      </c>
+      <c r="O30" s="45">
+        <v>1</v>
+      </c>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38">
+        <v>2</v>
+      </c>
+      <c r="R30" s="38"/>
+      <c r="S30" s="44">
+        <v>3</v>
+      </c>
+      <c r="T30" s="38">
+        <v>4</v>
+      </c>
+      <c r="V30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="W30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN30" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B31" s="44">
+        <v>5</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38">
+        <v>6</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38">
+        <v>7</v>
+      </c>
+      <c r="G31" s="45">
+        <v>1</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38">
+        <v>2</v>
+      </c>
+      <c r="J31" s="38"/>
+      <c r="K31" s="44">
+        <v>3</v>
+      </c>
+      <c r="L31" s="38">
+        <v>4</v>
+      </c>
+      <c r="M31" s="38"/>
+      <c r="N31" s="44">
+        <v>5</v>
+      </c>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38">
+        <v>7</v>
+      </c>
+      <c r="S31" s="45">
+        <v>1</v>
+      </c>
+      <c r="T31" s="38"/>
+      <c r="V31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM31" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN31" s="2"/>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="W33" s="38">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="38">
+        <v>7</v>
+      </c>
+      <c r="Z33" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="41"/>
+    </row>
+    <row r="34" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="45">
+        <v>1</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="44">
+        <v>3</v>
+      </c>
+      <c r="J34" s="44">
+        <v>5</v>
+      </c>
+      <c r="K34" s="38"/>
+      <c r="V34" s="38">
+        <v>3</v>
+      </c>
+      <c r="W34" s="38">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="38">
+        <v>5</v>
+      </c>
+      <c r="AO34" s="41"/>
+    </row>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B35" s="44">
+        <v>5</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="45">
+        <v>1</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35" s="44">
+        <v>3</v>
+      </c>
+      <c r="V35" s="38">
+        <v>1</v>
+      </c>
+      <c r="X35" s="38">
+        <v>2</v>
+      </c>
+      <c r="AO35" s="41"/>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B36" s="38"/>
+      <c r="C36" s="44">
+        <v>3</v>
+      </c>
+      <c r="F36" s="44">
+        <v>5</v>
+      </c>
+      <c r="G36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="45">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="41"/>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B37" s="38"/>
+      <c r="C37" s="45">
+        <v>1</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="44">
+        <v>3</v>
+      </c>
+      <c r="J37" s="44">
+        <v>5</v>
+      </c>
+      <c r="K37" s="38"/>
+      <c r="AO37" s="41"/>
+    </row>
+    <row r="38" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="W38" s="38">
+        <v>3</v>
+      </c>
+      <c r="X38" s="38">
+        <v>4</v>
+      </c>
+      <c r="Z38" s="38">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="38">
+        <v>6</v>
+      </c>
+      <c r="AD38" s="38">
+        <v>7</v>
+      </c>
+      <c r="AE38" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="38">
+        <v>2</v>
+      </c>
+      <c r="AI38" s="38">
+        <v>3</v>
+      </c>
+      <c r="AJ38" s="38">
+        <v>4</v>
+      </c>
+      <c r="AL38" s="38">
+        <v>5</v>
+      </c>
+      <c r="AN38" s="38">
+        <v>6</v>
+      </c>
+      <c r="AO38" s="41"/>
+    </row>
+    <row r="39" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="V39" s="38">
+        <v>7</v>
+      </c>
+      <c r="W39" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="38">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="38">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD39" s="38">
+        <v>5</v>
+      </c>
+      <c r="AF39" s="38">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="38">
+        <v>7</v>
+      </c>
+      <c r="AI39" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="38">
+        <v>2</v>
+      </c>
+      <c r="AM39" s="38">
+        <v>3</v>
+      </c>
+      <c r="AN39" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38">
+        <v>6</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38">
+        <v>7</v>
+      </c>
+      <c r="F40" s="38">
+        <v>1</v>
+      </c>
+      <c r="I40" s="38">
+        <v>7</v>
+      </c>
+      <c r="J40" s="38">
+        <v>1</v>
+      </c>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="38">
+        <v>1</v>
+      </c>
+      <c r="R40" s="38"/>
+      <c r="V40" s="38">
+        <v>5</v>
+      </c>
+      <c r="X40" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z40" s="38">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="38">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="38">
+        <v>3</v>
+      </c>
+      <c r="AF40" s="38">
+        <v>4</v>
+      </c>
+      <c r="AH40" s="38">
+        <v>5</v>
+      </c>
+      <c r="AJ40" s="38">
+        <v>6</v>
+      </c>
+      <c r="AL40" s="38">
+        <v>7</v>
+      </c>
+      <c r="AM40" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B41" s="38">
+        <v>3</v>
+      </c>
+      <c r="C41" s="38">
+        <v>4</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38">
+        <v>5</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="I41" s="38">
+        <v>5</v>
+      </c>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38">
+        <v>6</v>
+      </c>
+      <c r="L41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38">
+        <v>6</v>
+      </c>
+      <c r="W41" s="38">
+        <v>3</v>
+      </c>
+      <c r="X41" s="38">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="38">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="38">
+        <v>6</v>
+      </c>
+      <c r="AD41" s="38">
+        <v>7</v>
+      </c>
+      <c r="AE41" s="38">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="38">
+        <v>2</v>
+      </c>
+      <c r="AI41" s="38">
+        <v>3</v>
+      </c>
+      <c r="AJ41" s="38">
+        <v>4</v>
+      </c>
+      <c r="AL41" s="38">
+        <v>5</v>
+      </c>
+      <c r="AN41" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B42" s="38">
+        <v>1</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38">
+        <v>2</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38">
+        <v>3</v>
+      </c>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38">
+        <v>3</v>
+      </c>
+      <c r="K42" s="38">
+        <v>4</v>
+      </c>
+      <c r="L42" s="38"/>
+      <c r="O42" s="38">
+        <v>2</v>
+      </c>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38">
+        <v>3</v>
+      </c>
+      <c r="R42" s="38">
+        <v>4</v>
+      </c>
+      <c r="V42" s="38">
+        <v>7</v>
+      </c>
+      <c r="W42" s="38">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="38">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="38">
+        <v>3</v>
+      </c>
+      <c r="AB42" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD42" s="38">
+        <v>5</v>
+      </c>
+      <c r="AF42" s="38">
+        <v>6</v>
+      </c>
+      <c r="AH42" s="38">
+        <v>7</v>
+      </c>
+      <c r="AI42" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="38">
+        <v>2</v>
+      </c>
+      <c r="AM42" s="38">
+        <v>3</v>
+      </c>
+      <c r="AN42" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="I43" s="38"/>
+      <c r="J43" s="38">
+        <v>1</v>
+      </c>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38">
+        <v>2</v>
+      </c>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38">
+        <v>1</v>
+      </c>
+      <c r="R43" s="38"/>
+      <c r="V43" s="38">
+        <v>5</v>
+      </c>
+      <c r="X43" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="38">
+        <v>7</v>
+      </c>
+      <c r="AA43" s="38">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="38">
+        <v>2</v>
+      </c>
+      <c r="AE43" s="38">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="38">
+        <v>4</v>
+      </c>
+      <c r="AH43" s="38">
+        <v>5</v>
+      </c>
+      <c r="AJ43" s="38">
+        <v>6</v>
+      </c>
+      <c r="AL43" s="38">
+        <v>7</v>
+      </c>
+      <c r="AM43" s="38">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="156" windowWidth="22020" windowHeight="9996" activeTab="2"/>
+    <workbookView xWindow="10272" yWindow="48" windowWidth="12960" windowHeight="10284" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
     <sheet name="Scales" sheetId="2" r:id="rId2"/>
     <sheet name="Alt. Tunings" sheetId="3" r:id="rId3"/>
+    <sheet name="3rds Stuff" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="fingerboard">Scales!$B$4:$T$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="34">
   <si>
     <t>E</t>
   </si>
@@ -98,12 +100,36 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>modes</t>
+  </si>
+  <si>
+    <t>fingerings, 3 octave</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +152,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,12 +201,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -178,8 +211,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF12E2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6600CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -342,8 +423,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,17 +476,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,20 +598,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="6th" xfId="6"/>
     <cellStyle name="7th" xfId="3"/>
     <cellStyle name="Black" xfId="1"/>
     <cellStyle name="Major" xfId="5"/>
@@ -493,6 +679,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6600CC"/>
+      <color rgb="FF990099"/>
+      <color rgb="FF800080"/>
+      <color rgb="FF12E2FE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2659,9 +2853,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4302,33 +4494,7 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38">
-        <v>6</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38">
-        <v>7</v>
-      </c>
-      <c r="F40" s="38">
-        <v>1</v>
-      </c>
-      <c r="I40" s="38">
-        <v>7</v>
-      </c>
-      <c r="J40" s="38">
-        <v>1</v>
-      </c>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="38">
-        <v>1</v>
-      </c>
-      <c r="R40" s="38"/>
+      <c r="I40" s="38"/>
       <c r="V40" s="38">
         <v>5</v>
       </c>
@@ -4364,33 +4530,7 @@
       </c>
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B41" s="38">
-        <v>3</v>
-      </c>
-      <c r="C41" s="38">
-        <v>4</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38">
-        <v>5</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="I41" s="38">
-        <v>5</v>
-      </c>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38">
-        <v>6</v>
-      </c>
-      <c r="L41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38">
-        <v>6</v>
-      </c>
+      <c r="I41" s="38"/>
       <c r="W41" s="38">
         <v>3</v>
       </c>
@@ -4426,35 +4566,7 @@
       </c>
     </row>
     <row r="42" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="B42" s="38">
-        <v>1</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38">
-        <v>2</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38">
-        <v>3</v>
-      </c>
       <c r="I42" s="38"/>
-      <c r="J42" s="38">
-        <v>3</v>
-      </c>
-      <c r="K42" s="38">
-        <v>4</v>
-      </c>
-      <c r="L42" s="38"/>
-      <c r="O42" s="38">
-        <v>2</v>
-      </c>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38">
-        <v>3</v>
-      </c>
-      <c r="R42" s="38">
-        <v>4</v>
-      </c>
       <c r="V42" s="38">
         <v>7</v>
       </c>
@@ -4493,20 +4605,6 @@
       </c>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.3">
-      <c r="I43" s="38"/>
-      <c r="J43" s="38">
-        <v>1</v>
-      </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38">
-        <v>2</v>
-      </c>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38">
-        <v>1</v>
-      </c>
-      <c r="R43" s="38"/>
       <c r="V43" s="38">
         <v>5</v>
       </c>
@@ -4545,4 +4643,3559 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:BV162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="BC157" sqref="BC157:BD162"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="53" customWidth="1"/>
+    <col min="2" max="8" width="3" style="38" customWidth="1"/>
+    <col min="9" max="9" width="3" style="52" customWidth="1"/>
+    <col min="10" max="33" width="3" style="38" customWidth="1"/>
+    <col min="34" max="34" width="3" style="53" customWidth="1"/>
+    <col min="35" max="37" width="3" style="38" customWidth="1"/>
+    <col min="38" max="54" width="3" style="38"/>
+    <col min="55" max="55" width="3" style="53" customWidth="1"/>
+    <col min="56" max="16384" width="3" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="38">
+        <v>1</v>
+      </c>
+      <c r="N2" s="38">
+        <v>3</v>
+      </c>
+      <c r="O2" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="38">
+        <v>5</v>
+      </c>
+      <c r="S2" s="38">
+        <v>6</v>
+      </c>
+      <c r="U2" s="38">
+        <v>7</v>
+      </c>
+      <c r="V2" s="38">
+        <v>1</v>
+      </c>
+      <c r="X2" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="38">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="38">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="38">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="38">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="56">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56">
+        <v>7</v>
+      </c>
+      <c r="AR2" s="56">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="38">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="38">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="38">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="38">
+        <v>5</v>
+      </c>
+      <c r="BA2" s="38">
+        <v>6</v>
+      </c>
+      <c r="BE2" s="38">
+        <v>3</v>
+      </c>
+      <c r="BF2" s="38">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="38">
+        <v>5</v>
+      </c>
+      <c r="BJ2" s="38">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="38">
+        <v>7</v>
+      </c>
+      <c r="BM2" s="38">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="38">
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="38">
+        <v>3</v>
+      </c>
+      <c r="BR2" s="38">
+        <v>4</v>
+      </c>
+      <c r="BT2" s="38">
+        <v>5</v>
+      </c>
+      <c r="BV2" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="F3" s="38">
+        <v>6</v>
+      </c>
+      <c r="H3" s="38">
+        <v>7</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1</v>
+      </c>
+      <c r="M3" s="38">
+        <v>7</v>
+      </c>
+      <c r="N3" s="38">
+        <v>1</v>
+      </c>
+      <c r="P3" s="38">
+        <v>2</v>
+      </c>
+      <c r="R3" s="38">
+        <v>3</v>
+      </c>
+      <c r="S3" s="38">
+        <v>4</v>
+      </c>
+      <c r="U3" s="38">
+        <v>5</v>
+      </c>
+      <c r="W3" s="38">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="38">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="38">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="38">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="38">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="56">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="38">
+        <v>6</v>
+      </c>
+      <c r="AU3" s="38">
+        <v>7</v>
+      </c>
+      <c r="AV3" s="38">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="38">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="38">
+        <v>3</v>
+      </c>
+      <c r="BA3" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD3" s="38">
+        <v>7</v>
+      </c>
+      <c r="BE3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="38">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="38">
+        <v>3</v>
+      </c>
+      <c r="BJ3" s="38">
+        <v>4</v>
+      </c>
+      <c r="BL3" s="38">
+        <v>5</v>
+      </c>
+      <c r="BN3" s="38">
+        <v>6</v>
+      </c>
+      <c r="BP3" s="38">
+        <v>7</v>
+      </c>
+      <c r="BQ3" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="38">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="38">
+        <v>3</v>
+      </c>
+      <c r="BV3" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="E4" s="38">
+        <v>3</v>
+      </c>
+      <c r="F4" s="38">
+        <v>4</v>
+      </c>
+      <c r="H4" s="38">
+        <v>5</v>
+      </c>
+      <c r="M4" s="38">
+        <v>5</v>
+      </c>
+      <c r="O4" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>7</v>
+      </c>
+      <c r="R4" s="61">
+        <v>1</v>
+      </c>
+      <c r="T4" s="59">
+        <v>2</v>
+      </c>
+      <c r="V4" s="58">
+        <v>3</v>
+      </c>
+      <c r="W4" s="60">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="62">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="64">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="42">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="38">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="56">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="56">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="38">
+        <v>4</v>
+      </c>
+      <c r="AU4" s="38">
+        <v>5</v>
+      </c>
+      <c r="AW4" s="38">
+        <v>6</v>
+      </c>
+      <c r="AY4" s="38">
+        <v>7</v>
+      </c>
+      <c r="AZ4" s="38">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="38">
+        <v>5</v>
+      </c>
+      <c r="BF4" s="38">
+        <v>6</v>
+      </c>
+      <c r="BH4" s="38">
+        <v>7</v>
+      </c>
+      <c r="BI4" s="38">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="38">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="38">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="38">
+        <v>4</v>
+      </c>
+      <c r="BP4" s="38">
+        <v>5</v>
+      </c>
+      <c r="BR4" s="38">
+        <v>6</v>
+      </c>
+      <c r="BT4" s="38">
+        <v>7</v>
+      </c>
+      <c r="BU4" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="E5" s="38">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38">
+        <v>2</v>
+      </c>
+      <c r="N5" s="38">
+        <v>3</v>
+      </c>
+      <c r="O5" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="61">
+        <v>5</v>
+      </c>
+      <c r="S5" s="59">
+        <v>6</v>
+      </c>
+      <c r="U5" s="58">
+        <v>7</v>
+      </c>
+      <c r="V5" s="38">
+        <v>1</v>
+      </c>
+      <c r="X5" s="63">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="64">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="38">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="38">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="38">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="56">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56">
+        <v>6</v>
+      </c>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56">
+        <v>7</v>
+      </c>
+      <c r="AR5" s="56">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="38">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="38">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="38">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="38">
+        <v>5</v>
+      </c>
+      <c r="BA5" s="38">
+        <v>6</v>
+      </c>
+      <c r="BE5" s="38">
+        <v>3</v>
+      </c>
+      <c r="BF5" s="38">
+        <v>4</v>
+      </c>
+      <c r="BH5" s="38">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="38">
+        <v>6</v>
+      </c>
+      <c r="BL5" s="38">
+        <v>7</v>
+      </c>
+      <c r="BM5" s="38">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="38">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="38">
+        <v>3</v>
+      </c>
+      <c r="BR5" s="38">
+        <v>4</v>
+      </c>
+      <c r="BT5" s="38">
+        <v>5</v>
+      </c>
+      <c r="BV5" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="M6" s="38">
+        <v>7</v>
+      </c>
+      <c r="N6" s="38">
+        <v>1</v>
+      </c>
+      <c r="P6" s="38">
+        <v>2</v>
+      </c>
+      <c r="R6" s="61">
+        <v>3</v>
+      </c>
+      <c r="S6" s="59">
+        <v>4</v>
+      </c>
+      <c r="U6" s="58">
+        <v>5</v>
+      </c>
+      <c r="W6" s="60">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="62">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="64">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="42">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="38">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="38">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="38">
+        <v>7</v>
+      </c>
+      <c r="AJ6" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="56">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="38">
+        <v>6</v>
+      </c>
+      <c r="AU6" s="38">
+        <v>7</v>
+      </c>
+      <c r="AV6" s="38">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="38">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="38">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="38">
+        <v>7</v>
+      </c>
+      <c r="BE6" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="38">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="38">
+        <v>3</v>
+      </c>
+      <c r="BJ6" s="38">
+        <v>4</v>
+      </c>
+      <c r="BL6" s="38">
+        <v>5</v>
+      </c>
+      <c r="BN6" s="38">
+        <v>6</v>
+      </c>
+      <c r="BP6" s="38">
+        <v>7</v>
+      </c>
+      <c r="BQ6" s="38">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="38">
+        <v>2</v>
+      </c>
+      <c r="BU6" s="38">
+        <v>3</v>
+      </c>
+      <c r="BV6" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="D7" s="38">
+        <v>7</v>
+      </c>
+      <c r="E7" s="38">
+        <v>1</v>
+      </c>
+      <c r="M7" s="38">
+        <v>5</v>
+      </c>
+      <c r="O7" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>7</v>
+      </c>
+      <c r="R7" s="61">
+        <v>1</v>
+      </c>
+      <c r="T7" s="59">
+        <v>2</v>
+      </c>
+      <c r="V7" s="58">
+        <v>3</v>
+      </c>
+      <c r="W7" s="60">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="62">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="64">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="42">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="38">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="38">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="56">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="56">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="38">
+        <v>4</v>
+      </c>
+      <c r="AU7" s="38">
+        <v>5</v>
+      </c>
+      <c r="AW7" s="38">
+        <v>6</v>
+      </c>
+      <c r="AY7" s="38">
+        <v>7</v>
+      </c>
+      <c r="AZ7" s="38">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="38">
+        <v>5</v>
+      </c>
+      <c r="BF7" s="38">
+        <v>6</v>
+      </c>
+      <c r="BH7" s="38">
+        <v>7</v>
+      </c>
+      <c r="BI7" s="38">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="38">
+        <v>2</v>
+      </c>
+      <c r="BM7" s="38">
+        <v>3</v>
+      </c>
+      <c r="BN7" s="38">
+        <v>4</v>
+      </c>
+      <c r="BP7" s="38">
+        <v>5</v>
+      </c>
+      <c r="BR7" s="38">
+        <v>6</v>
+      </c>
+      <c r="BT7" s="38">
+        <v>7</v>
+      </c>
+      <c r="BU7" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="D8" s="38">
+        <v>5</v>
+      </c>
+      <c r="F8" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="E9" s="38">
+        <v>3</v>
+      </c>
+      <c r="F9" s="38">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="BD9" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE9" s="57"/>
+      <c r="BF9" s="57"/>
+      <c r="BG9" s="57"/>
+      <c r="BH9" s="57"/>
+      <c r="BI9" s="57"/>
+      <c r="BJ9" s="57"/>
+      <c r="BK9" s="57"/>
+      <c r="BL9" s="57"/>
+    </row>
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="E10" s="38">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38">
+        <v>2</v>
+      </c>
+      <c r="O10" s="38">
+        <v>1</v>
+      </c>
+      <c r="S10" s="38">
+        <v>3</v>
+      </c>
+      <c r="V10" s="38">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="56">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="53">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="56"/>
+      <c r="BF10" s="56"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="56">
+        <v>7</v>
+      </c>
+      <c r="BI10" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="N11" s="38">
+        <v>5</v>
+      </c>
+      <c r="S11" s="38">
+        <v>1</v>
+      </c>
+      <c r="W11" s="38">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="47">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="48">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="56">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="56">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56">
+        <v>4</v>
+      </c>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="38">
+        <v>2</v>
+      </c>
+      <c r="AU11" s="38">
+        <v>4</v>
+      </c>
+      <c r="BE11" s="56"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="56">
+        <v>5</v>
+      </c>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="D12" s="38">
+        <v>7</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1</v>
+      </c>
+      <c r="O12" s="38">
+        <v>3</v>
+      </c>
+      <c r="R12" s="38">
+        <v>5</v>
+      </c>
+      <c r="W12" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="49">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="54">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="47">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="48"/>
+      <c r="AN12" s="56">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56">
+        <v>3</v>
+      </c>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="38">
+        <v>2</v>
+      </c>
+      <c r="AU12" s="38">
+        <v>4</v>
+      </c>
+      <c r="BE12" s="56"/>
+      <c r="BF12" s="56"/>
+      <c r="BG12" s="56">
+        <v>2</v>
+      </c>
+      <c r="BH12" s="56"/>
+      <c r="BI12" s="56">
+        <v>3</v>
+      </c>
+      <c r="BJ12" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="D13" s="38">
+        <v>5</v>
+      </c>
+      <c r="F13" s="38">
+        <v>6</v>
+      </c>
+      <c r="O13" s="38">
+        <v>1</v>
+      </c>
+      <c r="S13" s="38">
+        <v>3</v>
+      </c>
+      <c r="V13" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="50">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="51">
+        <v>7</v>
+      </c>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56">
+        <v>4</v>
+      </c>
+      <c r="AR13" s="56">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="38">
+        <v>2</v>
+      </c>
+      <c r="BE13" s="56"/>
+      <c r="BF13" s="56">
+        <v>6</v>
+      </c>
+      <c r="BG13" s="56"/>
+      <c r="BH13" s="56">
+        <v>7</v>
+      </c>
+      <c r="BI13" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="C14" s="38">
+        <v>2</v>
+      </c>
+      <c r="E14" s="38">
+        <v>3</v>
+      </c>
+      <c r="F14" s="38">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="56">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="56">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56">
+        <v>4</v>
+      </c>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="38">
+        <v>2</v>
+      </c>
+      <c r="AU14" s="38">
+        <v>4</v>
+      </c>
+      <c r="BE14" s="56">
+        <v>3</v>
+      </c>
+      <c r="BF14" s="56">
+        <v>4</v>
+      </c>
+      <c r="BG14" s="56"/>
+      <c r="BH14" s="56">
+        <v>5</v>
+      </c>
+      <c r="BI14" s="56"/>
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="56">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="38">
+        <v>2</v>
+      </c>
+      <c r="AU15" s="38">
+        <v>4</v>
+      </c>
+      <c r="BE15" s="56">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56">
+        <v>2</v>
+      </c>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="O16" s="38">
+        <v>2</v>
+      </c>
+      <c r="R16" s="38">
+        <v>4</v>
+      </c>
+      <c r="V16" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B17" s="38">
+        <v>6</v>
+      </c>
+      <c r="D17" s="38">
+        <v>7</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="N17" s="38">
+        <v>6</v>
+      </c>
+      <c r="S17" s="38">
+        <v>2</v>
+      </c>
+      <c r="V17" s="38">
+        <v>4</v>
+      </c>
+      <c r="BC17" s="53">
+        <v>2</v>
+      </c>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BI17" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B18" s="38">
+        <v>4</v>
+      </c>
+      <c r="D18" s="38">
+        <v>5</v>
+      </c>
+      <c r="N18" s="38">
+        <v>4</v>
+      </c>
+      <c r="R18" s="38">
+        <v>6</v>
+      </c>
+      <c r="W18" s="38">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK18" s="56">
+        <v>4</v>
+      </c>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="56">
+        <v>2</v>
+      </c>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="38">
+        <v>6</v>
+      </c>
+      <c r="BJ18" s="38">
+        <v>7</v>
+      </c>
+      <c r="BK18" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="C19" s="38">
+        <v>2</v>
+      </c>
+      <c r="E19" s="38">
+        <v>3</v>
+      </c>
+      <c r="O19" s="38">
+        <v>2</v>
+      </c>
+      <c r="R19" s="38">
+        <v>4</v>
+      </c>
+      <c r="V19" s="38">
+        <v>6</v>
+      </c>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="56">
+        <v>3</v>
+      </c>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56">
+        <v>5</v>
+      </c>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="38">
+        <v>6</v>
+      </c>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56">
+        <v>3</v>
+      </c>
+      <c r="BH19" s="38">
+        <v>4</v>
+      </c>
+      <c r="BJ19" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="E20" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="56">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="56">
+        <v>2</v>
+      </c>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56">
+        <v>4</v>
+      </c>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="38">
+        <v>4</v>
+      </c>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56">
+        <v>7</v>
+      </c>
+      <c r="BG20" s="56">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="AK21" s="56">
+        <v>4</v>
+      </c>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56">
+        <v>3</v>
+      </c>
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56">
+        <v>7</v>
+      </c>
+      <c r="AR21" s="56">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="38">
+        <v>2</v>
+      </c>
+      <c r="BE21" s="56"/>
+      <c r="BF21" s="56">
+        <v>5</v>
+      </c>
+      <c r="BG21" s="56"/>
+      <c r="BH21" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56">
+        <v>2</v>
+      </c>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="56">
+        <v>3</v>
+      </c>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="38">
+        <v>6</v>
+      </c>
+      <c r="BE22" s="56">
+        <v>2</v>
+      </c>
+      <c r="BF22" s="56"/>
+      <c r="BG22" s="56">
+        <v>3</v>
+      </c>
+      <c r="BH22" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="38">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56">
+        <v>4</v>
+      </c>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="56">
+        <v>3</v>
+      </c>
+      <c r="AS23" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="F24" s="38">
+        <v>7</v>
+      </c>
+      <c r="G24" s="38">
+        <v>1</v>
+      </c>
+      <c r="I24" s="52">
+        <v>2</v>
+      </c>
+      <c r="BC24" s="53">
+        <v>3</v>
+      </c>
+      <c r="BE24" s="56"/>
+      <c r="BI24" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="F25" s="38">
+        <v>5</v>
+      </c>
+      <c r="H25" s="38">
+        <v>6</v>
+      </c>
+      <c r="BE25" s="56"/>
+      <c r="BH25" s="38">
+        <v>7</v>
+      </c>
+      <c r="BI25" s="38">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="E26" s="38">
+        <v>2</v>
+      </c>
+      <c r="G26" s="38">
+        <v>3</v>
+      </c>
+      <c r="H26" s="38">
+        <v>4</v>
+      </c>
+      <c r="BE26" s="56"/>
+      <c r="BH26" s="38">
+        <v>5</v>
+      </c>
+      <c r="BJ26" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BE27" s="56"/>
+      <c r="BG27" s="38">
+        <v>2</v>
+      </c>
+      <c r="BI27" s="38">
+        <v>3</v>
+      </c>
+      <c r="BJ27" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="E28" s="38">
+        <v>2</v>
+      </c>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="38">
+        <v>6</v>
+      </c>
+      <c r="BH28" s="38">
+        <v>7</v>
+      </c>
+      <c r="BI28" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="D29" s="38">
+        <v>6</v>
+      </c>
+      <c r="F29" s="38">
+        <v>7</v>
+      </c>
+      <c r="G29" s="38">
+        <v>1</v>
+      </c>
+      <c r="BE29" s="56">
+        <v>3</v>
+      </c>
+      <c r="BF29" s="38">
+        <v>4</v>
+      </c>
+      <c r="BH29" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="D30" s="38">
+        <v>4</v>
+      </c>
+      <c r="F30" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="E31" s="38">
+        <v>2</v>
+      </c>
+      <c r="G31" s="38">
+        <v>3</v>
+      </c>
+      <c r="BC31" s="53">
+        <v>4</v>
+      </c>
+      <c r="BH31" s="38">
+        <v>3</v>
+      </c>
+      <c r="BI31" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BG32" s="38">
+        <v>7</v>
+      </c>
+      <c r="BH32" s="38">
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="C33" s="38">
+        <v>1</v>
+      </c>
+      <c r="E33" s="38">
+        <v>2</v>
+      </c>
+      <c r="BG33" s="38">
+        <v>5</v>
+      </c>
+      <c r="BI33" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="D34" s="38">
+        <v>6</v>
+      </c>
+      <c r="F34" s="38">
+        <v>7</v>
+      </c>
+      <c r="BF34" s="38">
+        <v>2</v>
+      </c>
+      <c r="BH34" s="38">
+        <v>3</v>
+      </c>
+      <c r="BI34" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="C35" s="38">
+        <v>3</v>
+      </c>
+      <c r="D35" s="38">
+        <v>4</v>
+      </c>
+      <c r="F35" s="38">
+        <v>5</v>
+      </c>
+      <c r="BE35" s="38">
+        <v>6</v>
+      </c>
+      <c r="BG35" s="38">
+        <v>7</v>
+      </c>
+      <c r="BH35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="E36" s="38">
+        <v>2</v>
+      </c>
+      <c r="BE36" s="38">
+        <v>4</v>
+      </c>
+      <c r="BG36" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="B38" s="38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="38">
+        <v>2</v>
+      </c>
+      <c r="BC38" s="53">
+        <v>5</v>
+      </c>
+      <c r="BG38" s="56"/>
+      <c r="BH38" s="56"/>
+      <c r="BI38" s="56">
+        <v>5</v>
+      </c>
+      <c r="BJ38" s="56"/>
+      <c r="BK38" s="56"/>
+      <c r="BL38" s="56"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="B39" s="38">
+        <v>5</v>
+      </c>
+      <c r="D39" s="38">
+        <v>6</v>
+      </c>
+      <c r="BG39" s="56"/>
+      <c r="BH39" s="56">
+        <v>2</v>
+      </c>
+      <c r="BI39" s="56"/>
+      <c r="BJ39" s="56">
+        <v>3</v>
+      </c>
+      <c r="BK39" s="56">
+        <v>4</v>
+      </c>
+      <c r="BL39" s="56"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="C40" s="38">
+        <v>3</v>
+      </c>
+      <c r="D40" s="38">
+        <v>4</v>
+      </c>
+      <c r="BG40" s="56">
+        <v>6</v>
+      </c>
+      <c r="BH40" s="56"/>
+      <c r="BI40" s="56">
+        <v>7</v>
+      </c>
+      <c r="BJ40" s="56">
+        <v>1</v>
+      </c>
+      <c r="BK40" s="56"/>
+      <c r="BL40" s="56"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="E41" s="38">
+        <v>2</v>
+      </c>
+      <c r="BF41" s="38">
+        <v>3</v>
+      </c>
+      <c r="BG41" s="56">
+        <v>4</v>
+      </c>
+      <c r="BH41" s="56"/>
+      <c r="BI41" s="56">
+        <v>5</v>
+      </c>
+      <c r="BJ41" s="56"/>
+      <c r="BK41" s="56"/>
+      <c r="BL41" s="56"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BE42" s="38">
+        <v>7</v>
+      </c>
+      <c r="BF42" s="38">
+        <v>1</v>
+      </c>
+      <c r="BG42" s="56"/>
+      <c r="BH42" s="56">
+        <v>2</v>
+      </c>
+      <c r="BI42" s="56"/>
+      <c r="BJ42" s="56"/>
+      <c r="BK42" s="56"/>
+      <c r="BL42" s="56"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="BE43" s="38">
+        <v>5</v>
+      </c>
+      <c r="BG43" s="56">
+        <v>6</v>
+      </c>
+      <c r="BH43" s="56"/>
+      <c r="BI43" s="56"/>
+      <c r="BJ43" s="56"/>
+      <c r="BK43" s="56"/>
+      <c r="BL43" s="56"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A44" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="38">
+        <v>3</v>
+      </c>
+      <c r="N44" s="38">
+        <v>3</v>
+      </c>
+      <c r="O44" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="38">
+        <v>5</v>
+      </c>
+      <c r="S44" s="38">
+        <v>6</v>
+      </c>
+      <c r="U44" s="38">
+        <v>7</v>
+      </c>
+      <c r="V44" s="38">
+        <v>1</v>
+      </c>
+      <c r="X44" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA44" s="38">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="38">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="E45" s="38">
+        <v>1</v>
+      </c>
+      <c r="G45" s="38">
+        <v>2</v>
+      </c>
+      <c r="I45" s="52">
+        <v>3</v>
+      </c>
+      <c r="M45" s="38">
+        <v>7</v>
+      </c>
+      <c r="N45" s="38">
+        <v>1</v>
+      </c>
+      <c r="P45" s="38">
+        <v>2</v>
+      </c>
+      <c r="R45" s="38">
+        <v>3</v>
+      </c>
+      <c r="S45" s="38">
+        <v>4</v>
+      </c>
+      <c r="U45" s="38">
+        <v>5</v>
+      </c>
+      <c r="W45" s="38">
+        <v>6</v>
+      </c>
+      <c r="Y45" s="38">
+        <v>7</v>
+      </c>
+      <c r="Z45" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="38">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="38">
+        <v>3</v>
+      </c>
+      <c r="AE45" s="38">
+        <v>4</v>
+      </c>
+      <c r="BC45" s="53">
+        <v>6</v>
+      </c>
+      <c r="BE45" s="56"/>
+      <c r="BF45" s="56"/>
+      <c r="BG45" s="56"/>
+      <c r="BH45" s="56"/>
+      <c r="BI45" s="56">
+        <v>6</v>
+      </c>
+      <c r="BJ45" s="56"/>
+      <c r="BK45" s="56"/>
+      <c r="BL45" s="56"/>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="F46" s="38">
+        <v>6</v>
+      </c>
+      <c r="H46" s="38">
+        <v>7</v>
+      </c>
+      <c r="M46" s="38">
+        <v>5</v>
+      </c>
+      <c r="O46" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="38">
+        <v>7</v>
+      </c>
+      <c r="R46" s="38">
+        <v>1</v>
+      </c>
+      <c r="T46" s="38">
+        <v>2</v>
+      </c>
+      <c r="V46" s="38">
+        <v>3</v>
+      </c>
+      <c r="W46" s="38">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="38">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="38">
+        <v>7</v>
+      </c>
+      <c r="AD46" s="38">
+        <v>1</v>
+      </c>
+      <c r="BE46" s="56"/>
+      <c r="BF46" s="56"/>
+      <c r="BG46" s="56"/>
+      <c r="BH46" s="56">
+        <v>3</v>
+      </c>
+      <c r="BI46" s="56">
+        <v>4</v>
+      </c>
+      <c r="BJ46" s="56"/>
+      <c r="BK46" s="56">
+        <v>5</v>
+      </c>
+      <c r="BL46" s="56"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="E47" s="38">
+        <v>3</v>
+      </c>
+      <c r="F47" s="38">
+        <v>4</v>
+      </c>
+      <c r="H47" s="38">
+        <v>5</v>
+      </c>
+      <c r="N47" s="38">
+        <v>3</v>
+      </c>
+      <c r="O47" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="38">
+        <v>5</v>
+      </c>
+      <c r="S47" s="38">
+        <v>6</v>
+      </c>
+      <c r="U47" s="38">
+        <v>7</v>
+      </c>
+      <c r="V47" s="38">
+        <v>1</v>
+      </c>
+      <c r="X47" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z47" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA47" s="38">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="38">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="38">
+        <v>6</v>
+      </c>
+      <c r="BE47" s="56"/>
+      <c r="BF47" s="56"/>
+      <c r="BG47" s="56">
+        <v>7</v>
+      </c>
+      <c r="BH47" s="56">
+        <v>1</v>
+      </c>
+      <c r="BI47" s="56"/>
+      <c r="BJ47" s="56">
+        <v>2</v>
+      </c>
+      <c r="BK47" s="56"/>
+      <c r="BL47" s="56"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="M48" s="38">
+        <v>7</v>
+      </c>
+      <c r="N48" s="38">
+        <v>1</v>
+      </c>
+      <c r="P48" s="38">
+        <v>2</v>
+      </c>
+      <c r="R48" s="38">
+        <v>3</v>
+      </c>
+      <c r="S48" s="38">
+        <v>4</v>
+      </c>
+      <c r="U48" s="38">
+        <v>5</v>
+      </c>
+      <c r="W48" s="38">
+        <v>6</v>
+      </c>
+      <c r="Y48" s="38">
+        <v>7</v>
+      </c>
+      <c r="Z48" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="38">
+        <v>2</v>
+      </c>
+      <c r="AD48" s="38">
+        <v>3</v>
+      </c>
+      <c r="AE48" s="38">
+        <v>4</v>
+      </c>
+      <c r="BE48" s="56"/>
+      <c r="BF48" s="56"/>
+      <c r="BG48" s="56">
+        <v>5</v>
+      </c>
+      <c r="BH48" s="56"/>
+      <c r="BI48" s="56">
+        <v>6</v>
+      </c>
+      <c r="BJ48" s="56"/>
+      <c r="BK48" s="56"/>
+      <c r="BL48" s="56"/>
+    </row>
+    <row r="49" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="E49" s="38">
+        <v>3</v>
+      </c>
+      <c r="M49" s="38">
+        <v>5</v>
+      </c>
+      <c r="O49" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="38">
+        <v>7</v>
+      </c>
+      <c r="R49" s="38">
+        <v>1</v>
+      </c>
+      <c r="T49" s="38">
+        <v>2</v>
+      </c>
+      <c r="V49" s="38">
+        <v>3</v>
+      </c>
+      <c r="W49" s="38">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="38">
+        <v>6</v>
+      </c>
+      <c r="AC49" s="38">
+        <v>7</v>
+      </c>
+      <c r="AD49" s="38">
+        <v>1</v>
+      </c>
+      <c r="BE49" s="56"/>
+      <c r="BF49" s="56">
+        <v>2</v>
+      </c>
+      <c r="BG49" s="56"/>
+      <c r="BH49" s="56">
+        <v>3</v>
+      </c>
+      <c r="BI49" s="56">
+        <v>4</v>
+      </c>
+      <c r="BJ49" s="56"/>
+      <c r="BK49" s="56"/>
+      <c r="BL49" s="56"/>
+    </row>
+    <row r="50" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="D50" s="38">
+        <v>7</v>
+      </c>
+      <c r="E50" s="38">
+        <v>1</v>
+      </c>
+      <c r="G50" s="38">
+        <v>2</v>
+      </c>
+      <c r="BE50" s="56">
+        <v>6</v>
+      </c>
+      <c r="BF50" s="56"/>
+      <c r="BG50" s="56">
+        <v>7</v>
+      </c>
+      <c r="BH50" s="56">
+        <v>1</v>
+      </c>
+      <c r="BI50" s="56"/>
+      <c r="BJ50" s="56"/>
+      <c r="BK50" s="56"/>
+      <c r="BL50" s="56"/>
+    </row>
+    <row r="51" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="D51" s="38">
+        <v>5</v>
+      </c>
+      <c r="F51" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="E52" s="38">
+        <v>3</v>
+      </c>
+      <c r="F52" s="38">
+        <v>4</v>
+      </c>
+      <c r="BC52" s="53">
+        <v>7</v>
+      </c>
+      <c r="BE52" s="56"/>
+      <c r="BF52" s="56"/>
+      <c r="BG52" s="56"/>
+      <c r="BH52" s="56"/>
+      <c r="BI52" s="56">
+        <v>7</v>
+      </c>
+      <c r="BJ52" s="56"/>
+    </row>
+    <row r="53" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="BE53" s="56"/>
+      <c r="BF53" s="56"/>
+      <c r="BG53" s="56"/>
+      <c r="BH53" s="56"/>
+      <c r="BI53" s="56">
+        <v>5</v>
+      </c>
+      <c r="BJ53" s="56"/>
+      <c r="BK53" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="C54" s="38">
+        <v>2</v>
+      </c>
+      <c r="E54" s="38">
+        <v>3</v>
+      </c>
+      <c r="BE54" s="56"/>
+      <c r="BF54" s="56"/>
+      <c r="BG54" s="56"/>
+      <c r="BH54" s="56">
+        <v>2</v>
+      </c>
+      <c r="BI54" s="56"/>
+      <c r="BJ54" s="56">
+        <v>3</v>
+      </c>
+      <c r="BK54" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="D55" s="38">
+        <v>7</v>
+      </c>
+      <c r="E55" s="38">
+        <v>1</v>
+      </c>
+      <c r="BE55" s="56"/>
+      <c r="BF55" s="56"/>
+      <c r="BG55" s="56">
+        <v>6</v>
+      </c>
+      <c r="BH55" s="56"/>
+      <c r="BI55" s="56">
+        <v>7</v>
+      </c>
+      <c r="BJ55" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="D56" s="38">
+        <v>5</v>
+      </c>
+      <c r="F56" s="38">
+        <v>6</v>
+      </c>
+      <c r="BE56" s="56"/>
+      <c r="BF56" s="56">
+        <v>3</v>
+      </c>
+      <c r="BG56" s="56">
+        <v>4</v>
+      </c>
+      <c r="BH56" s="56"/>
+      <c r="BI56" s="56">
+        <v>5</v>
+      </c>
+      <c r="BJ56" s="56"/>
+    </row>
+    <row r="57" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="E57" s="38">
+        <v>3</v>
+      </c>
+      <c r="F57" s="38">
+        <v>4</v>
+      </c>
+      <c r="BE57" s="56">
+        <v>7</v>
+      </c>
+      <c r="BF57" s="56">
+        <v>1</v>
+      </c>
+      <c r="BG57" s="56"/>
+      <c r="BH57" s="56">
+        <v>2</v>
+      </c>
+      <c r="BI57" s="56"/>
+      <c r="BJ57" s="56"/>
+    </row>
+    <row r="59" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="C59" s="38">
+        <v>2</v>
+      </c>
+      <c r="E59" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="B60" s="38">
+        <v>6</v>
+      </c>
+      <c r="D60" s="38">
+        <v>7</v>
+      </c>
+      <c r="E60" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="B61" s="38">
+        <v>4</v>
+      </c>
+      <c r="D61" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:64" x14ac:dyDescent="0.3">
+      <c r="E62" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F66" s="38">
+        <v>2</v>
+      </c>
+      <c r="H66" s="38">
+        <v>3</v>
+      </c>
+      <c r="I66" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E67" s="38">
+        <v>6</v>
+      </c>
+      <c r="G67" s="38">
+        <v>7</v>
+      </c>
+      <c r="H67" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E68" s="38">
+        <v>4</v>
+      </c>
+      <c r="G68" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D70" s="38">
+        <v>3</v>
+      </c>
+      <c r="E70" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D71" s="38">
+        <v>1</v>
+      </c>
+      <c r="F71" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E72" s="38">
+        <v>6</v>
+      </c>
+      <c r="G72" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E73" s="38">
+        <v>4</v>
+      </c>
+      <c r="G73" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D75" s="38">
+        <v>3</v>
+      </c>
+      <c r="E75" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C76" s="38">
+        <v>7</v>
+      </c>
+      <c r="D76" s="38">
+        <v>1</v>
+      </c>
+      <c r="F76" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C77" s="38">
+        <v>5</v>
+      </c>
+      <c r="E77" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E78" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="38">
+        <v>2</v>
+      </c>
+      <c r="D80" s="38">
+        <v>3</v>
+      </c>
+      <c r="E80" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C81" s="38">
+        <v>7</v>
+      </c>
+      <c r="D81" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C82" s="38">
+        <v>5</v>
+      </c>
+      <c r="E82" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E83" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F87" s="38">
+        <v>3</v>
+      </c>
+      <c r="G87" s="38">
+        <v>4</v>
+      </c>
+      <c r="I87" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E88" s="38">
+        <v>7</v>
+      </c>
+      <c r="F88" s="38">
+        <v>1</v>
+      </c>
+      <c r="H88" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E89" s="38">
+        <v>5</v>
+      </c>
+      <c r="G89" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E91" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D92" s="38">
+        <v>2</v>
+      </c>
+      <c r="F92" s="38">
+        <v>3</v>
+      </c>
+      <c r="G92" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E93" s="38">
+        <v>7</v>
+      </c>
+      <c r="F93" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E94" s="38">
+        <v>5</v>
+      </c>
+      <c r="G94" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C96" s="38">
+        <v>4</v>
+      </c>
+      <c r="E96" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D97" s="38">
+        <v>2</v>
+      </c>
+      <c r="F97" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C98" s="38">
+        <v>6</v>
+      </c>
+      <c r="E98" s="38">
+        <v>7</v>
+      </c>
+      <c r="F98" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E99" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="38">
+        <v>3</v>
+      </c>
+      <c r="C101" s="38">
+        <v>4</v>
+      </c>
+      <c r="E101" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="38">
+        <v>1</v>
+      </c>
+      <c r="D102" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C103" s="38">
+        <v>6</v>
+      </c>
+      <c r="E103" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E104" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E108" s="38">
+        <v>4</v>
+      </c>
+      <c r="G108" s="38">
+        <v>5</v>
+      </c>
+      <c r="I108" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F109" s="38">
+        <v>2</v>
+      </c>
+      <c r="H109" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E110" s="38">
+        <v>6</v>
+      </c>
+      <c r="G110" s="38">
+        <v>7</v>
+      </c>
+      <c r="H110" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E112" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D113" s="38">
+        <v>3</v>
+      </c>
+      <c r="E113" s="38">
+        <v>4</v>
+      </c>
+      <c r="G113" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D114" s="38">
+        <v>1</v>
+      </c>
+      <c r="F114" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="E115" s="38">
+        <v>6</v>
+      </c>
+      <c r="G115" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C117" s="38">
+        <v>5</v>
+      </c>
+      <c r="E117" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D118" s="38">
+        <v>3</v>
+      </c>
+      <c r="E118" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C119" s="38">
+        <v>7</v>
+      </c>
+      <c r="D119" s="38">
+        <v>1</v>
+      </c>
+      <c r="F119" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="E120" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C122" s="38">
+        <v>5</v>
+      </c>
+      <c r="E122" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B123" s="38">
+        <v>2</v>
+      </c>
+      <c r="D123" s="38">
+        <v>3</v>
+      </c>
+      <c r="E123" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C124" s="38">
+        <v>7</v>
+      </c>
+      <c r="D124" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="E125" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A128" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" s="38">
+        <v>7</v>
+      </c>
+      <c r="N128" s="38">
+        <v>3</v>
+      </c>
+      <c r="O128" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q128" s="38">
+        <v>5</v>
+      </c>
+      <c r="S128" s="38">
+        <v>6</v>
+      </c>
+      <c r="U128" s="38">
+        <v>7</v>
+      </c>
+      <c r="V128" s="38">
+        <v>1</v>
+      </c>
+      <c r="X128" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z128" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA128" s="38">
+        <v>4</v>
+      </c>
+      <c r="AC128" s="38">
+        <v>5</v>
+      </c>
+      <c r="AE128" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="E129" s="38">
+        <v>5</v>
+      </c>
+      <c r="G129" s="38">
+        <v>6</v>
+      </c>
+      <c r="I129" s="52">
+        <v>7</v>
+      </c>
+      <c r="M129" s="38">
+        <v>7</v>
+      </c>
+      <c r="N129" s="38">
+        <v>1</v>
+      </c>
+      <c r="P129" s="38">
+        <v>2</v>
+      </c>
+      <c r="R129" s="38">
+        <v>3</v>
+      </c>
+      <c r="S129" s="38">
+        <v>4</v>
+      </c>
+      <c r="U129" s="38">
+        <v>5</v>
+      </c>
+      <c r="W129" s="38">
+        <v>6</v>
+      </c>
+      <c r="Y129" s="38">
+        <v>7</v>
+      </c>
+      <c r="Z129" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB129" s="38">
+        <v>2</v>
+      </c>
+      <c r="AD129" s="38">
+        <v>3</v>
+      </c>
+      <c r="AE129" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="F130" s="38">
+        <v>3</v>
+      </c>
+      <c r="G130" s="38">
+        <v>4</v>
+      </c>
+      <c r="M130" s="38">
+        <v>5</v>
+      </c>
+      <c r="O130" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q130" s="38">
+        <v>7</v>
+      </c>
+      <c r="R130" s="38">
+        <v>1</v>
+      </c>
+      <c r="T130" s="38">
+        <v>2</v>
+      </c>
+      <c r="V130" s="38">
+        <v>3</v>
+      </c>
+      <c r="W130" s="38">
+        <v>4</v>
+      </c>
+      <c r="Y130" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA130" s="38">
+        <v>6</v>
+      </c>
+      <c r="AC130" s="38">
+        <v>7</v>
+      </c>
+      <c r="AD130" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="E131" s="38">
+        <v>7</v>
+      </c>
+      <c r="F131" s="38">
+        <v>1</v>
+      </c>
+      <c r="H131" s="38">
+        <v>2</v>
+      </c>
+      <c r="N131" s="38">
+        <v>3</v>
+      </c>
+      <c r="O131" s="38">
+        <v>4</v>
+      </c>
+      <c r="Q131" s="38">
+        <v>5</v>
+      </c>
+      <c r="S131" s="38">
+        <v>6</v>
+      </c>
+      <c r="U131" s="38">
+        <v>7</v>
+      </c>
+      <c r="V131" s="38">
+        <v>1</v>
+      </c>
+      <c r="X131" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z131" s="38">
+        <v>3</v>
+      </c>
+      <c r="AA131" s="38">
+        <v>4</v>
+      </c>
+      <c r="AC131" s="38">
+        <v>5</v>
+      </c>
+      <c r="AE131" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="M132" s="38">
+        <v>7</v>
+      </c>
+      <c r="N132" s="38">
+        <v>1</v>
+      </c>
+      <c r="P132" s="38">
+        <v>2</v>
+      </c>
+      <c r="R132" s="38">
+        <v>3</v>
+      </c>
+      <c r="S132" s="38">
+        <v>4</v>
+      </c>
+      <c r="U132" s="38">
+        <v>5</v>
+      </c>
+      <c r="W132" s="38">
+        <v>6</v>
+      </c>
+      <c r="Y132" s="38">
+        <v>7</v>
+      </c>
+      <c r="Z132" s="38">
+        <v>1</v>
+      </c>
+      <c r="AB132" s="38">
+        <v>2</v>
+      </c>
+      <c r="AD132" s="38">
+        <v>3</v>
+      </c>
+      <c r="AE132" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="E133" s="38">
+        <v>7</v>
+      </c>
+      <c r="M133" s="38">
+        <v>5</v>
+      </c>
+      <c r="O133" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q133" s="38">
+        <v>7</v>
+      </c>
+      <c r="R133" s="38">
+        <v>1</v>
+      </c>
+      <c r="T133" s="38">
+        <v>2</v>
+      </c>
+      <c r="V133" s="38">
+        <v>3</v>
+      </c>
+      <c r="W133" s="38">
+        <v>4</v>
+      </c>
+      <c r="Y133" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA133" s="38">
+        <v>6</v>
+      </c>
+      <c r="AC133" s="38">
+        <v>7</v>
+      </c>
+      <c r="AD133" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="E134" s="38">
+        <v>5</v>
+      </c>
+      <c r="G134" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="D135" s="38">
+        <v>2</v>
+      </c>
+      <c r="F135" s="38">
+        <v>3</v>
+      </c>
+      <c r="G135" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="E136" s="38">
+        <v>7</v>
+      </c>
+      <c r="F136" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C138" s="38">
+        <v>6</v>
+      </c>
+      <c r="E138" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C139" s="38">
+        <v>4</v>
+      </c>
+      <c r="E139" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="D140" s="38">
+        <v>2</v>
+      </c>
+      <c r="F140" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="E141" s="38">
+        <v>7</v>
+      </c>
+      <c r="F141" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C143" s="38">
+        <v>6</v>
+      </c>
+      <c r="E143" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B144" s="38">
+        <v>3</v>
+      </c>
+      <c r="C144" s="38">
+        <v>4</v>
+      </c>
+      <c r="E144" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="B145" s="38">
+        <v>1</v>
+      </c>
+      <c r="D145" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="E146" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C150" s="56"/>
+      <c r="D150" s="56">
+        <v>6</v>
+      </c>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56">
+        <v>7</v>
+      </c>
+      <c r="G150" s="56">
+        <v>1</v>
+      </c>
+      <c r="I150" s="38">
+        <v>2</v>
+      </c>
+      <c r="K150" s="38">
+        <v>3</v>
+      </c>
+      <c r="L150" s="38">
+        <v>4</v>
+      </c>
+      <c r="N150" s="38">
+        <v>5</v>
+      </c>
+      <c r="O150" s="56"/>
+      <c r="P150" s="56">
+        <v>6</v>
+      </c>
+      <c r="Q150" s="56"/>
+      <c r="R150" s="56">
+        <v>7</v>
+      </c>
+      <c r="S150" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C151" s="56">
+        <v>3</v>
+      </c>
+      <c r="D151" s="56">
+        <v>4</v>
+      </c>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56">
+        <v>5</v>
+      </c>
+      <c r="G151" s="56"/>
+      <c r="H151" s="38">
+        <v>6</v>
+      </c>
+      <c r="I151" s="38"/>
+      <c r="J151" s="38">
+        <v>7</v>
+      </c>
+      <c r="K151" s="38">
+        <v>1</v>
+      </c>
+      <c r="M151" s="38">
+        <v>2</v>
+      </c>
+      <c r="O151" s="56">
+        <v>3</v>
+      </c>
+      <c r="P151" s="56">
+        <v>4</v>
+      </c>
+      <c r="Q151" s="56"/>
+      <c r="R151" s="56">
+        <v>5</v>
+      </c>
+      <c r="S151" s="56"/>
+      <c r="T151" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C152" s="56">
+        <v>1</v>
+      </c>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56">
+        <v>2</v>
+      </c>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56">
+        <v>3</v>
+      </c>
+      <c r="H152" s="38">
+        <v>4</v>
+      </c>
+      <c r="I152" s="38"/>
+      <c r="J152" s="38">
+        <v>5</v>
+      </c>
+      <c r="L152" s="38">
+        <v>6</v>
+      </c>
+      <c r="N152" s="38">
+        <v>7</v>
+      </c>
+      <c r="O152" s="56">
+        <v>1</v>
+      </c>
+      <c r="P152" s="56"/>
+      <c r="Q152" s="56">
+        <v>2</v>
+      </c>
+      <c r="R152" s="56"/>
+      <c r="S152" s="56">
+        <v>3</v>
+      </c>
+      <c r="T152" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C153" s="56"/>
+      <c r="D153" s="56">
+        <v>6</v>
+      </c>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56">
+        <v>7</v>
+      </c>
+      <c r="G153" s="56">
+        <v>1</v>
+      </c>
+      <c r="I153" s="38">
+        <v>2</v>
+      </c>
+      <c r="K153" s="38">
+        <v>3</v>
+      </c>
+      <c r="L153" s="38">
+        <v>4</v>
+      </c>
+      <c r="N153" s="38">
+        <v>5</v>
+      </c>
+      <c r="O153" s="56"/>
+      <c r="P153" s="56">
+        <v>6</v>
+      </c>
+      <c r="Q153" s="56"/>
+      <c r="R153" s="56">
+        <v>7</v>
+      </c>
+      <c r="S153" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C154" s="56">
+        <v>3</v>
+      </c>
+      <c r="D154" s="56">
+        <v>4</v>
+      </c>
+      <c r="E154" s="56"/>
+      <c r="F154" s="56">
+        <v>5</v>
+      </c>
+      <c r="G154" s="56"/>
+      <c r="H154" s="38">
+        <v>6</v>
+      </c>
+      <c r="I154" s="38"/>
+      <c r="J154" s="38">
+        <v>7</v>
+      </c>
+      <c r="K154" s="38">
+        <v>1</v>
+      </c>
+      <c r="M154" s="38">
+        <v>2</v>
+      </c>
+      <c r="O154" s="56">
+        <v>3</v>
+      </c>
+      <c r="P154" s="56">
+        <v>4</v>
+      </c>
+      <c r="Q154" s="56"/>
+      <c r="R154" s="56">
+        <v>5</v>
+      </c>
+      <c r="S154" s="56"/>
+      <c r="T154" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C155" s="56">
+        <v>1</v>
+      </c>
+      <c r="D155" s="56"/>
+      <c r="E155" s="56">
+        <v>2</v>
+      </c>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56">
+        <v>3</v>
+      </c>
+      <c r="H155" s="38">
+        <v>4</v>
+      </c>
+      <c r="I155" s="38"/>
+      <c r="J155" s="38">
+        <v>5</v>
+      </c>
+      <c r="L155" s="38">
+        <v>6</v>
+      </c>
+      <c r="N155" s="38">
+        <v>7</v>
+      </c>
+      <c r="O155" s="56">
+        <v>1</v>
+      </c>
+      <c r="P155" s="56"/>
+      <c r="Q155" s="56">
+        <v>2</v>
+      </c>
+      <c r="R155" s="56"/>
+      <c r="S155" s="56">
+        <v>3</v>
+      </c>
+      <c r="T155" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="BC156" s="38"/>
+      <c r="BE156" s="53"/>
+    </row>
+    <row r="157" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C157" s="56"/>
+      <c r="D157" s="56">
+        <v>6</v>
+      </c>
+      <c r="E157" s="56"/>
+      <c r="F157" s="56">
+        <v>7</v>
+      </c>
+      <c r="I157" s="56">
+        <v>6</v>
+      </c>
+      <c r="J157" s="56"/>
+      <c r="K157" s="56">
+        <v>7</v>
+      </c>
+      <c r="L157" s="56">
+        <v>1</v>
+      </c>
+      <c r="O157" s="56"/>
+      <c r="P157" s="56">
+        <v>7</v>
+      </c>
+      <c r="Q157" s="56">
+        <v>1</v>
+      </c>
+      <c r="U157" s="56">
+        <v>7</v>
+      </c>
+      <c r="V157" s="56">
+        <v>1</v>
+      </c>
+      <c r="X157" s="38">
+        <v>2</v>
+      </c>
+      <c r="AA157" s="56">
+        <v>1</v>
+      </c>
+      <c r="AC157" s="38">
+        <v>2</v>
+      </c>
+      <c r="AG157" s="38">
+        <v>2</v>
+      </c>
+      <c r="AH157" s="38"/>
+      <c r="AI157" s="38">
+        <v>3</v>
+      </c>
+      <c r="AJ157" s="38">
+        <v>4</v>
+      </c>
+      <c r="AN157" s="38">
+        <v>3</v>
+      </c>
+      <c r="AO157" s="38">
+        <v>4</v>
+      </c>
+      <c r="AS157" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT157" s="38">
+        <v>4</v>
+      </c>
+      <c r="AV157" s="38">
+        <v>5</v>
+      </c>
+      <c r="AY157" s="38">
+        <v>4</v>
+      </c>
+      <c r="BA157" s="38">
+        <v>5</v>
+      </c>
+      <c r="BB157" s="56"/>
+      <c r="BC157" s="56"/>
+      <c r="BD157" s="56"/>
+      <c r="BE157" s="38">
+        <v>5</v>
+      </c>
+      <c r="BF157" s="56"/>
+      <c r="BG157" s="56">
+        <v>6</v>
+      </c>
+      <c r="BH157" s="56"/>
+      <c r="BO157" s="53"/>
+    </row>
+    <row r="158" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C158" s="56">
+        <v>3</v>
+      </c>
+      <c r="D158" s="56">
+        <v>4</v>
+      </c>
+      <c r="E158" s="56"/>
+      <c r="F158" s="56">
+        <v>5</v>
+      </c>
+      <c r="I158" s="56">
+        <v>4</v>
+      </c>
+      <c r="J158" s="56"/>
+      <c r="K158" s="56">
+        <v>5</v>
+      </c>
+      <c r="L158" s="56"/>
+      <c r="O158" s="56"/>
+      <c r="P158" s="56">
+        <v>5</v>
+      </c>
+      <c r="Q158" s="56"/>
+      <c r="R158" s="38">
+        <v>6</v>
+      </c>
+      <c r="U158" s="56">
+        <v>5</v>
+      </c>
+      <c r="V158" s="56"/>
+      <c r="W158" s="38">
+        <v>6</v>
+      </c>
+      <c r="AA158" s="56"/>
+      <c r="AB158" s="38">
+        <v>6</v>
+      </c>
+      <c r="AD158" s="38">
+        <v>7</v>
+      </c>
+      <c r="AH158" s="38">
+        <v>7</v>
+      </c>
+      <c r="AI158" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM158" s="38">
+        <v>7</v>
+      </c>
+      <c r="AN158" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP158" s="38">
+        <v>2</v>
+      </c>
+      <c r="AS158" s="38">
+        <v>1</v>
+      </c>
+      <c r="AU158" s="38">
+        <v>2</v>
+      </c>
+      <c r="AZ158" s="38">
+        <v>2</v>
+      </c>
+      <c r="BB158" s="56">
+        <v>3</v>
+      </c>
+      <c r="BC158" s="56"/>
+      <c r="BD158" s="56"/>
+      <c r="BF158" s="56">
+        <v>3</v>
+      </c>
+      <c r="BG158" s="56">
+        <v>4</v>
+      </c>
+      <c r="BH158" s="56"/>
+      <c r="BO158" s="53"/>
+    </row>
+    <row r="159" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C159" s="56">
+        <v>1</v>
+      </c>
+      <c r="D159" s="56"/>
+      <c r="E159" s="56">
+        <v>2</v>
+      </c>
+      <c r="F159" s="56"/>
+      <c r="I159" s="56"/>
+      <c r="J159" s="56">
+        <v>2</v>
+      </c>
+      <c r="K159" s="56"/>
+      <c r="L159" s="56">
+        <v>3</v>
+      </c>
+      <c r="O159" s="56">
+        <v>2</v>
+      </c>
+      <c r="P159" s="56"/>
+      <c r="Q159" s="56">
+        <v>3</v>
+      </c>
+      <c r="R159" s="38">
+        <v>4</v>
+      </c>
+      <c r="U159" s="56"/>
+      <c r="V159" s="56">
+        <v>3</v>
+      </c>
+      <c r="W159" s="38">
+        <v>4</v>
+      </c>
+      <c r="AA159" s="56">
+        <v>3</v>
+      </c>
+      <c r="AB159" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD159" s="38">
+        <v>5</v>
+      </c>
+      <c r="AH159" s="38">
+        <v>5</v>
+      </c>
+      <c r="AJ159" s="38">
+        <v>6</v>
+      </c>
+      <c r="AM159" s="38">
+        <v>5</v>
+      </c>
+      <c r="AO159" s="38">
+        <v>6</v>
+      </c>
+      <c r="AT159" s="38">
+        <v>6</v>
+      </c>
+      <c r="AV159" s="38">
+        <v>7</v>
+      </c>
+      <c r="AY159" s="38">
+        <v>6</v>
+      </c>
+      <c r="BA159" s="38">
+        <v>7</v>
+      </c>
+      <c r="BB159" s="56">
+        <v>1</v>
+      </c>
+      <c r="BC159" s="56"/>
+      <c r="BD159" s="56"/>
+      <c r="BE159" s="38">
+        <v>7</v>
+      </c>
+      <c r="BF159" s="56">
+        <v>1</v>
+      </c>
+      <c r="BG159" s="56"/>
+      <c r="BH159" s="56">
+        <v>2</v>
+      </c>
+      <c r="BO159" s="53"/>
+    </row>
+    <row r="160" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="C160" s="56"/>
+      <c r="D160" s="56">
+        <v>6</v>
+      </c>
+      <c r="E160" s="56"/>
+      <c r="F160" s="56">
+        <v>7</v>
+      </c>
+      <c r="I160" s="56">
+        <v>6</v>
+      </c>
+      <c r="J160" s="56"/>
+      <c r="K160" s="56">
+        <v>7</v>
+      </c>
+      <c r="L160" s="56">
+        <v>1</v>
+      </c>
+      <c r="O160" s="56"/>
+      <c r="P160" s="56">
+        <v>7</v>
+      </c>
+      <c r="Q160" s="56">
+        <v>1</v>
+      </c>
+      <c r="U160" s="56">
+        <v>7</v>
+      </c>
+      <c r="V160" s="56">
+        <v>1</v>
+      </c>
+      <c r="X160" s="38">
+        <v>2</v>
+      </c>
+      <c r="AA160" s="56">
+        <v>1</v>
+      </c>
+      <c r="AC160" s="38">
+        <v>2</v>
+      </c>
+      <c r="AG160" s="38">
+        <v>2</v>
+      </c>
+      <c r="AH160" s="38"/>
+      <c r="AI160" s="38">
+        <v>3</v>
+      </c>
+      <c r="AJ160" s="38">
+        <v>4</v>
+      </c>
+      <c r="AN160" s="38">
+        <v>3</v>
+      </c>
+      <c r="AO160" s="38">
+        <v>4</v>
+      </c>
+      <c r="AS160" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT160" s="38">
+        <v>4</v>
+      </c>
+      <c r="AV160" s="38">
+        <v>5</v>
+      </c>
+      <c r="AY160" s="38">
+        <v>4</v>
+      </c>
+      <c r="BA160" s="38">
+        <v>5</v>
+      </c>
+      <c r="BB160" s="56"/>
+      <c r="BC160" s="56"/>
+      <c r="BD160" s="56"/>
+      <c r="BE160" s="38">
+        <v>5</v>
+      </c>
+      <c r="BF160" s="56"/>
+      <c r="BG160" s="56">
+        <v>6</v>
+      </c>
+      <c r="BH160" s="56"/>
+      <c r="BO160" s="53"/>
+    </row>
+    <row r="161" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="C161" s="56">
+        <v>3</v>
+      </c>
+      <c r="D161" s="56">
+        <v>4</v>
+      </c>
+      <c r="E161" s="56"/>
+      <c r="F161" s="56">
+        <v>5</v>
+      </c>
+      <c r="I161" s="56">
+        <v>4</v>
+      </c>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56">
+        <v>5</v>
+      </c>
+      <c r="L161" s="56"/>
+      <c r="O161" s="56"/>
+      <c r="P161" s="56">
+        <v>5</v>
+      </c>
+      <c r="Q161" s="56"/>
+      <c r="R161" s="38">
+        <v>6</v>
+      </c>
+      <c r="U161" s="56">
+        <v>5</v>
+      </c>
+      <c r="V161" s="56"/>
+      <c r="W161" s="38">
+        <v>6</v>
+      </c>
+      <c r="AA161" s="56"/>
+      <c r="AB161" s="38">
+        <v>6</v>
+      </c>
+      <c r="AD161" s="38">
+        <v>7</v>
+      </c>
+      <c r="AH161" s="38">
+        <v>7</v>
+      </c>
+      <c r="AI161" s="38">
+        <v>1</v>
+      </c>
+      <c r="AM161" s="38">
+        <v>7</v>
+      </c>
+      <c r="AN161" s="38">
+        <v>1</v>
+      </c>
+      <c r="AP161" s="38">
+        <v>2</v>
+      </c>
+      <c r="AS161" s="38">
+        <v>1</v>
+      </c>
+      <c r="AU161" s="38">
+        <v>2</v>
+      </c>
+      <c r="AZ161" s="38">
+        <v>2</v>
+      </c>
+      <c r="BB161" s="56">
+        <v>3</v>
+      </c>
+      <c r="BC161" s="56"/>
+      <c r="BD161" s="56"/>
+      <c r="BF161" s="56">
+        <v>3</v>
+      </c>
+      <c r="BG161" s="56">
+        <v>4</v>
+      </c>
+      <c r="BH161" s="56"/>
+      <c r="BO161" s="53"/>
+    </row>
+    <row r="162" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="C162" s="56">
+        <v>1</v>
+      </c>
+      <c r="D162" s="56"/>
+      <c r="E162" s="56">
+        <v>2</v>
+      </c>
+      <c r="F162" s="56"/>
+      <c r="I162" s="56"/>
+      <c r="J162" s="56">
+        <v>2</v>
+      </c>
+      <c r="K162" s="56"/>
+      <c r="L162" s="56">
+        <v>3</v>
+      </c>
+      <c r="O162" s="56">
+        <v>2</v>
+      </c>
+      <c r="P162" s="56"/>
+      <c r="Q162" s="56">
+        <v>3</v>
+      </c>
+      <c r="R162" s="38">
+        <v>4</v>
+      </c>
+      <c r="U162" s="56"/>
+      <c r="V162" s="56">
+        <v>3</v>
+      </c>
+      <c r="W162" s="38">
+        <v>4</v>
+      </c>
+      <c r="AA162" s="56">
+        <v>3</v>
+      </c>
+      <c r="AB162" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD162" s="38">
+        <v>5</v>
+      </c>
+      <c r="AH162" s="38">
+        <v>5</v>
+      </c>
+      <c r="AJ162" s="38">
+        <v>6</v>
+      </c>
+      <c r="AM162" s="38">
+        <v>5</v>
+      </c>
+      <c r="AO162" s="38">
+        <v>6</v>
+      </c>
+      <c r="AT162" s="38">
+        <v>6</v>
+      </c>
+      <c r="AV162" s="38">
+        <v>7</v>
+      </c>
+      <c r="AY162" s="38">
+        <v>6</v>
+      </c>
+      <c r="BA162" s="38">
+        <v>7</v>
+      </c>
+      <c r="BB162" s="56">
+        <v>1</v>
+      </c>
+      <c r="BC162" s="56"/>
+      <c r="BD162" s="56"/>
+      <c r="BE162" s="38">
+        <v>7</v>
+      </c>
+      <c r="BF162" s="56">
+        <v>1</v>
+      </c>
+      <c r="BG162" s="56"/>
+      <c r="BH162" s="56">
+        <v>2</v>
+      </c>
+      <c r="BO162" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AI9:AU9"/>
+    <mergeCell ref="BD9:BL9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Scales" sheetId="2" r:id="rId2"/>
     <sheet name="Alt. Tunings" sheetId="3" r:id="rId3"/>
     <sheet name="3rds Stuff" sheetId="4" r:id="rId4"/>
+    <sheet name="3rds Modes" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="fingerboard">Scales!$B$4:$T$9</definedName>
@@ -473,7 +474,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
@@ -489,7 +490,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1">
@@ -665,6 +666,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4648,10 +4652,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:BV162"/>
+  <dimension ref="A2:CS162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="BC157" sqref="BC157:BD162"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4667,7 +4671,7 @@
     <col min="56" max="16384" width="3" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>26</v>
       </c>
@@ -4777,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="F3" s="38">
         <v>6</v>
       </c>
@@ -4900,7 +4904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E4" s="38">
         <v>3</v>
       </c>
@@ -5013,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E5" s="38">
         <v>1</v>
       </c>
@@ -5060,11 +5064,11 @@
         <v>4</v>
       </c>
       <c r="AL5" s="56"/>
-      <c r="AM5" s="56">
+      <c r="AM5" s="3">
         <v>5</v>
       </c>
       <c r="AN5" s="56"/>
-      <c r="AO5" s="56">
+      <c r="AO5" s="3">
         <v>6</v>
       </c>
       <c r="AP5" s="56"/>
@@ -5123,7 +5127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.3">
       <c r="M6" s="38">
         <v>7</v>
       </c>
@@ -5167,14 +5171,14 @@
         <v>1</v>
       </c>
       <c r="AK6" s="56"/>
-      <c r="AL6" s="56">
+      <c r="AL6" s="3">
         <v>2</v>
       </c>
       <c r="AM6" s="56"/>
-      <c r="AN6" s="56">
-        <v>3</v>
-      </c>
-      <c r="AO6" s="56">
+      <c r="AN6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="3">
         <v>4</v>
       </c>
       <c r="AP6" s="56"/>
@@ -5237,7 +5241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.3">
       <c r="D7" s="38">
         <v>7</v>
       </c>
@@ -5284,14 +5288,14 @@
         <v>6</v>
       </c>
       <c r="AL7" s="56"/>
-      <c r="AM7" s="56">
-        <v>7</v>
-      </c>
-      <c r="AN7" s="56">
+      <c r="AM7" s="3">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="3">
         <v>1</v>
       </c>
       <c r="AO7" s="56"/>
-      <c r="AP7" s="56">
+      <c r="AP7" s="3">
         <v>2</v>
       </c>
       <c r="AQ7" s="56"/>
@@ -5347,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.3">
       <c r="D8" s="38">
         <v>5</v>
       </c>
@@ -5355,41 +5359,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E9" s="38">
         <v>3</v>
       </c>
       <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="AI9" s="57" t="s">
+      <c r="AI9" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="BD9" s="57" t="s">
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="BD9" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="BE9" s="57"/>
-      <c r="BF9" s="57"/>
-      <c r="BG9" s="57"/>
-      <c r="BH9" s="57"/>
-      <c r="BI9" s="57"/>
-      <c r="BJ9" s="57"/>
-      <c r="BK9" s="57"/>
-      <c r="BL9" s="57"/>
-    </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="BE9" s="65"/>
+      <c r="BF9" s="65"/>
+      <c r="BG9" s="65"/>
+      <c r="BH9" s="65"/>
+      <c r="BI9" s="65"/>
+      <c r="BJ9" s="65"/>
+      <c r="BK9" s="65"/>
+      <c r="BL9" s="65"/>
+    </row>
+    <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E10" s="38">
         <v>1</v>
       </c>
@@ -5431,8 +5435,56 @@
       <c r="BI10" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="BX10" s="57"/>
+      <c r="BY10" s="57">
+        <v>6</v>
+      </c>
+      <c r="BZ10" s="57"/>
+      <c r="CA10" s="57">
+        <v>7</v>
+      </c>
+      <c r="CB10" s="57">
+        <v>1</v>
+      </c>
+      <c r="CC10" s="57"/>
+      <c r="CD10" s="57">
+        <v>2</v>
+      </c>
+      <c r="CE10" s="57"/>
+      <c r="CF10" s="57">
+        <v>3</v>
+      </c>
+      <c r="CG10" s="57">
+        <v>4</v>
+      </c>
+      <c r="CH10" s="57"/>
+      <c r="CI10" s="57">
+        <v>5</v>
+      </c>
+      <c r="CJ10" s="57"/>
+      <c r="CK10" s="57">
+        <v>6</v>
+      </c>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="57">
+        <v>7</v>
+      </c>
+      <c r="CN10" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO10" s="57"/>
+      <c r="CP10" s="57">
+        <v>2</v>
+      </c>
+      <c r="CQ10" s="57"/>
+      <c r="CR10" s="57">
+        <v>3</v>
+      </c>
+      <c r="CS10" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:97" x14ac:dyDescent="0.3">
       <c r="N11" s="38">
         <v>5</v>
       </c>
@@ -5476,8 +5528,56 @@
       <c r="BJ11" s="38">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="BX11" s="57">
+        <v>3</v>
+      </c>
+      <c r="BY11" s="57">
+        <v>4</v>
+      </c>
+      <c r="BZ11" s="57"/>
+      <c r="CA11" s="57">
+        <v>5</v>
+      </c>
+      <c r="CB11" s="57"/>
+      <c r="CC11" s="57">
+        <v>6</v>
+      </c>
+      <c r="CD11" s="57"/>
+      <c r="CE11" s="57">
+        <v>7</v>
+      </c>
+      <c r="CF11" s="57">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="57"/>
+      <c r="CH11" s="57">
+        <v>2</v>
+      </c>
+      <c r="CI11" s="57"/>
+      <c r="CJ11" s="57">
+        <v>3</v>
+      </c>
+      <c r="CK11" s="57">
+        <v>4</v>
+      </c>
+      <c r="CL11" s="57"/>
+      <c r="CM11" s="57">
+        <v>5</v>
+      </c>
+      <c r="CN11" s="57"/>
+      <c r="CO11" s="57">
+        <v>6</v>
+      </c>
+      <c r="CP11" s="57"/>
+      <c r="CQ11" s="57">
+        <v>7</v>
+      </c>
+      <c r="CR11" s="57">
+        <v>1</v>
+      </c>
+      <c r="CS11" s="57"/>
+    </row>
+    <row r="12" spans="1:97" x14ac:dyDescent="0.3">
       <c r="D12" s="38">
         <v>7</v>
       </c>
@@ -5533,8 +5633,56 @@
       <c r="BJ12" s="38">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="BX12" s="57">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="57"/>
+      <c r="BZ12" s="57">
+        <v>2</v>
+      </c>
+      <c r="CA12" s="57"/>
+      <c r="CB12" s="57">
+        <v>3</v>
+      </c>
+      <c r="CC12" s="57">
+        <v>4</v>
+      </c>
+      <c r="CD12" s="57"/>
+      <c r="CE12" s="57">
+        <v>5</v>
+      </c>
+      <c r="CF12" s="57"/>
+      <c r="CG12" s="57">
+        <v>6</v>
+      </c>
+      <c r="CH12" s="57"/>
+      <c r="CI12" s="57">
+        <v>7</v>
+      </c>
+      <c r="CJ12" s="57">
+        <v>1</v>
+      </c>
+      <c r="CK12" s="57"/>
+      <c r="CL12" s="57">
+        <v>2</v>
+      </c>
+      <c r="CM12" s="57"/>
+      <c r="CN12" s="57">
+        <v>3</v>
+      </c>
+      <c r="CO12" s="57">
+        <v>4</v>
+      </c>
+      <c r="CP12" s="57"/>
+      <c r="CQ12" s="57">
+        <v>5</v>
+      </c>
+      <c r="CR12" s="57"/>
+      <c r="CS12" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:97" x14ac:dyDescent="0.3">
       <c r="D13" s="38">
         <v>5</v>
       </c>
@@ -5583,8 +5731,56 @@
       <c r="BI13" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="BX13" s="57"/>
+      <c r="BY13" s="57">
+        <v>6</v>
+      </c>
+      <c r="BZ13" s="57"/>
+      <c r="CA13" s="57">
+        <v>7</v>
+      </c>
+      <c r="CB13" s="57">
+        <v>1</v>
+      </c>
+      <c r="CC13" s="57"/>
+      <c r="CD13" s="57">
+        <v>2</v>
+      </c>
+      <c r="CE13" s="57"/>
+      <c r="CF13" s="57">
+        <v>3</v>
+      </c>
+      <c r="CG13" s="57">
+        <v>4</v>
+      </c>
+      <c r="CH13" s="57"/>
+      <c r="CI13" s="57">
+        <v>5</v>
+      </c>
+      <c r="CJ13" s="57"/>
+      <c r="CK13" s="57">
+        <v>6</v>
+      </c>
+      <c r="CL13" s="57"/>
+      <c r="CM13" s="57">
+        <v>7</v>
+      </c>
+      <c r="CN13" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO13" s="57"/>
+      <c r="CP13" s="57">
+        <v>2</v>
+      </c>
+      <c r="CQ13" s="57"/>
+      <c r="CR13" s="57">
+        <v>3</v>
+      </c>
+      <c r="CS13" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:97" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>2</v>
       </c>
@@ -5622,8 +5818,56 @@
         <v>5</v>
       </c>
       <c r="BI14" s="56"/>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="BX14" s="57">
+        <v>3</v>
+      </c>
+      <c r="BY14" s="57">
+        <v>4</v>
+      </c>
+      <c r="BZ14" s="57"/>
+      <c r="CA14" s="57">
+        <v>5</v>
+      </c>
+      <c r="CB14" s="57"/>
+      <c r="CC14" s="57">
+        <v>6</v>
+      </c>
+      <c r="CD14" s="57"/>
+      <c r="CE14" s="57">
+        <v>7</v>
+      </c>
+      <c r="CF14" s="57">
+        <v>1</v>
+      </c>
+      <c r="CG14" s="57"/>
+      <c r="CH14" s="57">
+        <v>2</v>
+      </c>
+      <c r="CI14" s="57"/>
+      <c r="CJ14" s="57">
+        <v>3</v>
+      </c>
+      <c r="CK14" s="57">
+        <v>4</v>
+      </c>
+      <c r="CL14" s="57"/>
+      <c r="CM14" s="57">
+        <v>5</v>
+      </c>
+      <c r="CN14" s="57"/>
+      <c r="CO14" s="57">
+        <v>6</v>
+      </c>
+      <c r="CP14" s="57"/>
+      <c r="CQ14" s="57">
+        <v>7</v>
+      </c>
+      <c r="CR14" s="57">
+        <v>1</v>
+      </c>
+      <c r="CS14" s="57"/>
+    </row>
+    <row r="15" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E15" s="38">
         <v>1</v>
       </c>
@@ -5653,8 +5897,56 @@
       </c>
       <c r="BH15" s="56"/>
       <c r="BI15" s="56"/>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="BX15" s="57">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="57"/>
+      <c r="BZ15" s="57">
+        <v>2</v>
+      </c>
+      <c r="CA15" s="57"/>
+      <c r="CB15" s="57">
+        <v>3</v>
+      </c>
+      <c r="CC15" s="57">
+        <v>4</v>
+      </c>
+      <c r="CD15" s="57"/>
+      <c r="CE15" s="57">
+        <v>5</v>
+      </c>
+      <c r="CF15" s="57"/>
+      <c r="CG15" s="57">
+        <v>6</v>
+      </c>
+      <c r="CH15" s="57"/>
+      <c r="CI15" s="57">
+        <v>7</v>
+      </c>
+      <c r="CJ15" s="57">
+        <v>1</v>
+      </c>
+      <c r="CK15" s="57"/>
+      <c r="CL15" s="57">
+        <v>2</v>
+      </c>
+      <c r="CM15" s="57"/>
+      <c r="CN15" s="57">
+        <v>3</v>
+      </c>
+      <c r="CO15" s="57">
+        <v>4</v>
+      </c>
+      <c r="CP15" s="57"/>
+      <c r="CQ15" s="57">
+        <v>5</v>
+      </c>
+      <c r="CR15" s="57"/>
+      <c r="CS15" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:97" x14ac:dyDescent="0.3">
       <c r="O16" s="38">
         <v>2</v>
       </c>
@@ -8198,4 +8490,451 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AV7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57">
+        <v>6</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57">
+        <v>7</v>
+      </c>
+      <c r="F2" s="52">
+        <v>1</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57">
+        <v>7</v>
+      </c>
+      <c r="K2" s="57">
+        <v>1</v>
+      </c>
+      <c r="L2" s="57"/>
+      <c r="M2" s="52">
+        <v>2</v>
+      </c>
+      <c r="P2" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57">
+        <v>2</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="T2" s="52">
+        <v>3</v>
+      </c>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="52">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="57">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="52">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="57">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="52">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="57">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57">
+        <v>6</v>
+      </c>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B3" s="57">
+        <v>3</v>
+      </c>
+      <c r="C3" s="57">
+        <v>4</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57">
+        <v>5</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57">
+        <v>5</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57">
+        <v>6</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57">
+        <v>6</v>
+      </c>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57">
+        <v>7</v>
+      </c>
+      <c r="T3" s="52"/>
+      <c r="W3" s="57">
+        <v>6</v>
+      </c>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="57">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="52"/>
+      <c r="AD3" s="57">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="57">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="52"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="52"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="57">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="52"/>
+    </row>
+    <row r="4" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57">
+        <v>2</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="52"/>
+      <c r="I4" s="57">
+        <v>2</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57">
+        <v>3</v>
+      </c>
+      <c r="L4" s="57">
+        <v>4</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="P4" s="57">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>4</v>
+      </c>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57">
+        <v>5</v>
+      </c>
+      <c r="T4" s="52"/>
+      <c r="W4" s="57">
+        <v>4</v>
+      </c>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="52"/>
+      <c r="AD4" s="57">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="52"/>
+      <c r="AK4" s="57">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="57">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="52"/>
+      <c r="AR4" s="57">
+        <v>7</v>
+      </c>
+      <c r="AS4" s="57">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="52"/>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57">
+        <v>6</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57">
+        <v>7</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57">
+        <v>7</v>
+      </c>
+      <c r="K5" s="57">
+        <v>1</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="52"/>
+      <c r="P5" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57">
+        <v>2</v>
+      </c>
+      <c r="S5" s="57"/>
+      <c r="T5" s="52"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="52"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="57">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="52"/>
+      <c r="AK5" s="57">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="52"/>
+      <c r="AR5" s="57">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57">
+        <v>6</v>
+      </c>
+      <c r="AU5" s="57"/>
+      <c r="AV5" s="52"/>
+    </row>
+    <row r="6" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B6" s="57">
+        <v>3</v>
+      </c>
+      <c r="C6" s="57">
+        <v>4</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57">
+        <v>5</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57">
+        <v>5</v>
+      </c>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57">
+        <v>6</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57">
+        <v>6</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57">
+        <v>7</v>
+      </c>
+      <c r="T6" s="52"/>
+      <c r="W6" s="57">
+        <v>6</v>
+      </c>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="52"/>
+      <c r="AD6" s="57">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="57">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="52"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="52"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="57">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="52"/>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.3">
+      <c r="B7" s="57">
+        <v>1</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57">
+        <v>2</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="52"/>
+      <c r="I7" s="57">
+        <v>2</v>
+      </c>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57">
+        <v>3</v>
+      </c>
+      <c r="L7" s="57">
+        <v>4</v>
+      </c>
+      <c r="M7" s="52"/>
+      <c r="P7" s="57">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="57">
+        <v>4</v>
+      </c>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57">
+        <v>5</v>
+      </c>
+      <c r="T7" s="52"/>
+      <c r="W7" s="57">
+        <v>4</v>
+      </c>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="52"/>
+      <c r="AD7" s="57">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="52"/>
+      <c r="AK7" s="57">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="57">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="52"/>
+      <c r="AR7" s="57">
+        <v>7</v>
+      </c>
+      <c r="AS7" s="57">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="48" windowWidth="12960" windowHeight="10284" activeTab="3"/>
+    <workbookView xWindow="10272" yWindow="108" windowWidth="12960" windowHeight="10224" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,17 @@
     <sheet name="Alt. Tunings" sheetId="3" r:id="rId3"/>
     <sheet name="3rds Stuff" sheetId="4" r:id="rId4"/>
     <sheet name="3rds Modes" sheetId="5" r:id="rId5"/>
+    <sheet name="Drills" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="fingerboard">Scales!$B$4:$T$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="47">
   <si>
     <t>E</t>
   </si>
@@ -125,6 +125,45 @@
   <si>
     <t>fingerings, 3 octave</t>
   </si>
+  <si>
+    <t>Rasgueado</t>
+  </si>
+  <si>
+    <t>apoyando</t>
+  </si>
+  <si>
+    <t>vibrato</t>
+  </si>
+  <si>
+    <t>legato</t>
+  </si>
+  <si>
+    <t>left/right</t>
+  </si>
+  <si>
+    <t>picado</t>
+  </si>
+  <si>
+    <t>arpeggios</t>
+  </si>
+  <si>
+    <t>compas</t>
+  </si>
+  <si>
+    <t>bpm guessing</t>
+  </si>
+  <si>
+    <t>auto-pitch</t>
+  </si>
+  <si>
+    <t>tone guessing</t>
+  </si>
+  <si>
+    <t>by ear</t>
+  </si>
+  <si>
+    <t>nylonguitarist.com</t>
+  </si>
 </sst>
 </file>
 
@@ -213,52 +252,84 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF7030A0"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF990099"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF0070C0"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF12E2FE"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF00B050"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF12E2FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFF00"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6600CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFF0000"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF990099"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFC000"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="20">
@@ -469,7 +540,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,7 +548,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
@@ -486,11 +557,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,7 +688,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4">
@@ -647,32 +736,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="7">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="8">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="9">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="10">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="11">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
+    <cellStyle name="1st" xfId="12"/>
+    <cellStyle name="2nd" xfId="11"/>
+    <cellStyle name="3rd" xfId="10"/>
+    <cellStyle name="4.5th" xfId="8"/>
+    <cellStyle name="4th" xfId="9"/>
+    <cellStyle name="5th" xfId="7"/>
     <cellStyle name="6th" xfId="6"/>
     <cellStyle name="7th" xfId="3"/>
     <cellStyle name="Black" xfId="1"/>
@@ -685,10 +786,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF12E2FE"/>
+      <color rgb="FF990099"/>
       <color rgb="FF6600CC"/>
-      <color rgb="FF990099"/>
       <color rgb="FF800080"/>
-      <color rgb="FF12E2FE"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4652,10 +4753,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:CS162"/>
+  <dimension ref="A2:CS163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP15" sqref="AP10:AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4923,22 +5024,22 @@
       <c r="Q4" s="38">
         <v>7</v>
       </c>
-      <c r="R4" s="61">
-        <v>1</v>
-      </c>
-      <c r="T4" s="59">
-        <v>2</v>
-      </c>
-      <c r="V4" s="58">
-        <v>3</v>
-      </c>
-      <c r="W4" s="60">
+      <c r="R4" s="67">
+        <v>1</v>
+      </c>
+      <c r="T4" s="66">
+        <v>2</v>
+      </c>
+      <c r="V4" s="65">
+        <v>3</v>
+      </c>
+      <c r="W4" s="64">
         <v>4</v>
       </c>
       <c r="Y4" s="62">
         <v>5</v>
       </c>
-      <c r="AA4" s="64">
+      <c r="AA4" s="58">
         <v>6</v>
       </c>
       <c r="AC4" s="42">
@@ -5030,13 +5131,13 @@
       <c r="O5" s="38">
         <v>4</v>
       </c>
-      <c r="Q5" s="61">
-        <v>5</v>
-      </c>
-      <c r="S5" s="59">
-        <v>6</v>
-      </c>
-      <c r="U5" s="58">
+      <c r="Q5" s="67">
+        <v>5</v>
+      </c>
+      <c r="S5" s="66">
+        <v>6</v>
+      </c>
+      <c r="U5" s="65">
         <v>7</v>
       </c>
       <c r="V5" s="38">
@@ -5045,7 +5146,7 @@
       <c r="X5" s="63">
         <v>2</v>
       </c>
-      <c r="Z5" s="64">
+      <c r="Z5" s="58">
         <v>3</v>
       </c>
       <c r="AA5" s="42">
@@ -5137,22 +5238,22 @@
       <c r="P6" s="38">
         <v>2</v>
       </c>
-      <c r="R6" s="61">
-        <v>3</v>
-      </c>
-      <c r="S6" s="59">
-        <v>4</v>
-      </c>
-      <c r="U6" s="58">
-        <v>5</v>
-      </c>
-      <c r="W6" s="60">
+      <c r="R6" s="67">
+        <v>3</v>
+      </c>
+      <c r="S6" s="66">
+        <v>4</v>
+      </c>
+      <c r="U6" s="65">
+        <v>5</v>
+      </c>
+      <c r="W6" s="64">
         <v>6</v>
       </c>
       <c r="Y6" s="62">
         <v>7</v>
       </c>
-      <c r="Z6" s="64">
+      <c r="Z6" s="58">
         <v>1</v>
       </c>
       <c r="AB6" s="42">
@@ -5257,22 +5358,22 @@
       <c r="Q7" s="38">
         <v>7</v>
       </c>
-      <c r="R7" s="61">
-        <v>1</v>
-      </c>
-      <c r="T7" s="59">
-        <v>2</v>
-      </c>
-      <c r="V7" s="58">
-        <v>3</v>
-      </c>
-      <c r="W7" s="60">
+      <c r="R7" s="67">
+        <v>1</v>
+      </c>
+      <c r="T7" s="66">
+        <v>2</v>
+      </c>
+      <c r="V7" s="65">
+        <v>3</v>
+      </c>
+      <c r="W7" s="64">
         <v>4</v>
       </c>
       <c r="Y7" s="62">
         <v>5</v>
       </c>
-      <c r="AA7" s="64">
+      <c r="AA7" s="58">
         <v>6</v>
       </c>
       <c r="AC7" s="42">
@@ -5366,32 +5467,32 @@
       <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="AI9" s="65" t="s">
+      <c r="AI9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="BD9" s="65" t="s">
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="BD9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="BE9" s="65"/>
-      <c r="BF9" s="65"/>
-      <c r="BG9" s="65"/>
-      <c r="BH9" s="65"/>
-      <c r="BI9" s="65"/>
-      <c r="BJ9" s="65"/>
-      <c r="BK9" s="65"/>
-      <c r="BL9" s="65"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="60"/>
+      <c r="BG9" s="60"/>
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="60"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="60"/>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E10" s="38">
@@ -7752,26 +7853,26 @@
     </row>
     <row r="150" spans="2:67" x14ac:dyDescent="0.3">
       <c r="C150" s="56"/>
-      <c r="D150" s="56">
+      <c r="D150" s="61">
         <v>6</v>
       </c>
       <c r="E150" s="56"/>
-      <c r="F150" s="56">
+      <c r="F150" s="61">
         <v>7</v>
       </c>
       <c r="G150" s="56">
         <v>1</v>
       </c>
-      <c r="I150" s="38">
-        <v>2</v>
-      </c>
-      <c r="K150" s="38">
+      <c r="I150" s="61">
+        <v>2</v>
+      </c>
+      <c r="K150" s="61">
         <v>3</v>
       </c>
       <c r="L150" s="38">
         <v>4</v>
       </c>
-      <c r="N150" s="38">
+      <c r="N150" s="61">
         <v>5</v>
       </c>
       <c r="O150" s="56"/>
@@ -7943,25 +8044,25 @@
       </c>
     </row>
     <row r="155" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="C155" s="56">
+      <c r="C155" s="61">
         <v>1</v>
       </c>
       <c r="D155" s="56"/>
-      <c r="E155" s="56">
+      <c r="E155" s="61">
         <v>2</v>
       </c>
       <c r="F155" s="56"/>
-      <c r="G155" s="56">
+      <c r="G155" s="61">
         <v>3</v>
       </c>
       <c r="H155" s="38">
         <v>4</v>
       </c>
       <c r="I155" s="38"/>
-      <c r="J155" s="38">
-        <v>5</v>
-      </c>
-      <c r="L155" s="38">
+      <c r="J155" s="61">
+        <v>5</v>
+      </c>
+      <c r="L155" s="61">
         <v>6</v>
       </c>
       <c r="N155" s="38">
@@ -7971,7 +8072,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="56"/>
-      <c r="Q155" s="56">
+      <c r="Q155" s="61">
         <v>2</v>
       </c>
       <c r="R155" s="56"/>
@@ -7988,499 +8089,204 @@
     </row>
     <row r="157" spans="2:67" x14ac:dyDescent="0.3">
       <c r="C157" s="56"/>
-      <c r="D157" s="56">
-        <v>6</v>
-      </c>
+      <c r="D157" s="56"/>
       <c r="E157" s="56"/>
-      <c r="F157" s="56">
-        <v>7</v>
-      </c>
-      <c r="I157" s="56">
-        <v>6</v>
-      </c>
+      <c r="F157" s="56"/>
+      <c r="G157" s="56"/>
+      <c r="I157" s="56"/>
       <c r="J157" s="56"/>
-      <c r="K157" s="56">
-        <v>7</v>
-      </c>
-      <c r="L157" s="56">
-        <v>1</v>
-      </c>
+      <c r="K157" s="56"/>
+      <c r="L157" s="56"/>
       <c r="O157" s="56"/>
-      <c r="P157" s="56">
-        <v>7</v>
-      </c>
-      <c r="Q157" s="56">
-        <v>1</v>
-      </c>
-      <c r="U157" s="56">
-        <v>7</v>
-      </c>
-      <c r="V157" s="56">
-        <v>1</v>
-      </c>
-      <c r="X157" s="38">
-        <v>2</v>
-      </c>
-      <c r="AA157" s="56">
-        <v>1</v>
-      </c>
-      <c r="AC157" s="38">
-        <v>2</v>
-      </c>
-      <c r="AG157" s="38">
-        <v>2</v>
-      </c>
+      <c r="P157" s="56"/>
+      <c r="Q157" s="56"/>
+      <c r="U157" s="56"/>
+      <c r="V157" s="56"/>
+      <c r="AA157" s="56"/>
       <c r="AH157" s="38"/>
-      <c r="AI157" s="38">
-        <v>3</v>
-      </c>
-      <c r="AJ157" s="38">
-        <v>4</v>
-      </c>
-      <c r="AN157" s="38">
-        <v>3</v>
-      </c>
-      <c r="AO157" s="38">
-        <v>4</v>
-      </c>
-      <c r="AS157" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT157" s="38">
-        <v>4</v>
-      </c>
-      <c r="AV157" s="38">
-        <v>5</v>
-      </c>
-      <c r="AY157" s="38">
-        <v>4</v>
-      </c>
-      <c r="BA157" s="38">
-        <v>5</v>
-      </c>
       <c r="BB157" s="56"/>
       <c r="BC157" s="56"/>
       <c r="BD157" s="56"/>
-      <c r="BE157" s="38">
-        <v>5</v>
-      </c>
       <c r="BF157" s="56"/>
-      <c r="BG157" s="56">
-        <v>6</v>
-      </c>
+      <c r="BG157" s="56"/>
       <c r="BH157" s="56"/>
       <c r="BO157" s="53"/>
     </row>
     <row r="158" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="C158" s="56">
-        <v>3</v>
-      </c>
-      <c r="D158" s="56">
-        <v>4</v>
-      </c>
-      <c r="E158" s="56"/>
-      <c r="F158" s="56">
-        <v>5</v>
-      </c>
-      <c r="I158" s="56">
-        <v>4</v>
-      </c>
-      <c r="J158" s="56"/>
-      <c r="K158" s="56">
-        <v>5</v>
-      </c>
-      <c r="L158" s="56"/>
-      <c r="O158" s="56"/>
-      <c r="P158" s="56">
-        <v>5</v>
-      </c>
-      <c r="Q158" s="56"/>
-      <c r="R158" s="38">
-        <v>6</v>
-      </c>
-      <c r="U158" s="56">
-        <v>5</v>
-      </c>
+      <c r="C158" s="59"/>
+      <c r="D158" s="59"/>
+      <c r="E158" s="59"/>
+      <c r="F158" s="59"/>
+      <c r="G158" s="59"/>
+      <c r="H158" s="59"/>
+      <c r="I158" s="59"/>
+      <c r="J158" s="59"/>
+      <c r="K158" s="59"/>
+      <c r="L158" s="59"/>
+      <c r="M158" s="59"/>
+      <c r="N158" s="59"/>
+      <c r="O158" s="59"/>
+      <c r="P158" s="59"/>
+      <c r="Q158" s="59"/>
+      <c r="R158" s="59"/>
+      <c r="S158" s="59"/>
+      <c r="T158" s="59"/>
+      <c r="U158" s="59"/>
       <c r="V158" s="56"/>
-      <c r="W158" s="38">
-        <v>6</v>
-      </c>
       <c r="AA158" s="56"/>
-      <c r="AB158" s="38">
-        <v>6</v>
-      </c>
-      <c r="AD158" s="38">
-        <v>7</v>
-      </c>
-      <c r="AH158" s="38">
-        <v>7</v>
-      </c>
-      <c r="AI158" s="38">
-        <v>1</v>
-      </c>
-      <c r="AM158" s="38">
-        <v>7</v>
-      </c>
-      <c r="AN158" s="38">
-        <v>1</v>
-      </c>
-      <c r="AP158" s="38">
-        <v>2</v>
-      </c>
-      <c r="AS158" s="38">
-        <v>1</v>
-      </c>
-      <c r="AU158" s="38">
-        <v>2</v>
-      </c>
-      <c r="AZ158" s="38">
-        <v>2</v>
-      </c>
-      <c r="BB158" s="56">
-        <v>3</v>
-      </c>
+      <c r="AH158" s="38"/>
+      <c r="BB158" s="56"/>
       <c r="BC158" s="56"/>
       <c r="BD158" s="56"/>
-      <c r="BF158" s="56">
-        <v>3</v>
-      </c>
-      <c r="BG158" s="56">
-        <v>4</v>
-      </c>
+      <c r="BF158" s="56"/>
+      <c r="BG158" s="56"/>
       <c r="BH158" s="56"/>
       <c r="BO158" s="53"/>
     </row>
     <row r="159" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="C159" s="56">
-        <v>1</v>
-      </c>
-      <c r="D159" s="56"/>
-      <c r="E159" s="56">
-        <v>2</v>
-      </c>
-      <c r="F159" s="56"/>
-      <c r="I159" s="56"/>
-      <c r="J159" s="56">
-        <v>2</v>
-      </c>
-      <c r="K159" s="56"/>
-      <c r="L159" s="56">
-        <v>3</v>
-      </c>
-      <c r="O159" s="56">
-        <v>2</v>
-      </c>
-      <c r="P159" s="56"/>
-      <c r="Q159" s="56">
-        <v>3</v>
-      </c>
-      <c r="R159" s="38">
-        <v>4</v>
-      </c>
-      <c r="U159" s="56"/>
-      <c r="V159" s="56">
-        <v>3</v>
-      </c>
-      <c r="W159" s="38">
-        <v>4</v>
-      </c>
-      <c r="AA159" s="56">
-        <v>3</v>
-      </c>
-      <c r="AB159" s="38">
-        <v>4</v>
-      </c>
-      <c r="AD159" s="38">
-        <v>5</v>
-      </c>
-      <c r="AH159" s="38">
-        <v>5</v>
-      </c>
-      <c r="AJ159" s="38">
-        <v>6</v>
-      </c>
-      <c r="AM159" s="38">
-        <v>5</v>
-      </c>
-      <c r="AO159" s="38">
-        <v>6</v>
-      </c>
-      <c r="AT159" s="38">
-        <v>6</v>
-      </c>
-      <c r="AV159" s="38">
-        <v>7</v>
-      </c>
-      <c r="AY159" s="38">
-        <v>6</v>
-      </c>
-      <c r="BA159" s="38">
-        <v>7</v>
-      </c>
-      <c r="BB159" s="56">
-        <v>1</v>
-      </c>
+      <c r="C159" s="59"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="59"/>
+      <c r="H159" s="59"/>
+      <c r="I159" s="59"/>
+      <c r="J159" s="59"/>
+      <c r="K159" s="59"/>
+      <c r="L159" s="59"/>
+      <c r="M159" s="59"/>
+      <c r="N159" s="59"/>
+      <c r="O159" s="59"/>
+      <c r="P159" s="59"/>
+      <c r="Q159" s="59"/>
+      <c r="R159" s="59"/>
+      <c r="S159" s="59"/>
+      <c r="T159" s="59"/>
+      <c r="U159" s="59"/>
+      <c r="V159" s="56"/>
+      <c r="AA159" s="56"/>
+      <c r="AH159" s="38"/>
+      <c r="BB159" s="56"/>
       <c r="BC159" s="56"/>
       <c r="BD159" s="56"/>
-      <c r="BE159" s="38">
-        <v>7</v>
-      </c>
-      <c r="BF159" s="56">
-        <v>1</v>
-      </c>
+      <c r="BF159" s="56"/>
       <c r="BG159" s="56"/>
-      <c r="BH159" s="56">
-        <v>2</v>
-      </c>
+      <c r="BH159" s="56"/>
       <c r="BO159" s="53"/>
     </row>
     <row r="160" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="C160" s="56"/>
-      <c r="D160" s="56">
-        <v>6</v>
-      </c>
-      <c r="E160" s="56"/>
-      <c r="F160" s="56">
-        <v>7</v>
-      </c>
-      <c r="I160" s="56">
-        <v>6</v>
-      </c>
-      <c r="J160" s="56"/>
-      <c r="K160" s="56">
-        <v>7</v>
-      </c>
-      <c r="L160" s="56">
-        <v>1</v>
-      </c>
-      <c r="O160" s="56"/>
-      <c r="P160" s="56">
-        <v>7</v>
-      </c>
-      <c r="Q160" s="56">
-        <v>1</v>
-      </c>
-      <c r="U160" s="56">
-        <v>7</v>
-      </c>
-      <c r="V160" s="56">
-        <v>1</v>
-      </c>
-      <c r="X160" s="38">
-        <v>2</v>
-      </c>
-      <c r="AA160" s="56">
-        <v>1</v>
-      </c>
-      <c r="AC160" s="38">
-        <v>2</v>
-      </c>
-      <c r="AG160" s="38">
-        <v>2</v>
-      </c>
+      <c r="C160" s="59"/>
+      <c r="D160" s="59"/>
+      <c r="E160" s="59"/>
+      <c r="F160" s="59"/>
+      <c r="G160" s="59"/>
+      <c r="H160" s="59"/>
+      <c r="I160" s="59"/>
+      <c r="J160" s="59"/>
+      <c r="K160" s="59"/>
+      <c r="L160" s="59"/>
+      <c r="M160" s="59"/>
+      <c r="N160" s="59"/>
+      <c r="O160" s="59"/>
+      <c r="P160" s="59"/>
+      <c r="Q160" s="59"/>
+      <c r="R160" s="59"/>
+      <c r="S160" s="59"/>
+      <c r="T160" s="59"/>
+      <c r="U160" s="59"/>
+      <c r="V160" s="56"/>
+      <c r="AA160" s="56"/>
       <c r="AH160" s="38"/>
-      <c r="AI160" s="38">
-        <v>3</v>
-      </c>
-      <c r="AJ160" s="38">
-        <v>4</v>
-      </c>
-      <c r="AN160" s="38">
-        <v>3</v>
-      </c>
-      <c r="AO160" s="38">
-        <v>4</v>
-      </c>
-      <c r="AS160" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT160" s="38">
-        <v>4</v>
-      </c>
-      <c r="AV160" s="38">
-        <v>5</v>
-      </c>
-      <c r="AY160" s="38">
-        <v>4</v>
-      </c>
-      <c r="BA160" s="38">
-        <v>5</v>
-      </c>
       <c r="BB160" s="56"/>
       <c r="BC160" s="56"/>
       <c r="BD160" s="56"/>
-      <c r="BE160" s="38">
-        <v>5</v>
-      </c>
       <c r="BF160" s="56"/>
-      <c r="BG160" s="56">
-        <v>6</v>
-      </c>
+      <c r="BG160" s="56"/>
       <c r="BH160" s="56"/>
       <c r="BO160" s="53"/>
     </row>
     <row r="161" spans="3:67" x14ac:dyDescent="0.3">
-      <c r="C161" s="56">
-        <v>3</v>
-      </c>
-      <c r="D161" s="56">
-        <v>4</v>
-      </c>
-      <c r="E161" s="56"/>
-      <c r="F161" s="56">
-        <v>5</v>
-      </c>
-      <c r="I161" s="56">
-        <v>4</v>
-      </c>
-      <c r="J161" s="56"/>
-      <c r="K161" s="56">
-        <v>5</v>
-      </c>
-      <c r="L161" s="56"/>
-      <c r="O161" s="56"/>
-      <c r="P161" s="56">
-        <v>5</v>
-      </c>
-      <c r="Q161" s="56"/>
-      <c r="R161" s="38">
-        <v>6</v>
-      </c>
-      <c r="U161" s="56">
-        <v>5</v>
-      </c>
+      <c r="C161" s="59"/>
+      <c r="D161" s="59"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="59"/>
+      <c r="G161" s="59"/>
+      <c r="H161" s="59"/>
+      <c r="I161" s="59"/>
+      <c r="J161" s="59"/>
+      <c r="K161" s="59"/>
+      <c r="L161" s="59"/>
+      <c r="M161" s="59"/>
+      <c r="N161" s="59"/>
+      <c r="O161" s="59"/>
+      <c r="P161" s="59"/>
+      <c r="Q161" s="59"/>
+      <c r="R161" s="59"/>
+      <c r="S161" s="59"/>
+      <c r="T161" s="59"/>
+      <c r="U161" s="59"/>
       <c r="V161" s="56"/>
-      <c r="W161" s="38">
-        <v>6</v>
-      </c>
       <c r="AA161" s="56"/>
-      <c r="AB161" s="38">
-        <v>6</v>
-      </c>
-      <c r="AD161" s="38">
-        <v>7</v>
-      </c>
-      <c r="AH161" s="38">
-        <v>7</v>
-      </c>
-      <c r="AI161" s="38">
-        <v>1</v>
-      </c>
-      <c r="AM161" s="38">
-        <v>7</v>
-      </c>
-      <c r="AN161" s="38">
-        <v>1</v>
-      </c>
-      <c r="AP161" s="38">
-        <v>2</v>
-      </c>
-      <c r="AS161" s="38">
-        <v>1</v>
-      </c>
-      <c r="AU161" s="38">
-        <v>2</v>
-      </c>
-      <c r="AZ161" s="38">
-        <v>2</v>
-      </c>
-      <c r="BB161" s="56">
-        <v>3</v>
-      </c>
+      <c r="AH161" s="38"/>
+      <c r="BB161" s="56"/>
       <c r="BC161" s="56"/>
       <c r="BD161" s="56"/>
-      <c r="BF161" s="56">
-        <v>3</v>
-      </c>
-      <c r="BG161" s="56">
-        <v>4</v>
-      </c>
+      <c r="BF161" s="56"/>
+      <c r="BG161" s="56"/>
       <c r="BH161" s="56"/>
       <c r="BO161" s="53"/>
     </row>
     <row r="162" spans="3:67" x14ac:dyDescent="0.3">
-      <c r="C162" s="56">
-        <v>1</v>
-      </c>
-      <c r="D162" s="56"/>
-      <c r="E162" s="56">
-        <v>2</v>
-      </c>
-      <c r="F162" s="56"/>
-      <c r="I162" s="56"/>
-      <c r="J162" s="56">
-        <v>2</v>
-      </c>
-      <c r="K162" s="56"/>
-      <c r="L162" s="56">
-        <v>3</v>
-      </c>
-      <c r="O162" s="56">
-        <v>2</v>
-      </c>
-      <c r="P162" s="56"/>
-      <c r="Q162" s="56">
-        <v>3</v>
-      </c>
-      <c r="R162" s="38">
-        <v>4</v>
-      </c>
-      <c r="U162" s="56"/>
-      <c r="V162" s="56">
-        <v>3</v>
-      </c>
-      <c r="W162" s="38">
-        <v>4</v>
-      </c>
-      <c r="AA162" s="56">
-        <v>3</v>
-      </c>
-      <c r="AB162" s="38">
-        <v>4</v>
-      </c>
-      <c r="AD162" s="38">
-        <v>5</v>
-      </c>
-      <c r="AH162" s="38">
-        <v>5</v>
-      </c>
-      <c r="AJ162" s="38">
-        <v>6</v>
-      </c>
-      <c r="AM162" s="38">
-        <v>5</v>
-      </c>
-      <c r="AO162" s="38">
-        <v>6</v>
-      </c>
-      <c r="AT162" s="38">
-        <v>6</v>
-      </c>
-      <c r="AV162" s="38">
-        <v>7</v>
-      </c>
-      <c r="AY162" s="38">
-        <v>6</v>
-      </c>
-      <c r="BA162" s="38">
-        <v>7</v>
-      </c>
-      <c r="BB162" s="56">
-        <v>1</v>
-      </c>
+      <c r="C162" s="59"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="59"/>
+      <c r="G162" s="59"/>
+      <c r="H162" s="59"/>
+      <c r="I162" s="59"/>
+      <c r="J162" s="59"/>
+      <c r="K162" s="59"/>
+      <c r="L162" s="59"/>
+      <c r="M162" s="59"/>
+      <c r="N162" s="59"/>
+      <c r="O162" s="59"/>
+      <c r="P162" s="59"/>
+      <c r="Q162" s="59"/>
+      <c r="R162" s="59"/>
+      <c r="S162" s="59"/>
+      <c r="T162" s="59"/>
+      <c r="U162" s="59"/>
+      <c r="V162" s="56"/>
+      <c r="AA162" s="56"/>
+      <c r="AH162" s="38"/>
+      <c r="BB162" s="56"/>
       <c r="BC162" s="56"/>
       <c r="BD162" s="56"/>
-      <c r="BE162" s="38">
-        <v>7</v>
-      </c>
-      <c r="BF162" s="56">
-        <v>1</v>
-      </c>
+      <c r="BF162" s="56"/>
       <c r="BG162" s="56"/>
-      <c r="BH162" s="56">
-        <v>2</v>
-      </c>
+      <c r="BH162" s="56"/>
       <c r="BO162" s="53"/>
+    </row>
+    <row r="163" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="59"/>
+      <c r="H163" s="59"/>
+      <c r="I163" s="59"/>
+      <c r="J163" s="59"/>
+      <c r="K163" s="59"/>
+      <c r="L163" s="59"/>
+      <c r="M163" s="59"/>
+      <c r="N163" s="59"/>
+      <c r="O163" s="59"/>
+      <c r="P163" s="59"/>
+      <c r="Q163" s="59"/>
+      <c r="R163" s="59"/>
+      <c r="S163" s="59"/>
+      <c r="T163" s="59"/>
+      <c r="U163" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8494,10 +8300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AV7"/>
+  <dimension ref="B2:AV31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8934,6 +8740,302 @@
       </c>
       <c r="AV7" s="52"/>
     </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D19" s="59">
+        <v>7</v>
+      </c>
+      <c r="E19" s="67">
+        <v>1</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="66">
+        <v>2</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="65">
+        <v>3</v>
+      </c>
+      <c r="J19" s="64">
+        <v>4</v>
+      </c>
+      <c r="K19" s="59"/>
+      <c r="L19" s="62">
+        <v>5</v>
+      </c>
+      <c r="M19" s="59"/>
+      <c r="N19" s="58">
+        <v>6</v>
+      </c>
+      <c r="O19" s="59"/>
+      <c r="P19" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D20" s="67">
+        <v>5</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="66">
+        <v>6</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="65">
+        <v>7</v>
+      </c>
+      <c r="I20" s="59">
+        <v>1</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="63">
+        <v>2</v>
+      </c>
+      <c r="L20" s="59"/>
+      <c r="M20" s="58">
+        <v>3</v>
+      </c>
+      <c r="N20" s="42">
+        <v>4</v>
+      </c>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D21" s="59"/>
+      <c r="E21" s="67">
+        <v>3</v>
+      </c>
+      <c r="F21" s="66">
+        <v>4</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="65">
+        <v>5</v>
+      </c>
+      <c r="I21" s="59"/>
+      <c r="J21" s="64">
+        <v>6</v>
+      </c>
+      <c r="K21" s="59"/>
+      <c r="L21" s="62">
+        <v>7</v>
+      </c>
+      <c r="M21" s="58">
+        <v>1</v>
+      </c>
+      <c r="N21" s="59"/>
+      <c r="O21" s="42">
+        <v>2</v>
+      </c>
+      <c r="P21" s="59"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D22" s="59">
+        <v>7</v>
+      </c>
+      <c r="E22" s="67">
+        <v>1</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="66">
+        <v>2</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="65">
+        <v>3</v>
+      </c>
+      <c r="J22" s="64">
+        <v>4</v>
+      </c>
+      <c r="K22" s="59"/>
+      <c r="L22" s="62">
+        <v>5</v>
+      </c>
+      <c r="M22" s="59"/>
+      <c r="N22" s="58">
+        <v>6</v>
+      </c>
+      <c r="O22" s="59"/>
+      <c r="P22" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="108" windowWidth="12960" windowHeight="10224" activeTab="4"/>
+    <workbookView xWindow="10272" yWindow="168" windowWidth="12960" windowHeight="10164" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Alt. Tunings" sheetId="3" r:id="rId3"/>
     <sheet name="3rds Stuff" sheetId="4" r:id="rId4"/>
     <sheet name="3rds Modes" sheetId="5" r:id="rId5"/>
-    <sheet name="Drills" sheetId="6" r:id="rId6"/>
+    <sheet name="Techniques" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="fingerboard">Scales!$B$4:$T$9</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="60">
   <si>
     <t>E</t>
   </si>
@@ -135,9 +135,6 @@
     <t>vibrato</t>
   </si>
   <si>
-    <t>legato</t>
-  </si>
-  <si>
     <t>left/right</t>
   </si>
   <si>
@@ -163,6 +160,48 @@
   </si>
   <si>
     <t>nylonguitarist.com</t>
+  </si>
+  <si>
+    <t>full/empty</t>
+  </si>
+  <si>
+    <t>tirando</t>
+  </si>
+  <si>
+    <t>"out" pluck</t>
+  </si>
+  <si>
+    <t>legato/tapping</t>
+  </si>
+  <si>
+    <t>rest stroke</t>
+  </si>
+  <si>
+    <t>"in" pluck</t>
+  </si>
+  <si>
+    <t>palm muting</t>
+  </si>
+  <si>
+    <t>barre muting</t>
+  </si>
+  <si>
+    <t>rolled barre</t>
+  </si>
+  <si>
+    <t>multi-finger, finger/sideways/circular</t>
+  </si>
+  <si>
+    <t>harmonics</t>
+  </si>
+  <si>
+    <t>touch, pinch(up/down)</t>
+  </si>
+  <si>
+    <t>thumb + hammer + tremolo + pull-off</t>
+  </si>
+  <si>
+    <t>tremolo</t>
   </si>
 </sst>
 </file>
@@ -742,9 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,6 +800,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5024,19 +5063,19 @@
       <c r="Q4" s="38">
         <v>7</v>
       </c>
-      <c r="R4" s="67">
-        <v>1</v>
-      </c>
-      <c r="T4" s="66">
-        <v>2</v>
-      </c>
-      <c r="V4" s="65">
-        <v>3</v>
-      </c>
-      <c r="W4" s="64">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="62">
+      <c r="R4" s="66">
+        <v>1</v>
+      </c>
+      <c r="T4" s="65">
+        <v>2</v>
+      </c>
+      <c r="V4" s="64">
+        <v>3</v>
+      </c>
+      <c r="W4" s="63">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="61">
         <v>5</v>
       </c>
       <c r="AA4" s="58">
@@ -5131,19 +5170,19 @@
       <c r="O5" s="38">
         <v>4</v>
       </c>
-      <c r="Q5" s="67">
-        <v>5</v>
-      </c>
-      <c r="S5" s="66">
-        <v>6</v>
-      </c>
-      <c r="U5" s="65">
+      <c r="Q5" s="66">
+        <v>5</v>
+      </c>
+      <c r="S5" s="65">
+        <v>6</v>
+      </c>
+      <c r="U5" s="64">
         <v>7</v>
       </c>
       <c r="V5" s="38">
         <v>1</v>
       </c>
-      <c r="X5" s="63">
+      <c r="X5" s="62">
         <v>2</v>
       </c>
       <c r="Z5" s="58">
@@ -5238,19 +5277,19 @@
       <c r="P6" s="38">
         <v>2</v>
       </c>
-      <c r="R6" s="67">
-        <v>3</v>
-      </c>
-      <c r="S6" s="66">
-        <v>4</v>
-      </c>
-      <c r="U6" s="65">
-        <v>5</v>
-      </c>
-      <c r="W6" s="64">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="62">
+      <c r="R6" s="66">
+        <v>3</v>
+      </c>
+      <c r="S6" s="65">
+        <v>4</v>
+      </c>
+      <c r="U6" s="64">
+        <v>5</v>
+      </c>
+      <c r="W6" s="63">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="61">
         <v>7</v>
       </c>
       <c r="Z6" s="58">
@@ -5358,19 +5397,19 @@
       <c r="Q7" s="38">
         <v>7</v>
       </c>
-      <c r="R7" s="67">
-        <v>1</v>
-      </c>
-      <c r="T7" s="66">
-        <v>2</v>
-      </c>
-      <c r="V7" s="65">
-        <v>3</v>
-      </c>
-      <c r="W7" s="64">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="62">
+      <c r="R7" s="66">
+        <v>1</v>
+      </c>
+      <c r="T7" s="65">
+        <v>2</v>
+      </c>
+      <c r="V7" s="64">
+        <v>3</v>
+      </c>
+      <c r="W7" s="63">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="61">
         <v>5</v>
       </c>
       <c r="AA7" s="58">
@@ -5467,32 +5506,32 @@
       <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="AI9" s="60" t="s">
+      <c r="AI9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="BD9" s="60" t="s">
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="BD9" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
-      <c r="BG9" s="60"/>
-      <c r="BH9" s="60"/>
-      <c r="BI9" s="60"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="60"/>
-      <c r="BL9" s="60"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="67"/>
+      <c r="BJ9" s="67"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="67"/>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E10" s="38">
@@ -7853,26 +7892,26 @@
     </row>
     <row r="150" spans="2:67" x14ac:dyDescent="0.3">
       <c r="C150" s="56"/>
-      <c r="D150" s="61">
+      <c r="D150" s="60">
         <v>6</v>
       </c>
       <c r="E150" s="56"/>
-      <c r="F150" s="61">
+      <c r="F150" s="60">
         <v>7</v>
       </c>
       <c r="G150" s="56">
         <v>1</v>
       </c>
-      <c r="I150" s="61">
-        <v>2</v>
-      </c>
-      <c r="K150" s="61">
+      <c r="I150" s="60">
+        <v>2</v>
+      </c>
+      <c r="K150" s="60">
         <v>3</v>
       </c>
       <c r="L150" s="38">
         <v>4</v>
       </c>
-      <c r="N150" s="61">
+      <c r="N150" s="60">
         <v>5</v>
       </c>
       <c r="O150" s="56"/>
@@ -8044,25 +8083,25 @@
       </c>
     </row>
     <row r="155" spans="2:67" x14ac:dyDescent="0.3">
-      <c r="C155" s="61">
+      <c r="C155" s="60">
         <v>1</v>
       </c>
       <c r="D155" s="56"/>
-      <c r="E155" s="61">
+      <c r="E155" s="60">
         <v>2</v>
       </c>
       <c r="F155" s="56"/>
-      <c r="G155" s="61">
+      <c r="G155" s="60">
         <v>3</v>
       </c>
       <c r="H155" s="38">
         <v>4</v>
       </c>
       <c r="I155" s="38"/>
-      <c r="J155" s="61">
-        <v>5</v>
-      </c>
-      <c r="L155" s="61">
+      <c r="J155" s="60">
+        <v>5</v>
+      </c>
+      <c r="L155" s="60">
         <v>6</v>
       </c>
       <c r="N155" s="38">
@@ -8072,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="56"/>
-      <c r="Q155" s="61">
+      <c r="Q155" s="60">
         <v>2</v>
       </c>
       <c r="R155" s="56"/>
@@ -8302,7 +8341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -8744,22 +8783,22 @@
       <c r="D19" s="59">
         <v>7</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="66">
         <v>1</v>
       </c>
       <c r="F19" s="59"/>
-      <c r="G19" s="66">
+      <c r="G19" s="65">
         <v>2</v>
       </c>
       <c r="H19" s="59"/>
-      <c r="I19" s="65">
-        <v>3</v>
-      </c>
-      <c r="J19" s="64">
+      <c r="I19" s="64">
+        <v>3</v>
+      </c>
+      <c r="J19" s="63">
         <v>4</v>
       </c>
       <c r="K19" s="59"/>
-      <c r="L19" s="62">
+      <c r="L19" s="61">
         <v>5</v>
       </c>
       <c r="M19" s="59"/>
@@ -8772,22 +8811,22 @@
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D20" s="67">
+      <c r="D20" s="66">
         <v>5</v>
       </c>
       <c r="E20" s="59"/>
-      <c r="F20" s="66">
+      <c r="F20" s="65">
         <v>6</v>
       </c>
       <c r="G20" s="59"/>
-      <c r="H20" s="65">
+      <c r="H20" s="64">
         <v>7</v>
       </c>
       <c r="I20" s="59">
         <v>1</v>
       </c>
       <c r="J20" s="59"/>
-      <c r="K20" s="63">
+      <c r="K20" s="62">
         <v>2</v>
       </c>
       <c r="L20" s="59"/>
@@ -8804,22 +8843,22 @@
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="59"/>
-      <c r="E21" s="67">
-        <v>3</v>
-      </c>
-      <c r="F21" s="66">
+      <c r="E21" s="66">
+        <v>3</v>
+      </c>
+      <c r="F21" s="65">
         <v>4</v>
       </c>
       <c r="G21" s="59"/>
-      <c r="H21" s="65">
+      <c r="H21" s="64">
         <v>5</v>
       </c>
       <c r="I21" s="59"/>
-      <c r="J21" s="64">
+      <c r="J21" s="63">
         <v>6</v>
       </c>
       <c r="K21" s="59"/>
-      <c r="L21" s="62">
+      <c r="L21" s="61">
         <v>7</v>
       </c>
       <c r="M21" s="58">
@@ -8835,22 +8874,22 @@
       <c r="D22" s="59">
         <v>7</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="66">
         <v>1</v>
       </c>
       <c r="F22" s="59"/>
-      <c r="G22" s="66">
+      <c r="G22" s="65">
         <v>2</v>
       </c>
       <c r="H22" s="59"/>
-      <c r="I22" s="65">
-        <v>3</v>
-      </c>
-      <c r="J22" s="64">
+      <c r="I22" s="64">
+        <v>3</v>
+      </c>
+      <c r="J22" s="63">
         <v>4</v>
       </c>
       <c r="K22" s="59"/>
-      <c r="L22" s="62">
+      <c r="L22" s="61">
         <v>5</v>
       </c>
       <c r="M22" s="59"/>
@@ -8964,76 +9003,130 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="168" windowWidth="12960" windowHeight="10164" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="10272" yWindow="168" windowWidth="12960" windowHeight="10164" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="66">
   <si>
     <t>E</t>
   </si>
@@ -135,9 +135,6 @@
     <t>vibrato</t>
   </si>
   <si>
-    <t>left/right</t>
-  </si>
-  <si>
     <t>picado</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>rolled barre</t>
   </si>
   <si>
-    <t>multi-finger, finger/sideways/circular</t>
-  </si>
-  <si>
     <t>harmonics</t>
   </si>
   <si>
@@ -202,6 +196,30 @@
   </si>
   <si>
     <t>tremolo</t>
+  </si>
+  <si>
+    <t>maj, min, dim, aug</t>
+  </si>
+  <si>
+    <t>left/right hammer, pull-off</t>
+  </si>
+  <si>
+    <t>chord tapping</t>
+  </si>
+  <si>
+    <t>left/right hammer-slide, slide-pull-off</t>
+  </si>
+  <si>
+    <t>multi-finger hammer/pull-off</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>wrist</t>
+  </si>
+  <si>
+    <t>multi-finger</t>
   </si>
 </sst>
 </file>
@@ -9003,15 +9021,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
   </cols>
@@ -9021,112 +9039,144 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
+      <c r="B3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
+      <c r="B6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
+      <c r="B12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="168" windowWidth="12960" windowHeight="10164" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="10272" yWindow="168" windowWidth="12960" windowHeight="10164" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="3rds Stuff" sheetId="4" r:id="rId4"/>
     <sheet name="3rds Modes" sheetId="5" r:id="rId5"/>
     <sheet name="Techniques" sheetId="6" r:id="rId6"/>
+    <sheet name="Pentatonic" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="fingerboard">Scales!$B$4:$T$9</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="84">
   <si>
     <t>E</t>
   </si>
@@ -201,12 +202,6 @@
     <t>maj, min, dim, aug</t>
   </si>
   <si>
-    <t>left/right hammer, pull-off</t>
-  </si>
-  <si>
-    <t>chord tapping</t>
-  </si>
-  <si>
     <t>left/right hammer-slide, slide-pull-off</t>
   </si>
   <si>
@@ -221,12 +216,72 @@
   <si>
     <t>multi-finger</t>
   </si>
+  <si>
+    <t>left hammer-on, pull-off scale pieces</t>
+  </si>
+  <si>
+    <t>chording</t>
+  </si>
+  <si>
+    <t>four-finger mode chord progressions</t>
+  </si>
+  <si>
+    <t>spidering</t>
+  </si>
+  <si>
+    <t>plucked, four-finger</t>
+  </si>
+  <si>
+    <t>chords</t>
+  </si>
+  <si>
+    <t>mode scales</t>
+  </si>
+  <si>
+    <t>pentatonics</t>
+  </si>
+  <si>
+    <t>two-hand</t>
+  </si>
+  <si>
+    <t>single-string</t>
+  </si>
+  <si>
+    <t>right hammer-on, pull-off scale pieces</t>
+  </si>
+  <si>
+    <t>left-hand chord tapping</t>
+  </si>
+  <si>
+    <t>right-hand chord tapping</t>
+  </si>
+  <si>
+    <t>pentatonic slivers (east/west side)</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2 - 3 - 5 - 6 - 7</t>
+  </si>
+  <si>
+    <t>1 - 2 - 4 - 5 - 6</t>
+  </si>
+  <si>
+    <t>1 - 2 - 3 - 5 - 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,23 +317,33 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aparajita"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-        <stop position="0">
-          <color theme="9" tint="-0.49803155613879818"/>
-        </stop>
-        <stop position="1">
-          <color theme="9" tint="0.40000610370189521"/>
-        </stop>
-      </gradientFill>
     </fill>
     <fill>
       <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
@@ -388,8 +453,30 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FFFEF9F4"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -596,16 +683,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
@@ -614,7 +850,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
@@ -626,17 +862,17 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,92 +880,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,20 +977,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -802,29 +1038,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="11">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="12">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="1st" xfId="12"/>
     <cellStyle name="2nd" xfId="11"/>
     <cellStyle name="3rd" xfId="10"/>
@@ -837,12 +1175,24 @@
     <cellStyle name="Major" xfId="5"/>
     <cellStyle name="minor" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nut" xfId="13"/>
     <cellStyle name="White" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF9F4"/>
       <color rgb="FF12E2FE"/>
       <color rgb="FF990099"/>
       <color rgb="FF6600CC"/>
@@ -1195,19 +1545,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:U22"/>
+  <dimension ref="B1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:T15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="20" width="5.77734375" customWidth="1"/>
+    <col min="2" max="21" width="3" customWidth="1"/>
+    <col min="23" max="41" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1639,9 @@
         <v>4</v>
       </c>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1294,8 +1685,9 @@
       <c r="T3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1337,8 +1729,9 @@
         <v>6</v>
       </c>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1380,8 +1773,9 @@
         <v>2</v>
       </c>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1423,8 +1817,9 @@
         <v>3</v>
       </c>
       <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,8 +1861,9 @@
         <v>4</v>
       </c>
       <c r="T7" s="2"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U7" s="2"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1509,9 +1905,11 @@
         <v>4</v>
       </c>
       <c r="T10" s="5"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U10" s="5"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1555,9 +1953,11 @@
       <c r="T11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U11" s="6"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
@@ -1599,9 +1999,11 @@
         <v>6</v>
       </c>
       <c r="T12" s="5"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U12" s="5"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,9 +2045,11 @@
         <v>2</v>
       </c>
       <c r="T13" s="5"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U13" s="5"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1687,9 +2091,11 @@
         <v>3</v>
       </c>
       <c r="T14" s="5"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U14" s="5"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1731,9 +2137,11 @@
         <v>4</v>
       </c>
       <c r="T15" s="5"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="5"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>0</v>
       </c>
@@ -1775,8 +2183,9 @@
         <v>4</v>
       </c>
       <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
@@ -1820,8 +2229,9 @@
       <c r="T18" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
         <v>2</v>
       </c>
@@ -1863,8 +2273,9 @@
         <v>6</v>
       </c>
       <c r="T19" s="13"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +2317,9 @@
         <v>2</v>
       </c>
       <c r="T20" s="13"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
         <v>4</v>
       </c>
@@ -1949,8 +2361,9 @@
         <v>3</v>
       </c>
       <c r="T21" s="13"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
         <v>0</v>
       </c>
@@ -1992,6 +2405,7 @@
         <v>4</v>
       </c>
       <c r="T22" s="19"/>
+      <c r="U22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5524,32 +5938,32 @@
       <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="AI9" s="67" t="s">
+      <c r="AI9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="BD9" s="67" t="s">
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="68"/>
+      <c r="AO9" s="68"/>
+      <c r="AP9" s="68"/>
+      <c r="AQ9" s="68"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="68"/>
+      <c r="AT9" s="68"/>
+      <c r="AU9" s="68"/>
+      <c r="BD9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="BE9" s="67"/>
-      <c r="BF9" s="67"/>
-      <c r="BG9" s="67"/>
-      <c r="BH9" s="67"/>
-      <c r="BI9" s="67"/>
-      <c r="BJ9" s="67"/>
-      <c r="BK9" s="67"/>
-      <c r="BL9" s="67"/>
+      <c r="BE9" s="68"/>
+      <c r="BF9" s="68"/>
+      <c r="BG9" s="68"/>
+      <c r="BH9" s="68"/>
+      <c r="BI9" s="68"/>
+      <c r="BJ9" s="68"/>
+      <c r="BK9" s="68"/>
+      <c r="BL9" s="68"/>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E10" s="38">
@@ -9021,16 +9435,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9052,134 +9466,5216 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
+      <c r="B7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
+      <c r="B8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>37</v>
+      <c r="B13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:BQ51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA8" sqref="BA8:BA9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="21" width="3" style="67"/>
+    <col min="22" max="22" width="6.33203125" style="67" customWidth="1"/>
+    <col min="23" max="42" width="3" style="67"/>
+    <col min="43" max="43" width="6.33203125" style="67" customWidth="1"/>
+    <col min="44" max="16384" width="3" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="B1" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN1" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP1" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:69" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="73"/>
+      <c r="S2" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+    </row>
+    <row r="3" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B3" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="73"/>
+      <c r="S3" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="73"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AV3" s="56"/>
+    </row>
+    <row r="4" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B4" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="73"/>
+      <c r="P4" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+    </row>
+    <row r="5" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B5" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AR5" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS5" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT5" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="67">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="67">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="56">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="67">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B6" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="73"/>
+      <c r="S6" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AR6" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS6" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT6" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="67">
+        <v>3</v>
+      </c>
+      <c r="AX6" s="67">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="56">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="67">
+        <v>3</v>
+      </c>
+      <c r="BC6" s="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B7" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="73"/>
+      <c r="S7" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AR7" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS7" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT7" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="67">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="67">
+        <v>6</v>
+      </c>
+      <c r="AZ7" s="56">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="67">
+        <v>3</v>
+      </c>
+      <c r="BD7" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="W8" s="80"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="96"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AR8" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS8" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT8" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="67">
+        <v>3</v>
+      </c>
+      <c r="AX8" s="67">
+        <v>6</v>
+      </c>
+      <c r="BA8" s="56">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="67">
+        <v>3</v>
+      </c>
+      <c r="BD8" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B9" s="72">
+        <v>3</v>
+      </c>
+      <c r="C9" s="73">
+        <v>4</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74">
+        <v>5</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74">
+        <v>6</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73">
+        <v>7</v>
+      </c>
+      <c r="J9" s="74">
+        <v>1</v>
+      </c>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74">
+        <v>2</v>
+      </c>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74">
+        <v>3</v>
+      </c>
+      <c r="O9" s="73">
+        <v>4</v>
+      </c>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="74">
+        <v>5</v>
+      </c>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74">
+        <v>6</v>
+      </c>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73">
+        <v>7</v>
+      </c>
+      <c r="W9" s="80"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AR9" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS9" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT9" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="67">
+        <v>5</v>
+      </c>
+      <c r="AX9" s="67">
+        <v>6</v>
+      </c>
+      <c r="BA9" s="56">
+        <v>2</v>
+      </c>
+      <c r="BC9" s="67">
+        <v>5</v>
+      </c>
+      <c r="BD9" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B10" s="72">
+        <v>7</v>
+      </c>
+      <c r="C10" s="73">
+        <v>1</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74">
+        <v>2</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74">
+        <v>3</v>
+      </c>
+      <c r="H10" s="73">
+        <v>4</v>
+      </c>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74">
+        <v>5</v>
+      </c>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74">
+        <v>6</v>
+      </c>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73">
+        <v>7</v>
+      </c>
+      <c r="O10" s="74">
+        <v>1</v>
+      </c>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="74">
+        <v>2</v>
+      </c>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74">
+        <v>3</v>
+      </c>
+      <c r="T10" s="73">
+        <v>4</v>
+      </c>
+      <c r="U10" s="73"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+    </row>
+    <row r="11" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B11" s="72">
+        <v>5</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74">
+        <v>6</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73">
+        <v>7</v>
+      </c>
+      <c r="G11" s="74">
+        <v>1</v>
+      </c>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74">
+        <v>2</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74">
+        <v>3</v>
+      </c>
+      <c r="L11" s="73">
+        <v>4</v>
+      </c>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74">
+        <v>5</v>
+      </c>
+      <c r="O11" s="73"/>
+      <c r="P11" s="74">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73">
+        <v>7</v>
+      </c>
+      <c r="S11" s="74">
+        <v>1</v>
+      </c>
+      <c r="T11" s="73"/>
+      <c r="U11" s="74">
+        <v>2</v>
+      </c>
+      <c r="W11" s="80"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="80"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="94"/>
+      <c r="AT11" s="94"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+    </row>
+    <row r="12" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B12" s="72">
+        <v>2</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74">
+        <v>3</v>
+      </c>
+      <c r="E12" s="73">
+        <v>4</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74">
+        <v>5</v>
+      </c>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74">
+        <v>6</v>
+      </c>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73">
+        <v>7</v>
+      </c>
+      <c r="L12" s="74">
+        <v>1</v>
+      </c>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74">
+        <v>2</v>
+      </c>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="73">
+        <v>4</v>
+      </c>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74">
+        <v>5</v>
+      </c>
+      <c r="T12" s="73"/>
+      <c r="U12" s="74">
+        <v>6</v>
+      </c>
+      <c r="W12" s="80"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="80"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+    </row>
+    <row r="13" spans="2:69" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B13" s="72">
+        <v>6</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73">
+        <v>7</v>
+      </c>
+      <c r="E13" s="74">
+        <v>1</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74">
+        <v>2</v>
+      </c>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74">
+        <v>3</v>
+      </c>
+      <c r="J13" s="73">
+        <v>4</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74">
+        <v>5</v>
+      </c>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74">
+        <v>6</v>
+      </c>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="74">
+        <v>1</v>
+      </c>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74">
+        <v>2</v>
+      </c>
+      <c r="T13" s="73"/>
+      <c r="U13" s="74">
+        <v>3</v>
+      </c>
+      <c r="W13" s="80"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="80"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AR13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+    </row>
+    <row r="14" spans="2:69" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="72">
+        <v>3</v>
+      </c>
+      <c r="C14" s="73">
+        <v>4</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74">
+        <v>5</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74">
+        <v>6</v>
+      </c>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73">
+        <v>7</v>
+      </c>
+      <c r="J14" s="74">
+        <v>1</v>
+      </c>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74">
+        <v>2</v>
+      </c>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74">
+        <v>3</v>
+      </c>
+      <c r="O14" s="73">
+        <v>4</v>
+      </c>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="74">
+        <v>5</v>
+      </c>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74">
+        <v>6</v>
+      </c>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73">
+        <v>7</v>
+      </c>
+      <c r="W14" s="80"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK14" s="100"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="101"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+    </row>
+    <row r="15" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="W15" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+    </row>
+    <row r="16" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16" s="70"/>
+      <c r="W16" s="71">
+        <f>IF(LEN(B16),B$9,"")</f>
+        <v>3</v>
+      </c>
+      <c r="X16" s="76" t="str">
+        <f t="shared" ref="X16:AP16" si="0">IF(LEN(C16),C$9,"")</f>
+        <v/>
+      </c>
+      <c r="Y16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z16" s="76">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB16" s="76">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD16" s="76">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG16" s="76">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI16" s="76">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL16" s="76">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AM16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN16" s="76">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AO16" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP16" s="76">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS16" s="76">
+        <v>5</v>
+      </c>
+      <c r="AT16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU16" s="76">
+        <v>6</v>
+      </c>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX16" s="76">
+        <v>6</v>
+      </c>
+      <c r="AY16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ16" s="76">
+        <v>7</v>
+      </c>
+      <c r="BA16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB16" s="84"/>
+      <c r="BC16" s="76">
+        <v>7</v>
+      </c>
+      <c r="BD16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF16" s="76">
+        <v>2</v>
+      </c>
+      <c r="BG16" s="84"/>
+      <c r="BH16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI16" s="76">
+        <v>2</v>
+      </c>
+      <c r="BJ16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK16" s="76">
+        <v>3</v>
+      </c>
+      <c r="BL16" s="84"/>
+      <c r="BM16" s="71">
+        <v>3</v>
+      </c>
+      <c r="BN16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO16" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP16" s="76">
+        <v>5</v>
+      </c>
+      <c r="BQ16" s="88"/>
+    </row>
+    <row r="17" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="71">
+        <f>IF(LEN(B17),B$10,"")</f>
+        <v>7</v>
+      </c>
+      <c r="X17" s="76" t="str">
+        <f t="shared" ref="X17:AP17" si="1">IF(LEN(C17),C$10,"")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z17" s="76">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB17" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AC17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE17" s="76">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG17" s="76">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AH17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI17" s="76">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AJ17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AL17" s="76">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AN17" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AO17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AP17" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS17" s="76">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU17" s="76">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX17" s="76">
+        <v>3</v>
+      </c>
+      <c r="AY17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA17" s="76">
+        <v>5</v>
+      </c>
+      <c r="BB17" s="84"/>
+      <c r="BC17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD17" s="76">
+        <v>5</v>
+      </c>
+      <c r="BE17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF17" s="76">
+        <v>6</v>
+      </c>
+      <c r="BG17" s="84"/>
+      <c r="BH17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI17" s="76">
+        <v>6</v>
+      </c>
+      <c r="BJ17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK17" s="76">
+        <v>7</v>
+      </c>
+      <c r="BL17" s="84"/>
+      <c r="BM17" s="71">
+        <v>7</v>
+      </c>
+      <c r="BN17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO17" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP17" s="76">
+        <v>2</v>
+      </c>
+      <c r="BQ17" s="88"/>
+    </row>
+    <row r="18" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="70"/>
+      <c r="W18" s="71">
+        <f>IF(LEN(B18),B$11,"")</f>
+        <v>5</v>
+      </c>
+      <c r="X18" s="76" t="str">
+        <f t="shared" ref="X18:AP18" si="2">IF(LEN(C18),C$11,"")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="76">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Z18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA18" s="76">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AB18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD18" s="76">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AE18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF18" s="76">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AG18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI18" s="76">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AJ18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK18" s="76">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AL18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AM18" s="76">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AN18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AO18" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AP18" s="76">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="76">
+        <v>6</v>
+      </c>
+      <c r="AS18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT18" s="76">
+        <v>7</v>
+      </c>
+      <c r="AU18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="76">
+        <v>7</v>
+      </c>
+      <c r="AX18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ18" s="76">
+        <v>2</v>
+      </c>
+      <c r="BA18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB18" s="84"/>
+      <c r="BC18" s="76">
+        <v>2</v>
+      </c>
+      <c r="BD18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE18" s="76">
+        <v>3</v>
+      </c>
+      <c r="BF18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG18" s="84"/>
+      <c r="BH18" s="76">
+        <v>3</v>
+      </c>
+      <c r="BI18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK18" s="76">
+        <v>5</v>
+      </c>
+      <c r="BL18" s="84"/>
+      <c r="BM18" s="71">
+        <v>5</v>
+      </c>
+      <c r="BN18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO18" s="76">
+        <v>6</v>
+      </c>
+      <c r="BP18" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ18" s="88"/>
+    </row>
+    <row r="19" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="V19" s="70"/>
+      <c r="W19" s="71">
+        <f>IF(LEN(B19),B$12,"")</f>
+        <v>2</v>
+      </c>
+      <c r="X19" s="76" t="str">
+        <f t="shared" ref="X19:AP19" si="3">IF(LEN(C19),C$12,"")</f>
+        <v/>
+      </c>
+      <c r="Y19" s="76">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Z19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB19" s="76">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AC19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD19" s="76">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AE19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF19" s="76">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AG19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI19" s="76">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK19" s="76">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AL19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AM19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AN19" s="76">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AO19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AP19" s="76">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="76">
+        <v>3</v>
+      </c>
+      <c r="AS19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU19" s="76">
+        <v>5</v>
+      </c>
+      <c r="AV19" s="84"/>
+      <c r="AW19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX19" s="76">
+        <v>5</v>
+      </c>
+      <c r="AY19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ19" s="76">
+        <v>6</v>
+      </c>
+      <c r="BA19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB19" s="84"/>
+      <c r="BC19" s="76">
+        <v>6</v>
+      </c>
+      <c r="BD19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE19" s="76">
+        <v>7</v>
+      </c>
+      <c r="BF19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG19" s="84"/>
+      <c r="BH19" s="76">
+        <v>7</v>
+      </c>
+      <c r="BI19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK19" s="76">
+        <v>2</v>
+      </c>
+      <c r="BL19" s="84"/>
+      <c r="BM19" s="71">
+        <v>2</v>
+      </c>
+      <c r="BN19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO19" s="76">
+        <v>3</v>
+      </c>
+      <c r="BP19" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ19" s="88"/>
+    </row>
+    <row r="20" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71">
+        <f>IF(LEN(B20),B$13,"")</f>
+        <v>6</v>
+      </c>
+      <c r="X20" s="76" t="str">
+        <f t="shared" ref="X20:AP20" si="4">IF(LEN(C20),C$13,"")</f>
+        <v/>
+      </c>
+      <c r="Y20" s="76">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Z20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB20" s="76">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AC20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD20" s="76">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AE20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG20" s="76">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AH20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI20" s="76">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AJ20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK20" s="76">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AL20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AM20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AN20" s="76">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO20" s="76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AP20" s="76">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="76">
+        <v>7</v>
+      </c>
+      <c r="AS20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU20" s="76">
+        <v>2</v>
+      </c>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX20" s="76">
+        <v>2</v>
+      </c>
+      <c r="AY20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ20" s="76">
+        <v>3</v>
+      </c>
+      <c r="BA20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB20" s="84"/>
+      <c r="BC20" s="76">
+        <v>3</v>
+      </c>
+      <c r="BD20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF20" s="76">
+        <v>5</v>
+      </c>
+      <c r="BG20" s="84"/>
+      <c r="BH20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI20" s="76">
+        <v>5</v>
+      </c>
+      <c r="BJ20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK20" s="76">
+        <v>6</v>
+      </c>
+      <c r="BL20" s="84"/>
+      <c r="BM20" s="71">
+        <v>6</v>
+      </c>
+      <c r="BN20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO20" s="76">
+        <v>7</v>
+      </c>
+      <c r="BP20" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ20" s="88"/>
+    </row>
+    <row r="21" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="V21" s="70"/>
+      <c r="W21" s="71">
+        <f>IF(LEN(B21),B$14,"")</f>
+        <v>3</v>
+      </c>
+      <c r="X21" s="76" t="str">
+        <f t="shared" ref="X21:AP21" si="5">IF(LEN(C21),C$14,"")</f>
+        <v/>
+      </c>
+      <c r="Y21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z21" s="76">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AA21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB21" s="76">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AC21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD21" s="76">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AE21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG21" s="76">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AH21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI21" s="76">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AK21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AL21" s="76">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AM21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AN21" s="76">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AO21" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AP21" s="76">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS21" s="76">
+        <v>5</v>
+      </c>
+      <c r="AT21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU21" s="76">
+        <v>6</v>
+      </c>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX21" s="76">
+        <v>6</v>
+      </c>
+      <c r="AY21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ21" s="76">
+        <v>7</v>
+      </c>
+      <c r="BA21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB21" s="84"/>
+      <c r="BC21" s="76">
+        <v>7</v>
+      </c>
+      <c r="BD21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF21" s="76">
+        <v>2</v>
+      </c>
+      <c r="BG21" s="84"/>
+      <c r="BH21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI21" s="76">
+        <v>2</v>
+      </c>
+      <c r="BJ21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK21" s="76">
+        <v>3</v>
+      </c>
+      <c r="BL21" s="84"/>
+      <c r="BM21" s="71">
+        <v>3</v>
+      </c>
+      <c r="BN21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO21" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP21" s="76">
+        <v>5</v>
+      </c>
+      <c r="BQ21" s="88"/>
+    </row>
+    <row r="22" spans="2:69" s="80" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B22" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="79"/>
+      <c r="N22" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="79"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="81"/>
+      <c r="AO22" s="81"/>
+      <c r="AP22" s="81"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS22" s="81"/>
+      <c r="AT22" s="81"/>
+      <c r="AU22" s="81"/>
+      <c r="AV22" s="84"/>
+      <c r="AW22" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX22" s="81"/>
+      <c r="AY22" s="81"/>
+      <c r="AZ22" s="81"/>
+      <c r="BA22" s="81"/>
+      <c r="BB22" s="84"/>
+      <c r="BC22" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD22" s="81"/>
+      <c r="BE22" s="81"/>
+      <c r="BF22" s="81"/>
+      <c r="BG22" s="84"/>
+      <c r="BH22" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI22" s="81"/>
+      <c r="BJ22" s="81"/>
+      <c r="BK22" s="81"/>
+      <c r="BL22" s="84"/>
+      <c r="BM22" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN22" s="78"/>
+      <c r="BO22" s="81"/>
+      <c r="BP22" s="81"/>
+      <c r="BQ22" s="88"/>
+    </row>
+    <row r="23" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="71"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="W23" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="BQ23" s="76"/>
+    </row>
+    <row r="24" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="69"/>
+      <c r="C24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="70"/>
+      <c r="W24" s="71" t="str">
+        <f>IF(LEN(B24),B$9,"")</f>
+        <v/>
+      </c>
+      <c r="X24" s="76">
+        <f t="shared" ref="X24" si="6">IF(LEN(C24),C$9,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y24" s="76" t="str">
+        <f t="shared" ref="Y24" si="7">IF(LEN(D24),D$9,"")</f>
+        <v/>
+      </c>
+      <c r="Z24" s="76">
+        <f t="shared" ref="Z24" si="8">IF(LEN(E24),E$9,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA24" s="76" t="str">
+        <f t="shared" ref="AA24" si="9">IF(LEN(F24),F$9,"")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="76">
+        <f t="shared" ref="AB24" si="10">IF(LEN(G24),G$9,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AC24" s="76" t="str">
+        <f t="shared" ref="AC24" si="11">IF(LEN(H24),H$9,"")</f>
+        <v/>
+      </c>
+      <c r="AD24" s="76" t="str">
+        <f t="shared" ref="AD24" si="12">IF(LEN(I24),I$9,"")</f>
+        <v/>
+      </c>
+      <c r="AE24" s="76">
+        <f t="shared" ref="AE24" si="13">IF(LEN(J24),J$9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="76" t="str">
+        <f t="shared" ref="AF24" si="14">IF(LEN(K24),K$9,"")</f>
+        <v/>
+      </c>
+      <c r="AG24" s="76">
+        <f t="shared" ref="AG24" si="15">IF(LEN(L24),L$9,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AH24" s="76" t="str">
+        <f t="shared" ref="AH24" si="16">IF(LEN(M24),M$9,"")</f>
+        <v/>
+      </c>
+      <c r="AI24" s="76" t="str">
+        <f t="shared" ref="AI24" si="17">IF(LEN(N24),N$9,"")</f>
+        <v/>
+      </c>
+      <c r="AJ24" s="76">
+        <f t="shared" ref="AJ24" si="18">IF(LEN(O24),O$9,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AK24" s="76" t="str">
+        <f t="shared" ref="AK24" si="19">IF(LEN(P24),P$9,"")</f>
+        <v/>
+      </c>
+      <c r="AL24" s="76">
+        <f t="shared" ref="AL24" si="20">IF(LEN(Q24),Q$9,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AM24" s="76" t="str">
+        <f t="shared" ref="AM24" si="21">IF(LEN(R24),R$9,"")</f>
+        <v/>
+      </c>
+      <c r="AN24" s="76">
+        <f t="shared" ref="AN24" si="22">IF(LEN(S24),S$9,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AO24" s="76" t="str">
+        <f t="shared" ref="AO24" si="23">IF(LEN(T24),T$9,"")</f>
+        <v/>
+      </c>
+      <c r="AP24" s="76" t="str">
+        <f t="shared" ref="AP24" si="24">IF(LEN(U24),U$9,"")</f>
+        <v/>
+      </c>
+      <c r="AQ24" s="87"/>
+      <c r="AR24" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS24" s="76">
+        <v>4</v>
+      </c>
+      <c r="AT24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU24" s="76">
+        <v>5</v>
+      </c>
+      <c r="AV24" s="84"/>
+      <c r="AW24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX24" s="76">
+        <v>5</v>
+      </c>
+      <c r="AY24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ24" s="76">
+        <v>6</v>
+      </c>
+      <c r="BA24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB24" s="84"/>
+      <c r="BC24" s="76">
+        <v>6</v>
+      </c>
+      <c r="BD24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF24" s="76">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="84"/>
+      <c r="BH24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI24" s="76">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK24" s="76">
+        <v>2</v>
+      </c>
+      <c r="BL24" s="84"/>
+      <c r="BM24" s="76">
+        <v>2</v>
+      </c>
+      <c r="BN24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP24" s="76">
+        <v>4</v>
+      </c>
+      <c r="BQ24" s="88"/>
+    </row>
+    <row r="25" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="69"/>
+      <c r="C25" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="W25" s="71" t="str">
+        <f>IF(LEN(B25),B$10,"")</f>
+        <v/>
+      </c>
+      <c r="X25" s="76">
+        <f t="shared" ref="X25" si="25">IF(LEN(C25),C$10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="76" t="str">
+        <f t="shared" ref="Y25" si="26">IF(LEN(D25),D$10,"")</f>
+        <v/>
+      </c>
+      <c r="Z25" s="76">
+        <f t="shared" ref="Z25" si="27">IF(LEN(E25),E$10,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA25" s="76" t="str">
+        <f t="shared" ref="AA25" si="28">IF(LEN(F25),F$10,"")</f>
+        <v/>
+      </c>
+      <c r="AB25" s="76" t="str">
+        <f t="shared" ref="AB25" si="29">IF(LEN(G25),G$10,"")</f>
+        <v/>
+      </c>
+      <c r="AC25" s="76">
+        <f t="shared" ref="AC25" si="30">IF(LEN(H25),H$10,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AD25" s="76" t="str">
+        <f t="shared" ref="AD25" si="31">IF(LEN(I25),I$10,"")</f>
+        <v/>
+      </c>
+      <c r="AE25" s="76">
+        <f t="shared" ref="AE25" si="32">IF(LEN(J25),J$10,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AF25" s="76" t="str">
+        <f t="shared" ref="AF25" si="33">IF(LEN(K25),K$10,"")</f>
+        <v/>
+      </c>
+      <c r="AG25" s="76">
+        <f t="shared" ref="AG25" si="34">IF(LEN(L25),L$10,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AH25" s="76" t="str">
+        <f t="shared" ref="AH25" si="35">IF(LEN(M25),M$10,"")</f>
+        <v/>
+      </c>
+      <c r="AI25" s="76" t="str">
+        <f t="shared" ref="AI25" si="36">IF(LEN(N25),N$10,"")</f>
+        <v/>
+      </c>
+      <c r="AJ25" s="76">
+        <f t="shared" ref="AJ25" si="37">IF(LEN(O25),O$10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AK25" s="76" t="str">
+        <f t="shared" ref="AK25" si="38">IF(LEN(P25),P$10,"")</f>
+        <v/>
+      </c>
+      <c r="AL25" s="76">
+        <f t="shared" ref="AL25" si="39">IF(LEN(Q25),Q$10,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AM25" s="76" t="str">
+        <f t="shared" ref="AM25" si="40">IF(LEN(R25),R$10,"")</f>
+        <v/>
+      </c>
+      <c r="AN25" s="76" t="str">
+        <f t="shared" ref="AN25" si="41">IF(LEN(S25),S$10,"")</f>
+        <v/>
+      </c>
+      <c r="AO25" s="76">
+        <f t="shared" ref="AO25" si="42">IF(LEN(T25),T$10,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AP25" s="76" t="str">
+        <f t="shared" ref="AP25" si="43">IF(LEN(U25),U$10,"")</f>
+        <v/>
+      </c>
+      <c r="AQ25" s="87"/>
+      <c r="AR25" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS25" s="76">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU25" s="76">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX25" s="76">
+        <v>2</v>
+      </c>
+      <c r="AY25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA25" s="76">
+        <v>4</v>
+      </c>
+      <c r="BB25" s="84"/>
+      <c r="BC25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD25" s="76">
+        <v>4</v>
+      </c>
+      <c r="BE25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF25" s="76">
+        <v>5</v>
+      </c>
+      <c r="BG25" s="84"/>
+      <c r="BH25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI25" s="76">
+        <v>5</v>
+      </c>
+      <c r="BJ25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK25" s="76">
+        <v>6</v>
+      </c>
+      <c r="BL25" s="84"/>
+      <c r="BM25" s="76">
+        <v>6</v>
+      </c>
+      <c r="BN25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO25" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP25" s="76">
+        <v>1</v>
+      </c>
+      <c r="BQ25" s="88"/>
+    </row>
+    <row r="26" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="70"/>
+      <c r="U26" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="W26" s="71">
+        <f>IF(LEN(B26),B$11,"")</f>
+        <v>5</v>
+      </c>
+      <c r="X26" s="76" t="str">
+        <f t="shared" ref="X26" si="44">IF(LEN(C26),C$11,"")</f>
+        <v/>
+      </c>
+      <c r="Y26" s="76">
+        <f t="shared" ref="Y26" si="45">IF(LEN(D26),D$11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z26" s="76" t="str">
+        <f t="shared" ref="Z26" si="46">IF(LEN(E26),E$11,"")</f>
+        <v/>
+      </c>
+      <c r="AA26" s="76" t="str">
+        <f t="shared" ref="AA26" si="47">IF(LEN(F26),F$11,"")</f>
+        <v/>
+      </c>
+      <c r="AB26" s="76">
+        <f t="shared" ref="AB26" si="48">IF(LEN(G26),G$11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AC26" s="76" t="str">
+        <f t="shared" ref="AC26" si="49">IF(LEN(H26),H$11,"")</f>
+        <v/>
+      </c>
+      <c r="AD26" s="76">
+        <f t="shared" ref="AD26" si="50">IF(LEN(I26),I$11,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AE26" s="76" t="str">
+        <f t="shared" ref="AE26" si="51">IF(LEN(J26),J$11,"")</f>
+        <v/>
+      </c>
+      <c r="AF26" s="76" t="str">
+        <f t="shared" ref="AF26" si="52">IF(LEN(K26),K$11,"")</f>
+        <v/>
+      </c>
+      <c r="AG26" s="76">
+        <f t="shared" ref="AG26" si="53">IF(LEN(L26),L$11,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AH26" s="76" t="str">
+        <f t="shared" ref="AH26" si="54">IF(LEN(M26),M$11,"")</f>
+        <v/>
+      </c>
+      <c r="AI26" s="76">
+        <f t="shared" ref="AI26" si="55">IF(LEN(N26),N$11,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AJ26" s="76" t="str">
+        <f t="shared" ref="AJ26" si="56">IF(LEN(O26),O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AK26" s="76">
+        <f t="shared" ref="AK26" si="57">IF(LEN(P26),P$11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AL26" s="76" t="str">
+        <f t="shared" ref="AL26" si="58">IF(LEN(Q26),Q$11,"")</f>
+        <v/>
+      </c>
+      <c r="AM26" s="76" t="str">
+        <f t="shared" ref="AM26" si="59">IF(LEN(R26),R$11,"")</f>
+        <v/>
+      </c>
+      <c r="AN26" s="76">
+        <f t="shared" ref="AN26" si="60">IF(LEN(S26),S$11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AO26" s="76" t="str">
+        <f t="shared" ref="AO26" si="61">IF(LEN(T26),T$11,"")</f>
+        <v/>
+      </c>
+      <c r="AP26" s="76">
+        <f t="shared" ref="AP26" si="62">IF(LEN(U26),U$11,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="71">
+        <v>5</v>
+      </c>
+      <c r="AS26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT26" s="76">
+        <v>6</v>
+      </c>
+      <c r="AU26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV26" s="84"/>
+      <c r="AW26" s="76">
+        <v>6</v>
+      </c>
+      <c r="AX26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ26" s="76">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB26" s="84"/>
+      <c r="BC26" s="76">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE26" s="76">
+        <v>2</v>
+      </c>
+      <c r="BF26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG26" s="84"/>
+      <c r="BH26" s="76">
+        <v>2</v>
+      </c>
+      <c r="BI26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK26" s="76">
+        <v>4</v>
+      </c>
+      <c r="BL26" s="84"/>
+      <c r="BM26" s="76">
+        <v>4</v>
+      </c>
+      <c r="BN26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO26" s="76">
+        <v>5</v>
+      </c>
+      <c r="BP26" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ26" s="88"/>
+    </row>
+    <row r="27" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="70"/>
+      <c r="U27" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="W27" s="71">
+        <f>IF(LEN(B27),B$12,"")</f>
+        <v>2</v>
+      </c>
+      <c r="X27" s="76" t="str">
+        <f t="shared" ref="X27" si="63">IF(LEN(C27),C$12,"")</f>
+        <v/>
+      </c>
+      <c r="Y27" s="76" t="str">
+        <f t="shared" ref="Y27" si="64">IF(LEN(D27),D$12,"")</f>
+        <v/>
+      </c>
+      <c r="Z27" s="76">
+        <f t="shared" ref="Z27" si="65">IF(LEN(E27),E$12,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AA27" s="76" t="str">
+        <f t="shared" ref="AA27" si="66">IF(LEN(F27),F$12,"")</f>
+        <v/>
+      </c>
+      <c r="AB27" s="76">
+        <f t="shared" ref="AB27" si="67">IF(LEN(G27),G$12,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AC27" s="76" t="str">
+        <f t="shared" ref="AC27" si="68">IF(LEN(H27),H$12,"")</f>
+        <v/>
+      </c>
+      <c r="AD27" s="76">
+        <f t="shared" ref="AD27" si="69">IF(LEN(I27),I$12,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AE27" s="76" t="str">
+        <f t="shared" ref="AE27" si="70">IF(LEN(J27),J$12,"")</f>
+        <v/>
+      </c>
+      <c r="AF27" s="76" t="str">
+        <f t="shared" ref="AF27" si="71">IF(LEN(K27),K$12,"")</f>
+        <v/>
+      </c>
+      <c r="AG27" s="76">
+        <f t="shared" ref="AG27" si="72">IF(LEN(L27),L$12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AH27" s="76" t="str">
+        <f t="shared" ref="AH27" si="73">IF(LEN(M27),M$12,"")</f>
+        <v/>
+      </c>
+      <c r="AI27" s="76">
+        <f t="shared" ref="AI27" si="74">IF(LEN(N27),N$12,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="76" t="str">
+        <f t="shared" ref="AJ27" si="75">IF(LEN(O27),O$12,"")</f>
+        <v/>
+      </c>
+      <c r="AK27" s="76" t="str">
+        <f t="shared" ref="AK27" si="76">IF(LEN(P27),P$12,"")</f>
+        <v/>
+      </c>
+      <c r="AL27" s="76">
+        <f t="shared" ref="AL27" si="77">IF(LEN(Q27),Q$12,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AM27" s="76" t="str">
+        <f t="shared" ref="AM27" si="78">IF(LEN(R27),R$12,"")</f>
+        <v/>
+      </c>
+      <c r="AN27" s="76">
+        <f t="shared" ref="AN27" si="79">IF(LEN(S27),S$12,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AO27" s="76" t="str">
+        <f t="shared" ref="AO27" si="80">IF(LEN(T27),T$12,"")</f>
+        <v/>
+      </c>
+      <c r="AP27" s="76">
+        <f t="shared" ref="AP27" si="81">IF(LEN(U27),U$12,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AQ27" s="87"/>
+      <c r="AR27" s="71">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU27" s="76">
+        <v>4</v>
+      </c>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX27" s="76">
+        <v>4</v>
+      </c>
+      <c r="AY27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ27" s="76">
+        <v>5</v>
+      </c>
+      <c r="BA27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB27" s="84"/>
+      <c r="BC27" s="76">
+        <v>5</v>
+      </c>
+      <c r="BD27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE27" s="76">
+        <v>6</v>
+      </c>
+      <c r="BF27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG27" s="84"/>
+      <c r="BH27" s="76">
+        <v>6</v>
+      </c>
+      <c r="BI27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK27" s="76">
+        <v>1</v>
+      </c>
+      <c r="BL27" s="84"/>
+      <c r="BM27" s="76">
+        <v>1</v>
+      </c>
+      <c r="BN27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO27" s="76">
+        <v>2</v>
+      </c>
+      <c r="BP27" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ27" s="88"/>
+    </row>
+    <row r="28" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="70"/>
+      <c r="W28" s="71">
+        <f>IF(LEN(B28),B$13,"")</f>
+        <v>6</v>
+      </c>
+      <c r="X28" s="76" t="str">
+        <f t="shared" ref="X28" si="82">IF(LEN(C28),C$13,"")</f>
+        <v/>
+      </c>
+      <c r="Y28" s="76" t="str">
+        <f t="shared" ref="Y28" si="83">IF(LEN(D28),D$13,"")</f>
+        <v/>
+      </c>
+      <c r="Z28" s="76">
+        <f t="shared" ref="Z28" si="84">IF(LEN(E28),E$13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="76" t="str">
+        <f t="shared" ref="AA28" si="85">IF(LEN(F28),F$13,"")</f>
+        <v/>
+      </c>
+      <c r="AB28" s="76">
+        <f t="shared" ref="AB28" si="86">IF(LEN(G28),G$13,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AC28" s="76" t="str">
+        <f t="shared" ref="AC28" si="87">IF(LEN(H28),H$13,"")</f>
+        <v/>
+      </c>
+      <c r="AD28" s="76" t="str">
+        <f t="shared" ref="AD28" si="88">IF(LEN(I28),I$13,"")</f>
+        <v/>
+      </c>
+      <c r="AE28" s="76">
+        <f t="shared" ref="AE28" si="89">IF(LEN(J28),J$13,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AF28" s="76" t="str">
+        <f t="shared" ref="AF28" si="90">IF(LEN(K28),K$13,"")</f>
+        <v/>
+      </c>
+      <c r="AG28" s="76">
+        <f t="shared" ref="AG28" si="91">IF(LEN(L28),L$13,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AH28" s="76" t="str">
+        <f t="shared" ref="AH28" si="92">IF(LEN(M28),M$13,"")</f>
+        <v/>
+      </c>
+      <c r="AI28" s="76">
+        <f t="shared" ref="AI28" si="93">IF(LEN(N28),N$13,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AJ28" s="76" t="str">
+        <f t="shared" ref="AJ28" si="94">IF(LEN(O28),O$13,"")</f>
+        <v/>
+      </c>
+      <c r="AK28" s="76" t="str">
+        <f t="shared" ref="AK28" si="95">IF(LEN(P28),P$13,"")</f>
+        <v/>
+      </c>
+      <c r="AL28" s="76">
+        <f t="shared" ref="AL28" si="96">IF(LEN(Q28),Q$13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AM28" s="76" t="str">
+        <f t="shared" ref="AM28" si="97">IF(LEN(R28),R$13,"")</f>
+        <v/>
+      </c>
+      <c r="AN28" s="76">
+        <f t="shared" ref="AN28" si="98">IF(LEN(S28),S$13,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AO28" s="76" t="str">
+        <f t="shared" ref="AO28" si="99">IF(LEN(T28),T$13,"")</f>
+        <v/>
+      </c>
+      <c r="AP28" s="76" t="str">
+        <f t="shared" ref="AP28" si="100">IF(LEN(U28),U$13,"")</f>
+        <v/>
+      </c>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="71">
+        <v>6</v>
+      </c>
+      <c r="AS28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU28" s="76">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="84"/>
+      <c r="AW28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX28" s="76">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ28" s="76">
+        <v>2</v>
+      </c>
+      <c r="BA28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB28" s="84"/>
+      <c r="BC28" s="76">
+        <v>2</v>
+      </c>
+      <c r="BD28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF28" s="76">
+        <v>4</v>
+      </c>
+      <c r="BG28" s="84"/>
+      <c r="BH28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI28" s="76">
+        <v>4</v>
+      </c>
+      <c r="BJ28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK28" s="76">
+        <v>5</v>
+      </c>
+      <c r="BL28" s="84"/>
+      <c r="BM28" s="76">
+        <v>5</v>
+      </c>
+      <c r="BN28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO28" s="76">
+        <v>6</v>
+      </c>
+      <c r="BP28" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ28" s="88"/>
+    </row>
+    <row r="29" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="69"/>
+      <c r="C29" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="70"/>
+      <c r="W29" s="71" t="str">
+        <f>IF(LEN(B29),B$14,"")</f>
+        <v/>
+      </c>
+      <c r="X29" s="76">
+        <f t="shared" ref="X29" si="101">IF(LEN(C29),C$14,"")</f>
+        <v>4</v>
+      </c>
+      <c r="Y29" s="76" t="str">
+        <f t="shared" ref="Y29" si="102">IF(LEN(D29),D$14,"")</f>
+        <v/>
+      </c>
+      <c r="Z29" s="76">
+        <f t="shared" ref="Z29" si="103">IF(LEN(E29),E$14,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA29" s="76" t="str">
+        <f t="shared" ref="AA29" si="104">IF(LEN(F29),F$14,"")</f>
+        <v/>
+      </c>
+      <c r="AB29" s="76">
+        <f t="shared" ref="AB29" si="105">IF(LEN(G29),G$14,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AC29" s="76" t="str">
+        <f t="shared" ref="AC29" si="106">IF(LEN(H29),H$14,"")</f>
+        <v/>
+      </c>
+      <c r="AD29" s="76" t="str">
+        <f t="shared" ref="AD29" si="107">IF(LEN(I29),I$14,"")</f>
+        <v/>
+      </c>
+      <c r="AE29" s="76">
+        <f t="shared" ref="AE29" si="108">IF(LEN(J29),J$14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AF29" s="76" t="str">
+        <f t="shared" ref="AF29" si="109">IF(LEN(K29),K$14,"")</f>
+        <v/>
+      </c>
+      <c r="AG29" s="76">
+        <f t="shared" ref="AG29" si="110">IF(LEN(L29),L$14,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AH29" s="76" t="str">
+        <f t="shared" ref="AH29" si="111">IF(LEN(M29),M$14,"")</f>
+        <v/>
+      </c>
+      <c r="AI29" s="76" t="str">
+        <f t="shared" ref="AI29" si="112">IF(LEN(N29),N$14,"")</f>
+        <v/>
+      </c>
+      <c r="AJ29" s="76">
+        <f t="shared" ref="AJ29" si="113">IF(LEN(O29),O$14,"")</f>
+        <v>4</v>
+      </c>
+      <c r="AK29" s="76" t="str">
+        <f t="shared" ref="AK29" si="114">IF(LEN(P29),P$14,"")</f>
+        <v/>
+      </c>
+      <c r="AL29" s="76">
+        <f t="shared" ref="AL29" si="115">IF(LEN(Q29),Q$14,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AM29" s="76" t="str">
+        <f t="shared" ref="AM29" si="116">IF(LEN(R29),R$14,"")</f>
+        <v/>
+      </c>
+      <c r="AN29" s="76">
+        <f t="shared" ref="AN29" si="117">IF(LEN(S29),S$14,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AO29" s="76" t="str">
+        <f t="shared" ref="AO29" si="118">IF(LEN(T29),T$14,"")</f>
+        <v/>
+      </c>
+      <c r="AP29" s="76" t="str">
+        <f t="shared" ref="AP29" si="119">IF(LEN(U29),U$14,"")</f>
+        <v/>
+      </c>
+      <c r="AQ29" s="87"/>
+      <c r="AR29" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS29" s="76">
+        <v>4</v>
+      </c>
+      <c r="AT29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU29" s="76">
+        <v>5</v>
+      </c>
+      <c r="AV29" s="84"/>
+      <c r="AW29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX29" s="76">
+        <v>5</v>
+      </c>
+      <c r="AY29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ29" s="76">
+        <v>6</v>
+      </c>
+      <c r="BA29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB29" s="84"/>
+      <c r="BC29" s="76">
+        <v>6</v>
+      </c>
+      <c r="BD29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF29" s="76">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="84"/>
+      <c r="BH29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI29" s="76">
+        <v>1</v>
+      </c>
+      <c r="BJ29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK29" s="76">
+        <v>2</v>
+      </c>
+      <c r="BL29" s="84"/>
+      <c r="BM29" s="76">
+        <v>2</v>
+      </c>
+      <c r="BN29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO29" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP29" s="76">
+        <v>4</v>
+      </c>
+      <c r="BQ29" s="88"/>
+    </row>
+    <row r="30" spans="2:69" s="80" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B30" s="78"/>
+      <c r="C30" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="T30" s="79"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="81"/>
+      <c r="AO30" s="81"/>
+      <c r="AP30" s="81"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS30" s="81"/>
+      <c r="AT30" s="81"/>
+      <c r="AU30" s="81"/>
+      <c r="AV30" s="84"/>
+      <c r="AW30" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX30" s="81"/>
+      <c r="AY30" s="81"/>
+      <c r="AZ30" s="81"/>
+      <c r="BA30" s="81"/>
+      <c r="BB30" s="84"/>
+      <c r="BC30" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD30" s="81"/>
+      <c r="BE30" s="81"/>
+      <c r="BF30" s="81"/>
+      <c r="BG30" s="84"/>
+      <c r="BH30" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI30" s="81"/>
+      <c r="BJ30" s="81"/>
+      <c r="BK30" s="81"/>
+      <c r="BL30" s="84"/>
+      <c r="BM30" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN30" s="81"/>
+      <c r="BO30" s="81"/>
+      <c r="BP30" s="81"/>
+      <c r="BQ30" s="88"/>
+    </row>
+    <row r="31" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="71"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="W31" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="76"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="76"/>
+      <c r="AM31" s="76"/>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="76"/>
+      <c r="AP31" s="76"/>
+      <c r="AQ31" s="76"/>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="76"/>
+      <c r="AT31" s="76"/>
+      <c r="AU31" s="76"/>
+      <c r="AV31" s="76"/>
+      <c r="AW31" s="76"/>
+      <c r="AX31" s="76"/>
+      <c r="BQ31" s="76"/>
+    </row>
+    <row r="32" spans="2:69" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" s="71"/>
+      <c r="W32" s="71">
+        <f>IF(LEN(B32),B$9,"")</f>
+        <v>3</v>
+      </c>
+      <c r="X32" s="76" t="str">
+        <f t="shared" ref="X32" si="120">IF(LEN(C32),C$9,"")</f>
+        <v/>
+      </c>
+      <c r="Y32" s="76" t="str">
+        <f t="shared" ref="Y32" si="121">IF(LEN(D32),D$9,"")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="76">
+        <f t="shared" ref="Z32" si="122">IF(LEN(E32),E$9,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA32" s="76" t="str">
+        <f t="shared" ref="AA32" si="123">IF(LEN(F32),F$9,"")</f>
+        <v/>
+      </c>
+      <c r="AB32" s="76">
+        <f t="shared" ref="AB32" si="124">IF(LEN(G32),G$9,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AC32" s="76" t="str">
+        <f t="shared" ref="AC32" si="125">IF(LEN(H32),H$9,"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="76" t="str">
+        <f t="shared" ref="AD32" si="126">IF(LEN(I32),I$9,"")</f>
+        <v/>
+      </c>
+      <c r="AE32" s="76">
+        <f t="shared" ref="AE32" si="127">IF(LEN(J32),J$9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AF32" s="76" t="str">
+        <f t="shared" ref="AF32" si="128">IF(LEN(K32),K$9,"")</f>
+        <v/>
+      </c>
+      <c r="AG32" s="76">
+        <f t="shared" ref="AG32" si="129">IF(LEN(L32),L$9,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AH32" s="76" t="str">
+        <f t="shared" ref="AH32" si="130">IF(LEN(M32),M$9,"")</f>
+        <v/>
+      </c>
+      <c r="AI32" s="76">
+        <f t="shared" ref="AI32" si="131">IF(LEN(N32),N$9,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AJ32" s="76" t="str">
+        <f t="shared" ref="AJ32" si="132">IF(LEN(O32),O$9,"")</f>
+        <v/>
+      </c>
+      <c r="AK32" s="76" t="str">
+        <f>IF(LEN(P32),P$9,"")</f>
+        <v/>
+      </c>
+      <c r="AL32" s="76">
+        <f>IF(LEN(Q32),Q$9,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AM32" s="76" t="str">
+        <f>IF(LEN(R32),R$9,"")</f>
+        <v/>
+      </c>
+      <c r="AN32" s="76">
+        <f>IF(LEN(S32),S$9,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AO32" s="76" t="str">
+        <f>IF(LEN(T32),T$9,"")</f>
+        <v/>
+      </c>
+      <c r="AP32" s="76" t="str">
+        <f t="shared" ref="AP32" si="133">IF(LEN(U32),U$9,"")</f>
+        <v/>
+      </c>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS32" s="76">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU32" s="76">
+        <v>2</v>
+      </c>
+      <c r="AV32" s="84"/>
+      <c r="AW32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX32" s="76">
+        <v>2</v>
+      </c>
+      <c r="AY32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ32" s="76">
+        <v>3</v>
+      </c>
+      <c r="BA32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB32" s="85"/>
+      <c r="BC32" s="71">
+        <v>3</v>
+      </c>
+      <c r="BD32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF32" s="76">
+        <v>5</v>
+      </c>
+      <c r="BG32" s="84"/>
+      <c r="BH32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI32" s="76">
+        <v>5</v>
+      </c>
+      <c r="BJ32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK32" s="76">
+        <v>6</v>
+      </c>
+      <c r="BL32" s="84"/>
+      <c r="BM32" s="76">
+        <v>6</v>
+      </c>
+      <c r="BN32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO32" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP32" s="76">
+        <v>1</v>
+      </c>
+      <c r="BQ32" s="88"/>
+    </row>
+    <row r="33" spans="2:69" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="69"/>
+      <c r="C33" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" s="71"/>
+      <c r="W33" s="71" t="str">
+        <f>IF(LEN(B33),B$10,"")</f>
+        <v/>
+      </c>
+      <c r="X33" s="76">
+        <f t="shared" ref="X33" si="134">IF(LEN(C33),C$10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="Y33" s="76" t="str">
+        <f t="shared" ref="Y33" si="135">IF(LEN(D33),D$10,"")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="76">
+        <f t="shared" ref="Z33" si="136">IF(LEN(E33),E$10,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AA33" s="76" t="str">
+        <f t="shared" ref="AA33" si="137">IF(LEN(F33),F$10,"")</f>
+        <v/>
+      </c>
+      <c r="AB33" s="76">
+        <f t="shared" ref="AB33" si="138">IF(LEN(G33),G$10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AC33" s="76" t="str">
+        <f t="shared" ref="AC33" si="139">IF(LEN(H33),H$10,"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="76" t="str">
+        <f t="shared" ref="AD33" si="140">IF(LEN(I33),I$10,"")</f>
+        <v/>
+      </c>
+      <c r="AE33" s="76">
+        <f t="shared" ref="AE33" si="141">IF(LEN(J33),J$10,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AF33" s="76" t="str">
+        <f t="shared" ref="AF33" si="142">IF(LEN(K33),K$10,"")</f>
+        <v/>
+      </c>
+      <c r="AG33" s="76">
+        <f t="shared" ref="AG33" si="143">IF(LEN(L33),L$10,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AH33" s="76" t="str">
+        <f t="shared" ref="AH33" si="144">IF(LEN(M33),M$10,"")</f>
+        <v/>
+      </c>
+      <c r="AI33" s="76" t="str">
+        <f t="shared" ref="AI33" si="145">IF(LEN(N33),N$10,"")</f>
+        <v/>
+      </c>
+      <c r="AJ33" s="76">
+        <f t="shared" ref="AJ33" si="146">IF(LEN(O33),O$10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AK33" s="76" t="str">
+        <f>IF(LEN(P33),P$10,"")</f>
+        <v/>
+      </c>
+      <c r="AL33" s="76">
+        <f>IF(LEN(Q33),Q$10,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AM33" s="76" t="str">
+        <f>IF(LEN(R33),R$10,"")</f>
+        <v/>
+      </c>
+      <c r="AN33" s="76">
+        <f>IF(LEN(S33),S$10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AO33" s="76" t="str">
+        <f>IF(LEN(T33),T$10,"")</f>
+        <v/>
+      </c>
+      <c r="AP33" s="76" t="str">
+        <f t="shared" ref="AP33" si="147">IF(LEN(U33),U$10,"")</f>
+        <v/>
+      </c>
+      <c r="AQ33" s="87"/>
+      <c r="AR33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS33" s="76">
+        <v>5</v>
+      </c>
+      <c r="AT33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU33" s="76">
+        <v>6</v>
+      </c>
+      <c r="AV33" s="84"/>
+      <c r="AW33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX33" s="76">
+        <v>6</v>
+      </c>
+      <c r="AY33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA33" s="76">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="85"/>
+      <c r="BC33" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD33" s="76">
+        <v>1</v>
+      </c>
+      <c r="BE33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF33" s="76">
+        <v>2</v>
+      </c>
+      <c r="BG33" s="84"/>
+      <c r="BH33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI33" s="76">
+        <v>2</v>
+      </c>
+      <c r="BJ33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK33" s="76">
+        <v>3</v>
+      </c>
+      <c r="BL33" s="84"/>
+      <c r="BM33" s="76">
+        <v>3</v>
+      </c>
+      <c r="BN33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO33" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP33" s="76">
+        <v>5</v>
+      </c>
+      <c r="BQ33" s="88"/>
+    </row>
+    <row r="34" spans="2:69" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="71"/>
+      <c r="G34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="71"/>
+      <c r="N34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="71"/>
+      <c r="S34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="W34" s="71">
+        <f>IF(LEN(B34),B$11,"")</f>
+        <v>5</v>
+      </c>
+      <c r="X34" s="76" t="str">
+        <f t="shared" ref="X34" si="148">IF(LEN(C34),C$11,"")</f>
+        <v/>
+      </c>
+      <c r="Y34" s="76">
+        <f t="shared" ref="Y34" si="149">IF(LEN(D34),D$11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="Z34" s="76" t="str">
+        <f t="shared" ref="Z34" si="150">IF(LEN(E34),E$11,"")</f>
+        <v/>
+      </c>
+      <c r="AA34" s="76" t="str">
+        <f t="shared" ref="AA34" si="151">IF(LEN(F34),F$11,"")</f>
+        <v/>
+      </c>
+      <c r="AB34" s="76">
+        <f t="shared" ref="AB34" si="152">IF(LEN(G34),G$11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AC34" s="76" t="str">
+        <f t="shared" ref="AC34" si="153">IF(LEN(H34),H$11,"")</f>
+        <v/>
+      </c>
+      <c r="AD34" s="76">
+        <f t="shared" ref="AD34" si="154">IF(LEN(I34),I$11,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AE34" s="76" t="str">
+        <f t="shared" ref="AE34" si="155">IF(LEN(J34),J$11,"")</f>
+        <v/>
+      </c>
+      <c r="AF34" s="76">
+        <f t="shared" ref="AF34" si="156">IF(LEN(K34),K$11,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AG34" s="76" t="str">
+        <f t="shared" ref="AG34" si="157">IF(LEN(L34),L$11,"")</f>
+        <v/>
+      </c>
+      <c r="AH34" s="76" t="str">
+        <f t="shared" ref="AH34" si="158">IF(LEN(M34),M$11,"")</f>
+        <v/>
+      </c>
+      <c r="AI34" s="76">
+        <f t="shared" ref="AI34" si="159">IF(LEN(N34),N$11,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AJ34" s="76" t="str">
+        <f t="shared" ref="AJ34" si="160">IF(LEN(O34),O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AK34" s="76">
+        <f>IF(LEN(P34),P$11,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AL34" s="76" t="str">
+        <f>IF(LEN(Q34),Q$11,"")</f>
+        <v/>
+      </c>
+      <c r="AM34" s="76" t="str">
+        <f>IF(LEN(R34),R$11,"")</f>
+        <v/>
+      </c>
+      <c r="AN34" s="76">
+        <f>IF(LEN(S34),S$11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AO34" s="76" t="str">
+        <f>IF(LEN(T34),T$11,"")</f>
+        <v/>
+      </c>
+      <c r="AP34" s="76">
+        <f t="shared" ref="AP34" si="161">IF(LEN(U34),U$11,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AQ34" s="87"/>
+      <c r="AR34" s="76">
+        <v>2</v>
+      </c>
+      <c r="AS34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT34" s="76">
+        <v>3</v>
+      </c>
+      <c r="AU34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV34" s="84"/>
+      <c r="AW34" s="76">
+        <v>3</v>
+      </c>
+      <c r="AX34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ34" s="76">
+        <v>5</v>
+      </c>
+      <c r="BA34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB34" s="85"/>
+      <c r="BC34" s="71">
+        <v>5</v>
+      </c>
+      <c r="BD34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE34" s="76">
+        <v>6</v>
+      </c>
+      <c r="BF34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG34" s="84"/>
+      <c r="BH34" s="76">
+        <v>6</v>
+      </c>
+      <c r="BI34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK34" s="76">
+        <v>1</v>
+      </c>
+      <c r="BL34" s="84"/>
+      <c r="BM34" s="76">
+        <v>1</v>
+      </c>
+      <c r="BN34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO34" s="76">
+        <v>2</v>
+      </c>
+      <c r="BP34" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ34" s="88"/>
+    </row>
+    <row r="35" spans="2:69" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="G35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="71"/>
+      <c r="S35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="W35" s="71">
+        <f>IF(LEN(B35),B$12,"")</f>
+        <v>2</v>
+      </c>
+      <c r="X35" s="76" t="str">
+        <f t="shared" ref="X35" si="162">IF(LEN(C35),C$12,"")</f>
+        <v/>
+      </c>
+      <c r="Y35" s="76">
+        <f t="shared" ref="Y35" si="163">IF(LEN(D35),D$12,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Z35" s="76" t="str">
+        <f t="shared" ref="Z35" si="164">IF(LEN(E35),E$12,"")</f>
+        <v/>
+      </c>
+      <c r="AA35" s="76" t="str">
+        <f t="shared" ref="AA35" si="165">IF(LEN(F35),F$12,"")</f>
+        <v/>
+      </c>
+      <c r="AB35" s="76">
+        <f t="shared" ref="AB35" si="166">IF(LEN(G35),G$12,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AC35" s="76" t="str">
+        <f t="shared" ref="AC35" si="167">IF(LEN(H35),H$12,"")</f>
+        <v/>
+      </c>
+      <c r="AD35" s="76">
+        <f t="shared" ref="AD35" si="168">IF(LEN(I35),I$12,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AE35" s="76" t="str">
+        <f t="shared" ref="AE35" si="169">IF(LEN(J35),J$12,"")</f>
+        <v/>
+      </c>
+      <c r="AF35" s="76" t="str">
+        <f t="shared" ref="AF35" si="170">IF(LEN(K35),K$12,"")</f>
+        <v/>
+      </c>
+      <c r="AG35" s="76">
+        <f t="shared" ref="AG35" si="171">IF(LEN(L35),L$12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AH35" s="76" t="str">
+        <f t="shared" ref="AH35" si="172">IF(LEN(M35),M$12,"")</f>
+        <v/>
+      </c>
+      <c r="AI35" s="76">
+        <f t="shared" ref="AI35" si="173">IF(LEN(N35),N$12,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AJ35" s="76" t="str">
+        <f t="shared" ref="AJ35" si="174">IF(LEN(O35),O$12,"")</f>
+        <v/>
+      </c>
+      <c r="AK35" s="76">
+        <f>IF(LEN(P35),P$12,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AL35" s="76" t="str">
+        <f>IF(LEN(Q35),Q$12,"")</f>
+        <v/>
+      </c>
+      <c r="AM35" s="76" t="str">
+        <f>IF(LEN(R35),R$12,"")</f>
+        <v/>
+      </c>
+      <c r="AN35" s="76">
+        <f>IF(LEN(S35),S$12,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AO35" s="76" t="str">
+        <f>IF(LEN(T35),T$12,"")</f>
+        <v/>
+      </c>
+      <c r="AP35" s="76">
+        <f t="shared" ref="AP35" si="175">IF(LEN(U35),U$12,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AQ35" s="87"/>
+      <c r="AR35" s="76">
+        <v>6</v>
+      </c>
+      <c r="AS35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU35" s="76">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="84"/>
+      <c r="AW35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX35" s="76">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ35" s="76">
+        <v>2</v>
+      </c>
+      <c r="BA35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB35" s="85"/>
+      <c r="BC35" s="71">
+        <v>2</v>
+      </c>
+      <c r="BD35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE35" s="76">
+        <v>3</v>
+      </c>
+      <c r="BF35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG35" s="84"/>
+      <c r="BH35" s="76">
+        <v>3</v>
+      </c>
+      <c r="BI35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK35" s="76">
+        <v>5</v>
+      </c>
+      <c r="BL35" s="84"/>
+      <c r="BM35" s="76">
+        <v>5</v>
+      </c>
+      <c r="BN35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO35" s="76">
+        <v>6</v>
+      </c>
+      <c r="BP35" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ35" s="88"/>
+    </row>
+    <row r="36" spans="2:69" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="W36" s="71">
+        <f>IF(LEN(B36),B$13,"")</f>
+        <v>6</v>
+      </c>
+      <c r="X36" s="76" t="str">
+        <f t="shared" ref="X36" si="176">IF(LEN(C36),C$13,"")</f>
+        <v/>
+      </c>
+      <c r="Y36" s="76" t="str">
+        <f t="shared" ref="Y36" si="177">IF(LEN(D36),D$13,"")</f>
+        <v/>
+      </c>
+      <c r="Z36" s="76">
+        <f t="shared" ref="Z36" si="178">IF(LEN(E36),E$13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="76" t="str">
+        <f t="shared" ref="AA36" si="179">IF(LEN(F36),F$13,"")</f>
+        <v/>
+      </c>
+      <c r="AB36" s="76">
+        <f t="shared" ref="AB36" si="180">IF(LEN(G36),G$13,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AC36" s="76" t="str">
+        <f t="shared" ref="AC36" si="181">IF(LEN(H36),H$13,"")</f>
+        <v/>
+      </c>
+      <c r="AD36" s="76">
+        <f t="shared" ref="AD36" si="182">IF(LEN(I36),I$13,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AE36" s="76" t="str">
+        <f t="shared" ref="AE36" si="183">IF(LEN(J36),J$13,"")</f>
+        <v/>
+      </c>
+      <c r="AF36" s="76" t="str">
+        <f t="shared" ref="AF36" si="184">IF(LEN(K36),K$13,"")</f>
+        <v/>
+      </c>
+      <c r="AG36" s="76">
+        <f t="shared" ref="AG36" si="185">IF(LEN(L36),L$13,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AH36" s="76" t="str">
+        <f t="shared" ref="AH36" si="186">IF(LEN(M36),M$13,"")</f>
+        <v/>
+      </c>
+      <c r="AI36" s="76">
+        <f t="shared" ref="AI36" si="187">IF(LEN(N36),N$13,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AJ36" s="76" t="str">
+        <f t="shared" ref="AJ36" si="188">IF(LEN(O36),O$13,"")</f>
+        <v/>
+      </c>
+      <c r="AK36" s="76" t="str">
+        <f t="shared" ref="AK36" si="189">IF(LEN(P36),P$13,"")</f>
+        <v/>
+      </c>
+      <c r="AL36" s="76">
+        <f t="shared" ref="AL36" si="190">IF(LEN(Q36),Q$13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AM36" s="76" t="str">
+        <f t="shared" ref="AM36" si="191">IF(LEN(R36),R$13,"")</f>
+        <v/>
+      </c>
+      <c r="AN36" s="76">
+        <f t="shared" ref="AN36" si="192">IF(LEN(S36),S$13,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AO36" s="76" t="str">
+        <f t="shared" ref="AO36" si="193">IF(LEN(T36),T$13,"")</f>
+        <v/>
+      </c>
+      <c r="AP36" s="76">
+        <f t="shared" ref="AP36" si="194">IF(LEN(U36),U$13,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AQ36" s="87"/>
+      <c r="AR36" s="76">
+        <v>3</v>
+      </c>
+      <c r="AS36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU36" s="76">
+        <v>5</v>
+      </c>
+      <c r="AV36" s="84"/>
+      <c r="AW36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX36" s="76">
+        <v>5</v>
+      </c>
+      <c r="AY36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ36" s="76">
+        <v>6</v>
+      </c>
+      <c r="BA36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB36" s="85"/>
+      <c r="BC36" s="71">
+        <v>6</v>
+      </c>
+      <c r="BD36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF36" s="76">
+        <v>1</v>
+      </c>
+      <c r="BG36" s="84"/>
+      <c r="BH36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI36" s="76">
+        <v>1</v>
+      </c>
+      <c r="BJ36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK36" s="76">
+        <v>2</v>
+      </c>
+      <c r="BL36" s="84"/>
+      <c r="BM36" s="76">
+        <v>2</v>
+      </c>
+      <c r="BN36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO36" s="76">
+        <v>3</v>
+      </c>
+      <c r="BP36" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ36" s="88"/>
+    </row>
+    <row r="37" spans="2:69" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="U37" s="71"/>
+      <c r="W37" s="71">
+        <f>IF(LEN(B37),B$14,"")</f>
+        <v>3</v>
+      </c>
+      <c r="X37" s="76" t="str">
+        <f t="shared" ref="X37" si="195">IF(LEN(C37),C$14,"")</f>
+        <v/>
+      </c>
+      <c r="Y37" s="76" t="str">
+        <f t="shared" ref="Y37" si="196">IF(LEN(D37),D$14,"")</f>
+        <v/>
+      </c>
+      <c r="Z37" s="76">
+        <f t="shared" ref="Z37" si="197">IF(LEN(E37),E$14,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AA37" s="76" t="str">
+        <f t="shared" ref="AA37" si="198">IF(LEN(F37),F$14,"")</f>
+        <v/>
+      </c>
+      <c r="AB37" s="76">
+        <f t="shared" ref="AB37" si="199">IF(LEN(G37),G$14,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AC37" s="76" t="str">
+        <f t="shared" ref="AC37" si="200">IF(LEN(H37),H$14,"")</f>
+        <v/>
+      </c>
+      <c r="AD37" s="76" t="str">
+        <f t="shared" ref="AD37" si="201">IF(LEN(I37),I$14,"")</f>
+        <v/>
+      </c>
+      <c r="AE37" s="76">
+        <f t="shared" ref="AE37" si="202">IF(LEN(J37),J$14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AF37" s="76" t="str">
+        <f t="shared" ref="AF37" si="203">IF(LEN(K37),K$14,"")</f>
+        <v/>
+      </c>
+      <c r="AG37" s="76">
+        <f t="shared" ref="AG37" si="204">IF(LEN(L37),L$14,"")</f>
+        <v>2</v>
+      </c>
+      <c r="AH37" s="76" t="str">
+        <f t="shared" ref="AH37" si="205">IF(LEN(M37),M$14,"")</f>
+        <v/>
+      </c>
+      <c r="AI37" s="76">
+        <f t="shared" ref="AI37" si="206">IF(LEN(N37),N$14,"")</f>
+        <v>3</v>
+      </c>
+      <c r="AJ37" s="76" t="str">
+        <f t="shared" ref="AJ37" si="207">IF(LEN(O37),O$14,"")</f>
+        <v/>
+      </c>
+      <c r="AK37" s="76" t="str">
+        <f t="shared" ref="AK37" si="208">IF(LEN(P37),P$14,"")</f>
+        <v/>
+      </c>
+      <c r="AL37" s="76">
+        <f t="shared" ref="AL37" si="209">IF(LEN(Q37),Q$14,"")</f>
+        <v>5</v>
+      </c>
+      <c r="AM37" s="76" t="str">
+        <f t="shared" ref="AM37" si="210">IF(LEN(R37),R$14,"")</f>
+        <v/>
+      </c>
+      <c r="AN37" s="76">
+        <f t="shared" ref="AN37" si="211">IF(LEN(S37),S$14,"")</f>
+        <v>6</v>
+      </c>
+      <c r="AO37" s="76" t="str">
+        <f t="shared" ref="AO37" si="212">IF(LEN(T37),T$14,"")</f>
+        <v/>
+      </c>
+      <c r="AP37" s="76" t="str">
+        <f t="shared" ref="AP37" si="213">IF(LEN(U37),U$14,"")</f>
+        <v/>
+      </c>
+      <c r="AQ37" s="87"/>
+      <c r="AR37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS37" s="76">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU37" s="76">
+        <v>2</v>
+      </c>
+      <c r="AV37" s="84"/>
+      <c r="AW37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX37" s="76">
+        <v>2</v>
+      </c>
+      <c r="AY37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ37" s="76">
+        <v>3</v>
+      </c>
+      <c r="BA37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB37" s="85"/>
+      <c r="BC37" s="71">
+        <v>3</v>
+      </c>
+      <c r="BD37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF37" s="76">
+        <v>5</v>
+      </c>
+      <c r="BG37" s="84"/>
+      <c r="BH37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI37" s="76">
+        <v>5</v>
+      </c>
+      <c r="BJ37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK37" s="76">
+        <v>6</v>
+      </c>
+      <c r="BL37" s="84"/>
+      <c r="BM37" s="76">
+        <v>6</v>
+      </c>
+      <c r="BN37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO37" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP37" s="76">
+        <v>1</v>
+      </c>
+      <c r="BQ37" s="88"/>
+    </row>
+    <row r="38" spans="2:69" s="80" customFormat="1" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="B38" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="T38" s="79"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="81"/>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="81"/>
+      <c r="AD38" s="81"/>
+      <c r="AE38" s="81"/>
+      <c r="AF38" s="81"/>
+      <c r="AG38" s="81"/>
+      <c r="AH38" s="81"/>
+      <c r="AI38" s="81"/>
+      <c r="AJ38" s="81"/>
+      <c r="AK38" s="81"/>
+      <c r="AL38" s="81"/>
+      <c r="AM38" s="81"/>
+      <c r="AN38" s="81"/>
+      <c r="AO38" s="81"/>
+      <c r="AP38" s="81"/>
+      <c r="AQ38" s="87"/>
+      <c r="AR38" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS38" s="81"/>
+      <c r="AT38" s="81"/>
+      <c r="AU38" s="81"/>
+      <c r="AV38" s="84"/>
+      <c r="AW38" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX38" s="81"/>
+      <c r="AY38" s="81"/>
+      <c r="AZ38" s="81"/>
+      <c r="BA38" s="81"/>
+      <c r="BB38" s="86"/>
+      <c r="BC38" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD38" s="81"/>
+      <c r="BE38" s="81"/>
+      <c r="BF38" s="81"/>
+      <c r="BG38" s="84"/>
+      <c r="BH38" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI38" s="81"/>
+      <c r="BJ38" s="81"/>
+      <c r="BK38" s="81"/>
+      <c r="BL38" s="84"/>
+      <c r="BM38" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN38" s="81"/>
+      <c r="BO38" s="81"/>
+      <c r="BP38" s="81"/>
+      <c r="BQ38" s="88"/>
+    </row>
+    <row r="39" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W40" s="71" t="str">
+        <f>IF(LEN(B40),B$12,"")</f>
+        <v/>
+      </c>
+      <c r="X40" s="76" t="str">
+        <f t="shared" ref="X40" si="214">IF(LEN(C40),C$12,"")</f>
+        <v/>
+      </c>
+      <c r="Y40" s="76" t="str">
+        <f t="shared" ref="Y40" si="215">IF(LEN(D40),D$12,"")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="76" t="str">
+        <f t="shared" ref="Z40" si="216">IF(LEN(E40),E$12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:69" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W41" s="71">
+        <v>2</v>
+      </c>
+      <c r="X41" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y41" s="76">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="W42" s="71">
+        <v>6</v>
+      </c>
+      <c r="X42" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y42" s="76">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="W43" s="71">
+        <v>3</v>
+      </c>
+      <c r="X43" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y43" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z43" s="76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="W45" s="76">
+        <v>1</v>
+      </c>
+      <c r="X45" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y45" s="76">
+        <v>2</v>
+      </c>
+      <c r="Z45" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="W46" s="76">
+        <v>5</v>
+      </c>
+      <c r="X46" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y46" s="76">
+        <v>6</v>
+      </c>
+      <c r="Z46" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:69" x14ac:dyDescent="0.3">
+      <c r="W47" s="76">
+        <v>2</v>
+      </c>
+      <c r="X47" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y47" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z47" s="76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="23:26" x14ac:dyDescent="0.3">
+      <c r="W49" s="67">
+        <v>5</v>
+      </c>
+      <c r="X49" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y49" s="67">
+        <v>6</v>
+      </c>
+      <c r="Z49" s="67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="23:26" x14ac:dyDescent="0.3">
+      <c r="W50" s="67">
+        <v>2</v>
+      </c>
+      <c r="X50" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y50" s="67">
+        <v>3</v>
+      </c>
+      <c r="Z50" s="67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="23:26" x14ac:dyDescent="0.3">
+      <c r="W51" s="67">
+        <v>6</v>
+      </c>
+      <c r="X51" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y51" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z51" s="67">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="168" windowWidth="12960" windowHeight="10164" activeTab="6"/>
+    <workbookView xWindow="10272" yWindow="168" windowWidth="12960" windowHeight="10164" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
-    <sheet name="Scales" sheetId="2" r:id="rId2"/>
-    <sheet name="Alt. Tunings" sheetId="3" r:id="rId3"/>
-    <sheet name="3rds Stuff" sheetId="4" r:id="rId4"/>
-    <sheet name="3rds Modes" sheetId="5" r:id="rId5"/>
-    <sheet name="Techniques" sheetId="6" r:id="rId6"/>
-    <sheet name="Pentatonic" sheetId="7" r:id="rId7"/>
+    <sheet name="Keys" sheetId="2" r:id="rId2"/>
+    <sheet name="Chords" sheetId="8" r:id="rId3"/>
+    <sheet name="Alt. Tunings" sheetId="3" r:id="rId4"/>
+    <sheet name="3rds Stuff" sheetId="4" r:id="rId5"/>
+    <sheet name="3rds Modes" sheetId="5" r:id="rId6"/>
+    <sheet name="Techniques" sheetId="6" r:id="rId7"/>
+    <sheet name="Pentatonic" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="fingerboard">Scales!$B$4:$T$9</definedName>
+    <definedName name="fingerboard">Keys!$B$4:$T$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="92">
   <si>
     <t>E</t>
   </si>
@@ -232,9 +234,6 @@
     <t>plucked, four-finger</t>
   </si>
   <si>
-    <t>chords</t>
-  </si>
-  <si>
     <t>mode scales</t>
   </si>
   <si>
@@ -276,12 +275,39 @@
   <si>
     <t>1 - 2 - 3 - 5 - 6</t>
   </si>
+  <si>
+    <t>triads</t>
+  </si>
+  <si>
+    <t>quads</t>
+  </si>
+  <si>
+    <t>Basic Triads</t>
+  </si>
+  <si>
+    <t>Major Chords</t>
+  </si>
+  <si>
+    <t>even/odd number chunks</t>
+  </si>
+  <si>
+    <t>scales</t>
+  </si>
+  <si>
+    <t>sweeping</t>
+  </si>
+  <si>
+    <t>3-octave (all modes)</t>
+  </si>
+  <si>
+    <t>1-octave (all modes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +359,13 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -835,7 +868,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
@@ -872,7 +905,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,6 +1194,18 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="1st" xfId="12"/>
@@ -1178,17 +1223,7 @@
     <cellStyle name="Nut" xfId="13"/>
     <cellStyle name="White" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1208,7 +1243,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="20" fmlaLink="$W$1" fmlaRange="$V$2:$V$13" sel="6" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="20" fmlaLink="$W$1" fmlaRange="$V$2:$V$13" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,40 +1596,40 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="67"/>
       <c r="I1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="67"/>
       <c r="K1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L1" s="67"/>
       <c r="M1" s="67"/>
       <c r="N1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O1" s="67"/>
       <c r="P1" s="67"/>
       <c r="Q1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T1" s="67"/>
       <c r="U1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
@@ -2419,7 +2454,7 @@
   <dimension ref="B1:AJ13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2431,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
       <c r="W1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
@@ -2529,11 +2564,11 @@
       </c>
       <c r="E4" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="G4" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -2549,11 +2584,11 @@
       </c>
       <c r="J4" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K4" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="L4" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,2)</f>
@@ -2577,11 +2612,11 @@
       </c>
       <c r="Q4" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R4" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="S4" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -2638,11 +2673,11 @@
       </c>
       <c r="C5" s="31" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="E5" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,2)</f>
@@ -2666,11 +2701,11 @@
       </c>
       <c r="J5" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="L5" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -2686,11 +2721,11 @@
       </c>
       <c r="O5" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P5" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="Q5" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,2)</f>
@@ -2751,11 +2786,11 @@
     <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="32" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="D6" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -2771,11 +2806,11 @@
       </c>
       <c r="G6" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="I6" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,2)</f>
@@ -2799,11 +2834,11 @@
       </c>
       <c r="N6" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O6" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="P6" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -2819,11 +2854,11 @@
       </c>
       <c r="S6" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="T6" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="V6" s="28" t="s">
         <v>8</v>
@@ -2888,11 +2923,11 @@
       </c>
       <c r="G7" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H7" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="I7" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -2908,11 +2943,11 @@
       </c>
       <c r="L7" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M7" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="N7" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,2)</f>
@@ -2936,11 +2971,11 @@
       </c>
       <c r="S7" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="T7" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="V7" s="28" t="s">
         <v>3</v>
@@ -2998,11 +3033,11 @@
       </c>
       <c r="E8" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F8" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="G8" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,2)</f>
@@ -3026,11 +3061,11 @@
       </c>
       <c r="L8" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M8" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="N8" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -3046,11 +3081,11 @@
       </c>
       <c r="Q8" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R8" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="S8" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,2)</f>
@@ -3118,11 +3153,11 @@
       </c>
       <c r="E9" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F9" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="G9" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -3138,11 +3173,11 @@
       </c>
       <c r="J9" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,0)</f>
-        <v>C</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K9" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,1)</f>
-        <v xml:space="preserve"> </v>
+        <v>C#</v>
       </c>
       <c r="L9" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,2)</f>
@@ -3166,11 +3201,11 @@
       </c>
       <c r="Q9" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,7)</f>
-        <v>G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R9" s="33" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,8)</f>
-        <v xml:space="preserve"> </v>
+        <v>G#</v>
       </c>
       <c r="S9" s="34" t="str">
         <f ca="1">OFFSET($W$2,$W$1-1,9)</f>
@@ -3426,6 +3461,367 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="3" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B2" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
+        <v>3</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="V4" s="3">
+        <v>3</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="103">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="V6" s="3">
+        <v>5</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="3"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="103">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="V9" s="103">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ43"/>
   <sheetViews>
@@ -5221,7 +5617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:CS163"/>
@@ -5938,32 +6334,32 @@
       <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="AI9" s="68" t="s">
+      <c r="AI9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="68"/>
-      <c r="AL9" s="68"/>
-      <c r="AM9" s="68"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="68"/>
-      <c r="AU9" s="68"/>
-      <c r="BD9" s="68" t="s">
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="102"/>
+      <c r="AO9" s="102"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="102"/>
+      <c r="AR9" s="102"/>
+      <c r="AS9" s="102"/>
+      <c r="AT9" s="102"/>
+      <c r="AU9" s="102"/>
+      <c r="BD9" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="68"/>
-      <c r="BG9" s="68"/>
-      <c r="BH9" s="68"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="68"/>
-      <c r="BK9" s="68"/>
-      <c r="BL9" s="68"/>
+      <c r="BE9" s="102"/>
+      <c r="BF9" s="102"/>
+      <c r="BG9" s="102"/>
+      <c r="BH9" s="102"/>
+      <c r="BI9" s="102"/>
+      <c r="BJ9" s="102"/>
+      <c r="BK9" s="102"/>
+      <c r="BL9" s="102"/>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E10" s="38">
@@ -8769,7 +9165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV31"/>
   <sheetViews>
@@ -9433,12 +9829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9471,17 +9867,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9496,161 +9892,191 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
+      <c r="B10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
+      <c r="B11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>62</v>
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>63</v>
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
+      <c r="B16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>71</v>
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>77</v>
+      <c r="A20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>72</v>
+      <c r="A21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
+      <c r="B23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>65</v>
+      <c r="B24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>67</v>
+      <c r="B26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>52</v>
+      <c r="B32" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -9658,13 +10084,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BQ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA8" sqref="BA8:BA9"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9678,52 +10104,52 @@
   <sheetData>
     <row r="1" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B1" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>79</v>
-      </c>
       <c r="I1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W1" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="67" t="s">
-        <v>79</v>
-      </c>
       <c r="AD1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP1" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:69" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -10789,7 +11215,7 @@
     </row>
     <row r="15" spans="2:69" x14ac:dyDescent="0.3">
       <c r="W15" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AO15" s="56"/>
       <c r="AP15" s="56"/>
@@ -10915,55 +11341,55 @@
       </c>
       <c r="AQ16" s="87"/>
       <c r="AR16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS16" s="76">
         <v>5</v>
       </c>
       <c r="AT16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU16" s="76">
         <v>6</v>
       </c>
       <c r="AV16" s="84"/>
       <c r="AW16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX16" s="76">
         <v>6</v>
       </c>
       <c r="AY16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ16" s="76">
         <v>7</v>
       </c>
       <c r="BA16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB16" s="84"/>
       <c r="BC16" s="76">
         <v>7</v>
       </c>
       <c r="BD16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF16" s="76">
         <v>2</v>
       </c>
       <c r="BG16" s="84"/>
       <c r="BH16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI16" s="76">
         <v>2</v>
       </c>
       <c r="BJ16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK16" s="76">
         <v>3</v>
@@ -10973,10 +11399,10 @@
         <v>3</v>
       </c>
       <c r="BN16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO16" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP16" s="76">
         <v>5</v>
@@ -11102,55 +11528,55 @@
       </c>
       <c r="AQ17" s="87"/>
       <c r="AR17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS17" s="76">
         <v>2</v>
       </c>
       <c r="AT17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU17" s="76">
         <v>3</v>
       </c>
       <c r="AV17" s="84"/>
       <c r="AW17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX17" s="76">
         <v>3</v>
       </c>
       <c r="AY17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA17" s="76">
         <v>5</v>
       </c>
       <c r="BB17" s="84"/>
       <c r="BC17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BD17" s="76">
         <v>5</v>
       </c>
       <c r="BE17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF17" s="76">
         <v>6</v>
       </c>
       <c r="BG17" s="84"/>
       <c r="BH17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI17" s="76">
         <v>6</v>
       </c>
       <c r="BJ17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK17" s="76">
         <v>7</v>
@@ -11160,10 +11586,10 @@
         <v>7</v>
       </c>
       <c r="BN17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO17" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP17" s="76">
         <v>2</v>
@@ -11294,52 +11720,52 @@
         <v>6</v>
       </c>
       <c r="AS18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT18" s="76">
         <v>7</v>
       </c>
       <c r="AU18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV18" s="84"/>
       <c r="AW18" s="76">
         <v>7</v>
       </c>
       <c r="AX18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AY18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ18" s="76">
         <v>2</v>
       </c>
       <c r="BA18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB18" s="84"/>
       <c r="BC18" s="76">
         <v>2</v>
       </c>
       <c r="BD18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE18" s="76">
         <v>3</v>
       </c>
       <c r="BF18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG18" s="84"/>
       <c r="BH18" s="76">
         <v>3</v>
       </c>
       <c r="BI18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BJ18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK18" s="76">
         <v>5</v>
@@ -11349,13 +11775,13 @@
         <v>5</v>
       </c>
       <c r="BN18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO18" s="76">
         <v>6</v>
       </c>
       <c r="BP18" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ18" s="88"/>
     </row>
@@ -11483,52 +11909,52 @@
         <v>3</v>
       </c>
       <c r="AS19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU19" s="76">
         <v>5</v>
       </c>
       <c r="AV19" s="84"/>
       <c r="AW19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX19" s="76">
         <v>5</v>
       </c>
       <c r="AY19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ19" s="76">
         <v>6</v>
       </c>
       <c r="BA19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB19" s="84"/>
       <c r="BC19" s="76">
         <v>6</v>
       </c>
       <c r="BD19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE19" s="76">
         <v>7</v>
       </c>
       <c r="BF19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG19" s="84"/>
       <c r="BH19" s="76">
         <v>7</v>
       </c>
       <c r="BI19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BJ19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK19" s="76">
         <v>2</v>
@@ -11538,13 +11964,13 @@
         <v>2</v>
       </c>
       <c r="BN19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO19" s="76">
         <v>3</v>
       </c>
       <c r="BP19" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ19" s="88"/>
     </row>
@@ -11672,52 +12098,52 @@
         <v>7</v>
       </c>
       <c r="AS20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU20" s="76">
         <v>2</v>
       </c>
       <c r="AV20" s="84"/>
       <c r="AW20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX20" s="76">
         <v>2</v>
       </c>
       <c r="AY20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ20" s="76">
         <v>3</v>
       </c>
       <c r="BA20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB20" s="84"/>
       <c r="BC20" s="76">
         <v>3</v>
       </c>
       <c r="BD20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF20" s="76">
         <v>5</v>
       </c>
       <c r="BG20" s="84"/>
       <c r="BH20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI20" s="76">
         <v>5</v>
       </c>
       <c r="BJ20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK20" s="76">
         <v>6</v>
@@ -11727,13 +12153,13 @@
         <v>6</v>
       </c>
       <c r="BN20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO20" s="76">
         <v>7</v>
       </c>
       <c r="BP20" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ20" s="88"/>
     </row>
@@ -11858,55 +12284,55 @@
       </c>
       <c r="AQ21" s="87"/>
       <c r="AR21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS21" s="76">
         <v>5</v>
       </c>
       <c r="AT21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU21" s="76">
         <v>6</v>
       </c>
       <c r="AV21" s="84"/>
       <c r="AW21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX21" s="76">
         <v>6</v>
       </c>
       <c r="AY21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ21" s="76">
         <v>7</v>
       </c>
       <c r="BA21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB21" s="84"/>
       <c r="BC21" s="76">
         <v>7</v>
       </c>
       <c r="BD21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF21" s="76">
         <v>2</v>
       </c>
       <c r="BG21" s="84"/>
       <c r="BH21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI21" s="76">
         <v>2</v>
       </c>
       <c r="BJ21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK21" s="76">
         <v>3</v>
@@ -11916,10 +12342,10 @@
         <v>3</v>
       </c>
       <c r="BN21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO21" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP21" s="76">
         <v>5</v>
@@ -12046,7 +12472,7 @@
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
       <c r="W23" s="82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X23" s="76"/>
       <c r="Y23" s="76"/>
@@ -12191,55 +12617,55 @@
       </c>
       <c r="AQ24" s="87"/>
       <c r="AR24" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS24" s="76">
         <v>4</v>
       </c>
       <c r="AT24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU24" s="76">
         <v>5</v>
       </c>
       <c r="AV24" s="84"/>
       <c r="AW24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX24" s="76">
         <v>5</v>
       </c>
       <c r="AY24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ24" s="76">
         <v>6</v>
       </c>
       <c r="BA24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB24" s="84"/>
       <c r="BC24" s="76">
         <v>6</v>
       </c>
       <c r="BD24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF24" s="76">
         <v>1</v>
       </c>
       <c r="BG24" s="84"/>
       <c r="BH24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI24" s="76">
         <v>1</v>
       </c>
       <c r="BJ24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK24" s="76">
         <v>2</v>
@@ -12249,10 +12675,10 @@
         <v>2</v>
       </c>
       <c r="BN24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO24" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP24" s="76">
         <v>4</v>
@@ -12377,55 +12803,55 @@
       </c>
       <c r="AQ25" s="87"/>
       <c r="AR25" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS25" s="76">
         <v>1</v>
       </c>
       <c r="AT25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU25" s="76">
         <v>2</v>
       </c>
       <c r="AV25" s="84"/>
       <c r="AW25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX25" s="76">
         <v>2</v>
       </c>
       <c r="AY25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA25" s="76">
         <v>4</v>
       </c>
       <c r="BB25" s="84"/>
       <c r="BC25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BD25" s="76">
         <v>4</v>
       </c>
       <c r="BE25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF25" s="76">
         <v>5</v>
       </c>
       <c r="BG25" s="84"/>
       <c r="BH25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI25" s="76">
         <v>5</v>
       </c>
       <c r="BJ25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK25" s="76">
         <v>6</v>
@@ -12435,10 +12861,10 @@
         <v>6</v>
       </c>
       <c r="BN25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO25" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP25" s="76">
         <v>1</v>
@@ -12569,52 +12995,52 @@
         <v>5</v>
       </c>
       <c r="AS26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT26" s="76">
         <v>6</v>
       </c>
       <c r="AU26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV26" s="84"/>
       <c r="AW26" s="76">
         <v>6</v>
       </c>
       <c r="AX26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AY26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ26" s="76">
         <v>1</v>
       </c>
       <c r="BA26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB26" s="84"/>
       <c r="BC26" s="76">
         <v>1</v>
       </c>
       <c r="BD26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE26" s="76">
         <v>2</v>
       </c>
       <c r="BF26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG26" s="84"/>
       <c r="BH26" s="76">
         <v>2</v>
       </c>
       <c r="BI26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BJ26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK26" s="76">
         <v>4</v>
@@ -12624,13 +13050,13 @@
         <v>4</v>
       </c>
       <c r="BN26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO26" s="76">
         <v>5</v>
       </c>
       <c r="BP26" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ26" s="88"/>
     </row>
@@ -12758,52 +13184,52 @@
         <v>2</v>
       </c>
       <c r="AS27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU27" s="76">
         <v>4</v>
       </c>
       <c r="AV27" s="84"/>
       <c r="AW27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX27" s="76">
         <v>4</v>
       </c>
       <c r="AY27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ27" s="76">
         <v>5</v>
       </c>
       <c r="BA27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB27" s="84"/>
       <c r="BC27" s="76">
         <v>5</v>
       </c>
       <c r="BD27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE27" s="76">
         <v>6</v>
       </c>
       <c r="BF27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG27" s="84"/>
       <c r="BH27" s="76">
         <v>6</v>
       </c>
       <c r="BI27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BJ27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK27" s="76">
         <v>1</v>
@@ -12813,13 +13239,13 @@
         <v>1</v>
       </c>
       <c r="BN27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO27" s="76">
         <v>2</v>
       </c>
       <c r="BP27" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ27" s="88"/>
     </row>
@@ -12944,52 +13370,52 @@
         <v>6</v>
       </c>
       <c r="AS28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU28" s="76">
         <v>1</v>
       </c>
       <c r="AV28" s="84"/>
       <c r="AW28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX28" s="76">
         <v>1</v>
       </c>
       <c r="AY28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ28" s="76">
         <v>2</v>
       </c>
       <c r="BA28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB28" s="84"/>
       <c r="BC28" s="76">
         <v>2</v>
       </c>
       <c r="BD28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF28" s="76">
         <v>4</v>
       </c>
       <c r="BG28" s="84"/>
       <c r="BH28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI28" s="76">
         <v>4</v>
       </c>
       <c r="BJ28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK28" s="76">
         <v>5</v>
@@ -12999,13 +13425,13 @@
         <v>5</v>
       </c>
       <c r="BN28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO28" s="76">
         <v>6</v>
       </c>
       <c r="BP28" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ28" s="88"/>
     </row>
@@ -13127,55 +13553,55 @@
       </c>
       <c r="AQ29" s="87"/>
       <c r="AR29" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS29" s="76">
         <v>4</v>
       </c>
       <c r="AT29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU29" s="76">
         <v>5</v>
       </c>
       <c r="AV29" s="84"/>
       <c r="AW29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX29" s="76">
         <v>5</v>
       </c>
       <c r="AY29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ29" s="76">
         <v>6</v>
       </c>
       <c r="BA29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB29" s="84"/>
       <c r="BC29" s="76">
         <v>6</v>
       </c>
       <c r="BD29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF29" s="76">
         <v>1</v>
       </c>
       <c r="BG29" s="84"/>
       <c r="BH29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI29" s="76">
         <v>1</v>
       </c>
       <c r="BJ29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK29" s="76">
         <v>2</v>
@@ -13185,10 +13611,10 @@
         <v>2</v>
       </c>
       <c r="BN29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO29" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP29" s="76">
         <v>4</v>
@@ -13306,7 +13732,7 @@
       <c r="T31" s="70"/>
       <c r="U31" s="70"/>
       <c r="W31" s="83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X31" s="76"/>
       <c r="Y31" s="76"/>
@@ -13451,55 +13877,55 @@
       </c>
       <c r="AQ32" s="87"/>
       <c r="AR32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS32" s="76">
         <v>1</v>
       </c>
       <c r="AT32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU32" s="76">
         <v>2</v>
       </c>
       <c r="AV32" s="84"/>
       <c r="AW32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX32" s="76">
         <v>2</v>
       </c>
       <c r="AY32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ32" s="76">
         <v>3</v>
       </c>
       <c r="BA32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB32" s="85"/>
       <c r="BC32" s="71">
         <v>3</v>
       </c>
       <c r="BD32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF32" s="76">
         <v>5</v>
       </c>
       <c r="BG32" s="84"/>
       <c r="BH32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI32" s="76">
         <v>5</v>
       </c>
       <c r="BJ32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK32" s="76">
         <v>6</v>
@@ -13509,10 +13935,10 @@
         <v>6</v>
       </c>
       <c r="BN32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO32" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP32" s="76">
         <v>1</v>
@@ -13633,55 +14059,55 @@
       </c>
       <c r="AQ33" s="87"/>
       <c r="AR33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS33" s="76">
         <v>5</v>
       </c>
       <c r="AT33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU33" s="76">
         <v>6</v>
       </c>
       <c r="AV33" s="84"/>
       <c r="AW33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX33" s="76">
         <v>6</v>
       </c>
       <c r="AY33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA33" s="76">
         <v>1</v>
       </c>
       <c r="BB33" s="85"/>
       <c r="BC33" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BD33" s="76">
         <v>1</v>
       </c>
       <c r="BE33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF33" s="76">
         <v>2</v>
       </c>
       <c r="BG33" s="84"/>
       <c r="BH33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI33" s="76">
         <v>2</v>
       </c>
       <c r="BJ33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK33" s="76">
         <v>3</v>
@@ -13691,10 +14117,10 @@
         <v>3</v>
       </c>
       <c r="BN33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO33" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP33" s="76">
         <v>5</v>
@@ -13820,52 +14246,52 @@
         <v>2</v>
       </c>
       <c r="AS34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT34" s="76">
         <v>3</v>
       </c>
       <c r="AU34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV34" s="84"/>
       <c r="AW34" s="76">
         <v>3</v>
       </c>
       <c r="AX34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AY34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ34" s="76">
         <v>5</v>
       </c>
       <c r="BA34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB34" s="85"/>
       <c r="BC34" s="71">
         <v>5</v>
       </c>
       <c r="BD34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE34" s="76">
         <v>6</v>
       </c>
       <c r="BF34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG34" s="84"/>
       <c r="BH34" s="76">
         <v>6</v>
       </c>
       <c r="BI34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BJ34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK34" s="76">
         <v>1</v>
@@ -13875,13 +14301,13 @@
         <v>1</v>
       </c>
       <c r="BN34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO34" s="76">
         <v>2</v>
       </c>
       <c r="BP34" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ34" s="88"/>
     </row>
@@ -14004,52 +14430,52 @@
         <v>6</v>
       </c>
       <c r="AS35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU35" s="76">
         <v>1</v>
       </c>
       <c r="AV35" s="84"/>
       <c r="AW35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX35" s="76">
         <v>1</v>
       </c>
       <c r="AY35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ35" s="76">
         <v>2</v>
       </c>
       <c r="BA35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB35" s="85"/>
       <c r="BC35" s="71">
         <v>2</v>
       </c>
       <c r="BD35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE35" s="76">
         <v>3</v>
       </c>
       <c r="BF35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG35" s="84"/>
       <c r="BH35" s="76">
         <v>3</v>
       </c>
       <c r="BI35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BJ35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK35" s="76">
         <v>5</v>
@@ -14059,13 +14485,13 @@
         <v>5</v>
       </c>
       <c r="BN35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO35" s="76">
         <v>6</v>
       </c>
       <c r="BP35" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ35" s="88"/>
     </row>
@@ -14188,52 +14614,52 @@
         <v>3</v>
       </c>
       <c r="AS36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AT36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU36" s="76">
         <v>5</v>
       </c>
       <c r="AV36" s="84"/>
       <c r="AW36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX36" s="76">
         <v>5</v>
       </c>
       <c r="AY36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ36" s="76">
         <v>6</v>
       </c>
       <c r="BA36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB36" s="85"/>
       <c r="BC36" s="71">
         <v>6</v>
       </c>
       <c r="BD36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF36" s="76">
         <v>1</v>
       </c>
       <c r="BG36" s="84"/>
       <c r="BH36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI36" s="76">
         <v>1</v>
       </c>
       <c r="BJ36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK36" s="76">
         <v>2</v>
@@ -14243,13 +14669,13 @@
         <v>2</v>
       </c>
       <c r="BN36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO36" s="76">
         <v>3</v>
       </c>
       <c r="BP36" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BQ36" s="88"/>
     </row>
@@ -14367,55 +14793,55 @@
       </c>
       <c r="AQ37" s="87"/>
       <c r="AR37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AS37" s="76">
         <v>1</v>
       </c>
       <c r="AT37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU37" s="76">
         <v>2</v>
       </c>
       <c r="AV37" s="84"/>
       <c r="AW37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AX37" s="76">
         <v>2</v>
       </c>
       <c r="AY37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ37" s="76">
         <v>3</v>
       </c>
       <c r="BA37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB37" s="85"/>
       <c r="BC37" s="71">
         <v>3</v>
       </c>
       <c r="BD37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF37" s="76">
         <v>5</v>
       </c>
       <c r="BG37" s="84"/>
       <c r="BH37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BI37" s="76">
         <v>5</v>
       </c>
       <c r="BJ37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK37" s="76">
         <v>6</v>
@@ -14425,10 +14851,10 @@
         <v>6</v>
       </c>
       <c r="BN37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BO37" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP37" s="76">
         <v>1</v>
@@ -14553,13 +14979,13 @@
         <v>2</v>
       </c>
       <c r="X41" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y41" s="76">
         <v>3</v>
       </c>
       <c r="Z41" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:69" x14ac:dyDescent="0.3">
@@ -14567,13 +14993,13 @@
         <v>6</v>
       </c>
       <c r="X42" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y42" s="76">
         <v>7</v>
       </c>
       <c r="Z42" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:69" x14ac:dyDescent="0.3">
@@ -14581,10 +15007,10 @@
         <v>3</v>
       </c>
       <c r="X43" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y43" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z43" s="76">
         <v>5</v>
@@ -14595,13 +15021,13 @@
         <v>1</v>
       </c>
       <c r="X45" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y45" s="76">
         <v>2</v>
       </c>
       <c r="Z45" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:69" x14ac:dyDescent="0.3">
@@ -14609,13 +15035,13 @@
         <v>5</v>
       </c>
       <c r="X46" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y46" s="76">
         <v>6</v>
       </c>
       <c r="Z46" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:69" x14ac:dyDescent="0.3">
@@ -14623,10 +15049,10 @@
         <v>2</v>
       </c>
       <c r="X47" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y47" s="76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z47" s="76">
         <v>4</v>
@@ -14637,13 +15063,13 @@
         <v>5</v>
       </c>
       <c r="X49" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y49" s="67">
         <v>6</v>
       </c>
       <c r="Z49" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="23:26" x14ac:dyDescent="0.3">
@@ -14651,13 +15077,13 @@
         <v>2</v>
       </c>
       <c r="X50" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y50" s="67">
         <v>3</v>
       </c>
       <c r="Z50" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="23:26" x14ac:dyDescent="0.3">
@@ -14665,10 +15091,10 @@
         <v>6</v>
       </c>
       <c r="X51" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y51" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z51" s="67">
         <v>1</v>
@@ -14678,4 +15104,385 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AD7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="3" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B2" s="104">
+        <v>3</v>
+      </c>
+      <c r="C2" s="105">
+        <v>4</v>
+      </c>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105">
+        <v>5</v>
+      </c>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105">
+        <v>6</v>
+      </c>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105">
+        <v>7</v>
+      </c>
+      <c r="J2" s="105">
+        <v>1</v>
+      </c>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105">
+        <v>2</v>
+      </c>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105">
+        <v>3</v>
+      </c>
+      <c r="O2" s="105">
+        <v>4</v>
+      </c>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105">
+        <v>5</v>
+      </c>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105">
+        <v>6</v>
+      </c>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105">
+        <v>7</v>
+      </c>
+      <c r="X2" s="68">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="68">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="68">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="68">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="68">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="68">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="104">
+        <v>7</v>
+      </c>
+      <c r="C3" s="105">
+        <v>1</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105">
+        <v>2</v>
+      </c>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105">
+        <v>3</v>
+      </c>
+      <c r="H3" s="105">
+        <v>4</v>
+      </c>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105">
+        <v>5</v>
+      </c>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105">
+        <v>6</v>
+      </c>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105">
+        <v>7</v>
+      </c>
+      <c r="O3" s="105">
+        <v>1</v>
+      </c>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105">
+        <v>2</v>
+      </c>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105">
+        <v>3</v>
+      </c>
+      <c r="T3" s="105">
+        <v>4</v>
+      </c>
+      <c r="U3" s="105"/>
+      <c r="X3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B4" s="104">
+        <v>5</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105">
+        <v>6</v>
+      </c>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105">
+        <v>7</v>
+      </c>
+      <c r="G4" s="105">
+        <v>1</v>
+      </c>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105">
+        <v>2</v>
+      </c>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105">
+        <v>3</v>
+      </c>
+      <c r="L4" s="105">
+        <v>4</v>
+      </c>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105">
+        <v>5</v>
+      </c>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105">
+        <v>7</v>
+      </c>
+      <c r="S4" s="105">
+        <v>1</v>
+      </c>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105">
+        <v>2</v>
+      </c>
+      <c r="X4" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B5" s="104">
+        <v>2</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105">
+        <v>3</v>
+      </c>
+      <c r="E5" s="105">
+        <v>4</v>
+      </c>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105">
+        <v>5</v>
+      </c>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105">
+        <v>6</v>
+      </c>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105">
+        <v>7</v>
+      </c>
+      <c r="L5" s="105">
+        <v>1</v>
+      </c>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105">
+        <v>2</v>
+      </c>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="105">
+        <v>4</v>
+      </c>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105">
+        <v>5</v>
+      </c>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B6" s="104">
+        <v>6</v>
+      </c>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105">
+        <v>7</v>
+      </c>
+      <c r="E6" s="105">
+        <v>1</v>
+      </c>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105">
+        <v>2</v>
+      </c>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105">
+        <v>3</v>
+      </c>
+      <c r="J6" s="105">
+        <v>4</v>
+      </c>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105">
+        <v>5</v>
+      </c>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105">
+        <v>6</v>
+      </c>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="105">
+        <v>1</v>
+      </c>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105">
+        <v>2</v>
+      </c>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B7" s="104">
+        <v>3</v>
+      </c>
+      <c r="C7" s="105">
+        <v>4</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105">
+        <v>5</v>
+      </c>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105">
+        <v>6</v>
+      </c>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105">
+        <v>7</v>
+      </c>
+      <c r="J7" s="105">
+        <v>1</v>
+      </c>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105">
+        <v>2</v>
+      </c>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105">
+        <v>3</v>
+      </c>
+      <c r="O7" s="105">
+        <v>4</v>
+      </c>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105">
+        <v>5</v>
+      </c>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105">
+        <v>6</v>
+      </c>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105">
+        <v>7</v>
+      </c>
+      <c r="X7" s="68">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="68">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="68">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="68">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="68">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="68">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="68">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="168" windowWidth="12960" windowHeight="10164" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="10272" yWindow="228" windowWidth="12960" windowHeight="10104" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
     <sheet name="Keys" sheetId="2" r:id="rId2"/>
     <sheet name="Chords" sheetId="8" r:id="rId3"/>
-    <sheet name="Alt. Tunings" sheetId="3" r:id="rId4"/>
-    <sheet name="3rds Stuff" sheetId="4" r:id="rId5"/>
-    <sheet name="3rds Modes" sheetId="5" r:id="rId6"/>
-    <sheet name="Techniques" sheetId="6" r:id="rId7"/>
-    <sheet name="Pentatonic" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Chord-Scales" sheetId="10" r:id="rId4"/>
+    <sheet name="Alt. Tunings" sheetId="3" r:id="rId5"/>
+    <sheet name="3rds Stuff" sheetId="4" r:id="rId6"/>
+    <sheet name="3rds Modes" sheetId="5" r:id="rId7"/>
+    <sheet name="Techniques" sheetId="6" r:id="rId8"/>
+    <sheet name="Pentatonic" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet2!$B$9:$U$14</definedName>
     <definedName name="fingerboard">Keys!$B$4:$T$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="162">
   <si>
     <t>E</t>
   </si>
@@ -129,133 +131,37 @@
     <t>fingerings, 3 octave</t>
   </si>
   <si>
-    <t>Rasgueado</t>
-  </si>
-  <si>
     <t>apoyando</t>
   </si>
   <si>
     <t>vibrato</t>
   </si>
   <si>
-    <t>picado</t>
-  </si>
-  <si>
-    <t>arpeggios</t>
-  </si>
-  <si>
     <t>compas</t>
-  </si>
-  <si>
-    <t>bpm guessing</t>
   </si>
   <si>
     <t>auto-pitch</t>
   </si>
   <si>
-    <t>tone guessing</t>
-  </si>
-  <si>
-    <t>by ear</t>
-  </si>
-  <si>
     <t>nylonguitarist.com</t>
-  </si>
-  <si>
-    <t>full/empty</t>
   </si>
   <si>
     <t>tirando</t>
   </si>
   <si>
-    <t>"out" pluck</t>
-  </si>
-  <si>
-    <t>legato/tapping</t>
-  </si>
-  <si>
-    <t>rest stroke</t>
-  </si>
-  <si>
-    <t>"in" pluck</t>
-  </si>
-  <si>
-    <t>palm muting</t>
-  </si>
-  <si>
-    <t>barre muting</t>
-  </si>
-  <si>
-    <t>rolled barre</t>
-  </si>
-  <si>
-    <t>harmonics</t>
-  </si>
-  <si>
-    <t>touch, pinch(up/down)</t>
-  </si>
-  <si>
-    <t>thumb + hammer + tremolo + pull-off</t>
-  </si>
-  <si>
     <t>tremolo</t>
-  </si>
-  <si>
-    <t>maj, min, dim, aug</t>
-  </si>
-  <si>
-    <t>left/right hammer-slide, slide-pull-off</t>
-  </si>
-  <si>
-    <t>multi-finger hammer/pull-off</t>
-  </si>
-  <si>
-    <t>finger</t>
-  </si>
-  <si>
-    <t>wrist</t>
   </si>
   <si>
     <t>multi-finger</t>
   </si>
   <si>
-    <t>left hammer-on, pull-off scale pieces</t>
-  </si>
-  <si>
     <t>chording</t>
-  </si>
-  <si>
-    <t>four-finger mode chord progressions</t>
   </si>
   <si>
     <t>spidering</t>
   </si>
   <si>
-    <t>plucked, four-finger</t>
-  </si>
-  <si>
-    <t>mode scales</t>
-  </si>
-  <si>
     <t>pentatonics</t>
-  </si>
-  <si>
-    <t>two-hand</t>
-  </si>
-  <si>
-    <t>single-string</t>
-  </si>
-  <si>
-    <t>right hammer-on, pull-off scale pieces</t>
-  </si>
-  <si>
-    <t>left-hand chord tapping</t>
-  </si>
-  <si>
-    <t>right-hand chord tapping</t>
-  </si>
-  <si>
-    <t>pentatonic slivers (east/west side)</t>
   </si>
   <si>
     <t>O</t>
@@ -288,9 +194,6 @@
     <t>Major Chords</t>
   </si>
   <si>
-    <t>even/odd number chunks</t>
-  </si>
-  <si>
     <t>scales</t>
   </si>
   <si>
@@ -302,12 +205,321 @@
   <si>
     <t>1-octave (all modes)</t>
   </si>
+  <si>
+    <t>posture</t>
+  </si>
+  <si>
+    <t>thigh rasgueado</t>
+  </si>
+  <si>
+    <t>slurs, left-hand</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>finger walking</t>
+  </si>
+  <si>
+    <t>strumming</t>
+  </si>
+  <si>
+    <t>finger sweeps</t>
+  </si>
+  <si>
+    <t>alternation</t>
+  </si>
+  <si>
+    <t>pumping nylon</t>
+  </si>
+  <si>
+    <t>reading music</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>rythym</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>fret</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>phrasing</t>
+  </si>
+  <si>
+    <t>right-hand finger</t>
+  </si>
+  <si>
+    <t>left-hand finger</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Majors</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>2/1</t>
+  </si>
+  <si>
+    <t>Aim Directed Movement</t>
+  </si>
+  <si>
+    <t>4 copies of music</t>
+  </si>
+  <si>
+    <t>metadata marks</t>
+  </si>
+  <si>
+    <t>fingerings</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>corrective pauses</t>
+  </si>
+  <si>
+    <t>= perfect intonation and fingering</t>
+  </si>
+  <si>
+    <t>2/1 Majors</t>
+  </si>
+  <si>
+    <t>Minors</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0/5 Majors</t>
+  </si>
+  <si>
+    <t>CHORDING</t>
+  </si>
+  <si>
+    <t>TONES</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>pizzicato</t>
+  </si>
+  <si>
+    <t>plucked</t>
+  </si>
+  <si>
+    <t>barring</t>
+  </si>
+  <si>
+    <t>rasqueado</t>
+  </si>
+  <si>
+    <t>legato</t>
+  </si>
+  <si>
+    <t>trill</t>
+  </si>
+  <si>
+    <t>arpeggio</t>
+  </si>
+  <si>
+    <t>muting</t>
+  </si>
+  <si>
+    <t>transitions</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>timbre</t>
+  </si>
+  <si>
+    <t>natural harmonics</t>
+  </si>
+  <si>
+    <t>artificial harmonics</t>
+  </si>
+  <si>
+    <t>bridge position</t>
+  </si>
+  <si>
+    <t>soundhole position</t>
+  </si>
+  <si>
+    <t>neck position</t>
+  </si>
+  <si>
+    <t>octave tirando</t>
+  </si>
+  <si>
+    <t>left-hand slurs</t>
+  </si>
+  <si>
+    <t>right-hand tapping</t>
+  </si>
+  <si>
+    <t>right-hand multi-tapping</t>
+  </si>
+  <si>
+    <t>left-hand multi-slurs</t>
+  </si>
+  <si>
+    <t>single-finger</t>
+  </si>
+  <si>
+    <t>strummed</t>
+  </si>
+  <si>
+    <t>Minor Techniques</t>
+  </si>
+  <si>
+    <t>Major Techniques</t>
+  </si>
+  <si>
+    <t>all fingers</t>
+  </si>
+  <si>
+    <t>w/ slurs</t>
+  </si>
+  <si>
+    <t>right full/empty (nail/pad)</t>
+  </si>
+  <si>
+    <t>left full/empty (muting)</t>
+  </si>
+  <si>
+    <t>vary speed</t>
+  </si>
+  <si>
+    <t>vary depth</t>
+  </si>
+  <si>
+    <t>meat-slap drill</t>
+  </si>
+  <si>
+    <t>chorded</t>
+  </si>
+  <si>
+    <t>bending (half/whole step)</t>
+  </si>
+  <si>
+    <t>left-hand various</t>
+  </si>
+  <si>
+    <t>right-hand palm mute</t>
+  </si>
+  <si>
+    <t>left-finger on fret</t>
+  </si>
+  <si>
+    <t>?picado</t>
+  </si>
+  <si>
+    <t>six-string</t>
+  </si>
+  <si>
+    <t>single-string tirando</t>
+  </si>
+  <si>
+    <t>single-string tapped</t>
+  </si>
+  <si>
+    <t>arpreggios</t>
+  </si>
+  <si>
+    <t>mode progressions</t>
+  </si>
+  <si>
+    <t>harmonic/melodic tone</t>
+  </si>
+  <si>
+    <t>harmonic</t>
+  </si>
+  <si>
+    <t>melodic (arpeggios)</t>
+  </si>
+  <si>
+    <t>anti-squeak</t>
+  </si>
+  <si>
+    <t>BPM guessing</t>
+  </si>
+  <si>
+    <t>tone guessing (relative/auto)</t>
+  </si>
+  <si>
+    <t>scale guessing</t>
+  </si>
+  <si>
+    <t>articulation</t>
+  </si>
+  <si>
+    <t>left-finger full/empty</t>
+  </si>
+  <si>
+    <t>palm-muting</t>
+  </si>
+  <si>
+    <t>right-finger nail/pad</t>
+  </si>
+  <si>
+    <t>exterior</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>rolled</t>
+  </si>
+  <si>
+    <t>hinged</t>
+  </si>
+  <si>
+    <t>pinch harmonics</t>
+  </si>
+  <si>
+    <t>classical drills</t>
+  </si>
+  <si>
+    <t>Tilman PachSchtach</t>
+  </si>
+  <si>
+    <t>Primm Editions</t>
+  </si>
+  <si>
+    <t>Bach's Music</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +582,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arvo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arvo"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -412,77 +642,7 @@
           <color theme="9" tint="0.80001220740379042"/>
         </stop>
         <stop position="1">
-          <color rgb="FF7030A0"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-        <stop position="0">
-          <color theme="9" tint="0.80001220740379042"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FF990099"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-        <stop position="0">
-          <color theme="9" tint="0.80001220740379042"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FF0070C0"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-        <stop position="0">
-          <color theme="9" tint="0.80001220740379042"/>
-        </stop>
-        <stop position="1">
           <color rgb="FF12E2FE"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-        <stop position="0">
-          <color theme="9" tint="0.80001220740379042"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FF00B050"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-        <stop position="0">
-          <color theme="9" tint="0.80001220740379042"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FFFFFF00"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-        <stop position="0">
-          <color theme="9" tint="0.80001220740379042"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FFFF0000"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-        <stop position="0">
-          <color theme="9" tint="0.80001220740379042"/>
-        </stop>
-        <stop position="1">
-          <color rgb="FFFFC000"/>
         </stop>
       </gradientFill>
     </fill>
@@ -502,6 +662,76 @@
       <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
         <stop position="0">
           <color rgb="FFFEF9F4"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FFFF0000"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FFFFC000"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FFFFFF00"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FF00B050"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FF0070C0"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FF7030A0"/>
+        </stop>
+        <stop position="1">
+          <color theme="9" tint="0.80001220740379042"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FF990099"/>
         </stop>
         <stop position="1">
           <color theme="9" tint="0.80001220740379042"/>
@@ -863,15 +1093,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
@@ -880,32 +1110,35 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyBorder="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyBorder="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyBorder="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyBorder="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyBorder="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyBorder="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,29 +1146,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="5" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyBorder="1">
@@ -944,10 +1177,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyBorder="1">
@@ -956,13 +1189,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyBorder="1">
@@ -974,22 +1207,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="13" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="15" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyBorder="1">
@@ -998,7 +1231,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="14" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1014,7 +1247,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4">
@@ -1062,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1071,22 +1304,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="7">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="8">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="9">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="10">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="11">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="12">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1104,13 +1337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1155,59 +1388,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="14">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="14" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="10" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="7" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="11" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="6" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="1st" xfId="12"/>
     <cellStyle name="2nd" xfId="11"/>
     <cellStyle name="3rd" xfId="10"/>
@@ -1217,6 +1484,7 @@
     <cellStyle name="6th" xfId="6"/>
     <cellStyle name="7th" xfId="3"/>
     <cellStyle name="Black" xfId="1"/>
+    <cellStyle name="Gloss" xfId="14"/>
     <cellStyle name="Major" xfId="5"/>
     <cellStyle name="minor" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,9 +1495,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990099"/>
       <color rgb="FFFEF9F4"/>
       <color rgb="FF12E2FE"/>
-      <color rgb="FF990099"/>
       <color rgb="FF6600CC"/>
       <color rgb="FF800080"/>
     </mruColors>
@@ -1584,7 +1852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:U1"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,40 +1864,40 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="67" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H1" s="67"/>
       <c r="I1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="J1" s="67"/>
       <c r="K1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="L1" s="67"/>
       <c r="M1" s="67"/>
       <c r="N1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="O1" s="67"/>
       <c r="P1" s="67"/>
       <c r="Q1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T1" s="67"/>
       <c r="U1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
@@ -2445,6 +2713,1609 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="109"/>
+    <col min="2" max="38" width="3" style="68"/>
+    <col min="39" max="39" width="8.109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="3" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G1" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="116"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="104"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="116"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="116"/>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="116"/>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="116"/>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8"/>
+      <c r="X8" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="68">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" s="68">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="116"/>
+      <c r="B10" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="104"/>
+      <c r="X10" s="68">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="68">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="116"/>
+      <c r="B11" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="68">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A12" s="116"/>
+      <c r="B12" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="68">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="68">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="116"/>
+      <c r="B13" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="68">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="116"/>
+      <c r="B14" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="68">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="68">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G15" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="3">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4">
+        <v>74</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6">
+        <v>42</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6">
+        <v>84</v>
+      </c>
+      <c r="J16" s="6">
+        <v>41</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6">
+        <v>82</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6">
+        <v>37</v>
+      </c>
+      <c r="O16" s="6">
+        <v>74</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6">
+        <v>21</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="6">
+        <v>42</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="116"/>
+      <c r="B17" s="3">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6">
+        <v>82</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6">
+        <v>37</v>
+      </c>
+      <c r="H17" s="6">
+        <v>74</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6">
+        <v>21</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6">
+        <v>42</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6">
+        <v>84</v>
+      </c>
+      <c r="O17" s="6">
+        <v>41</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6">
+        <v>82</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6">
+        <v>37</v>
+      </c>
+      <c r="T17" s="6">
+        <v>74</v>
+      </c>
+      <c r="U17" s="104"/>
+      <c r="W17" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB17" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC17" s="68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="116"/>
+      <c r="B18" s="3">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6">
+        <v>84</v>
+      </c>
+      <c r="G18" s="6">
+        <v>41</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6">
+        <v>82</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6">
+        <v>37</v>
+      </c>
+      <c r="L18" s="6">
+        <v>74</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6">
+        <v>21</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6">
+        <v>84</v>
+      </c>
+      <c r="S18" s="6">
+        <v>41</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="6">
+        <v>82</v>
+      </c>
+      <c r="W18" s="68">
+        <v>1</v>
+      </c>
+      <c r="X18" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="68">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="68">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="68">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="68">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="68">
+        <f>BIN2DEC(CONCATENATE(W18,X18,Y18,Z18,AA18,AB18,AC18,))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="116"/>
+      <c r="B19" s="3">
+        <v>82</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6">
+        <v>74</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6">
+        <v>21</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6">
+        <v>42</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6">
+        <v>84</v>
+      </c>
+      <c r="L19" s="6">
+        <v>41</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6">
+        <v>82</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>74</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="6">
+        <v>21</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="116"/>
+      <c r="B20" s="3">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6">
+        <v>84</v>
+      </c>
+      <c r="E20" s="6">
+        <v>41</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6">
+        <v>82</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6">
+        <v>37</v>
+      </c>
+      <c r="J20" s="6">
+        <v>74</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6">
+        <v>21</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6">
+        <v>42</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6">
+        <v>84</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>41</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="6">
+        <v>82</v>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="116"/>
+      <c r="B21" s="3">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6">
+        <v>21</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6">
+        <v>42</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6">
+        <v>84</v>
+      </c>
+      <c r="J21" s="6">
+        <v>41</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6">
+        <v>82</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6">
+        <v>37</v>
+      </c>
+      <c r="O21" s="6">
+        <v>74</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6">
+        <v>21</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="6">
+        <v>42</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="G22" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22" s="68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="str">
+        <f>IF(ISNUMBER(B16),CHAR(B16),"")</f>
+        <v>%</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f t="shared" ref="C23:U23" si="0">IF(ISNUMBER(C16),CHAR(C16),"")</f>
+        <v>J</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>)</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+      <c r="O23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="P23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="R23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+      <c r="T23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="str">
+        <f t="shared" ref="B24:U24" si="1">IF(ISNUMBER(B17),CHAR(B17),"")</f>
+        <v>T</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>)</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>R</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>%</v>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>*</v>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="O24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>)</v>
+      </c>
+      <c r="P24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>R</v>
+      </c>
+      <c r="R24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>%</v>
+      </c>
+      <c r="T24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+      <c r="U24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="str">
+        <f t="shared" ref="B25:U25" si="2">IF(ISNUMBER(B18),CHAR(B18),"")</f>
+        <v>_x0015_</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>R</v>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>%</v>
+      </c>
+      <c r="L25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>J</v>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="O25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="Q25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>T</v>
+      </c>
+      <c r="S25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>)</v>
+      </c>
+      <c r="T25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="str">
+        <f t="shared" ref="B26:U26" si="3">IF(ISNUMBER(B19),CHAR(B19),"")</f>
+        <v>R</v>
+      </c>
+      <c r="C26" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>%</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>J</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>T</v>
+      </c>
+      <c r="L26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>)</v>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>R</v>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>%</v>
+      </c>
+      <c r="Q26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>J</v>
+      </c>
+      <c r="R26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="T26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="str">
+        <f t="shared" ref="B27:U27" si="4">IF(ISNUMBER(B20),CHAR(B20),"")</f>
+        <v>*</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>T</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>)</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>R</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>%</v>
+      </c>
+      <c r="J27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>J</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>T</v>
+      </c>
+      <c r="Q27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>)</v>
+      </c>
+      <c r="R27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>R</v>
+      </c>
+      <c r="T27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>%</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="str">
+        <f t="shared" ref="B28:U28" si="5">IF(ISNUMBER(B21),CHAR(B21),"")</f>
+        <v>%</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="J28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>)</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>%</v>
+      </c>
+      <c r="O28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="P28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>_x0015_</v>
+      </c>
+      <c r="R28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="T28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2454,7 +4325,7 @@
   <dimension ref="B1:AJ13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3461,31 +5332,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="P2:AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3" style="68"/>
+    <col min="1" max="28" width="3" style="68"/>
+    <col min="29" max="29" width="3" style="68" customWidth="1"/>
+    <col min="30" max="16384" width="3" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="P2" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="P3" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>5</v>
       </c>
@@ -3502,27 +5447,27 @@
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="103">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="3"/>
+      <c r="Y4" s="102">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>5</v>
+      </c>
       <c r="AD4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
+      <c r="AE4" s="3"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -3545,26 +5490,26 @@
       </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-      <c r="AD5" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3">
-        <v>5</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -3593,24 +5538,24 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
-      <c r="AD6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3">
-        <v>3</v>
-      </c>
-      <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="3"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
@@ -3634,24 +5579,24 @@
         <v>3</v>
       </c>
       <c r="Y7" s="3"/>
-      <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="3">
-        <v>5</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>5</v>
-      </c>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>5</v>
+      </c>
       <c r="AJ7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -3670,31 +5615,31 @@
       <c r="Y8" s="3">
         <v>1</v>
       </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="3"/>
+      <c r="AC8" s="3">
+        <v>1</v>
+      </c>
       <c r="AD8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3">
-        <v>3</v>
-      </c>
+      <c r="AE8" s="3"/>
+      <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AK8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="103">
+      <c r="R9" s="102">
         <v>3</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="V9" s="103">
+      <c r="V9" s="102">
         <v>3</v>
       </c>
       <c r="W9" s="3"/>
@@ -3702,30 +5647,92 @@
       <c r="Y9" s="3">
         <v>5</v>
       </c>
-      <c r="AB9" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3"/>
+      <c r="AC9" s="3">
+        <v>5</v>
+      </c>
       <c r="AD9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
+      <c r="AE9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="105"/>
+      <c r="AJ10" s="105"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="105"/>
+      <c r="AM10" s="105"/>
+      <c r="AN10" s="105"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="105"/>
+      <c r="AR10" s="105"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P11" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>1</v>
@@ -3733,8 +5740,36 @@
       <c r="E12" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AC12" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AP12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -3746,8 +5781,36 @@
         <v>3</v>
       </c>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE13" s="3"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AP13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="E14" s="3">
         <v>5</v>
       </c>
@@ -3755,20 +5818,154 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AP14" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G15" s="3"/>
       <c r="H15" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="P16" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AC16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="P17" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="S17" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AC17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AP17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+    </row>
+    <row r="19" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -3779,7 +5976,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3">
         <v>3</v>
@@ -3795,7 +5992,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.3">
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
@@ -3807,7 +6004,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.3">
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3">
@@ -3822,10 +6019,774 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="103"/>
+    <col min="2" max="2" width="3" style="68" customWidth="1"/>
+    <col min="3" max="16384" width="3" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="37">
+        <v>1</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3"/>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="37"/>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="37">
+        <v>4</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="37">
+        <v>1</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7"/>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:AQ43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5617,7 +8578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:CS163"/>
@@ -6334,32 +9295,32 @@
       <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="AI9" s="102" t="s">
+      <c r="AI9" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="BD9" s="102" t="s">
+      <c r="AJ9" s="115"/>
+      <c r="AK9" s="115"/>
+      <c r="AL9" s="115"/>
+      <c r="AM9" s="115"/>
+      <c r="AN9" s="115"/>
+      <c r="AO9" s="115"/>
+      <c r="AP9" s="115"/>
+      <c r="AQ9" s="115"/>
+      <c r="AR9" s="115"/>
+      <c r="AS9" s="115"/>
+      <c r="AT9" s="115"/>
+      <c r="AU9" s="115"/>
+      <c r="BD9" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
-      <c r="BJ9" s="102"/>
-      <c r="BK9" s="102"/>
-      <c r="BL9" s="102"/>
+      <c r="BE9" s="115"/>
+      <c r="BF9" s="115"/>
+      <c r="BG9" s="115"/>
+      <c r="BH9" s="115"/>
+      <c r="BI9" s="115"/>
+      <c r="BJ9" s="115"/>
+      <c r="BK9" s="115"/>
+      <c r="BL9" s="115"/>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E10" s="38">
@@ -9165,7 +12126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AV31"/>
   <sheetViews>
@@ -9829,262 +12790,491 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" customWidth="1"/>
+    <col min="8" max="11" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>67</v>
+      <c r="B33" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>51</v>
+      <c r="B38" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BQ51"/>
   <sheetViews>
@@ -10104,52 +13294,52 @@
   <sheetData>
     <row r="1" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B1" s="77" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="S1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="U1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="W1" s="77" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AD1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AF1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AL1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AN1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AP1" s="67" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="2:69" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -11215,7 +14405,7 @@
     </row>
     <row r="15" spans="2:69" x14ac:dyDescent="0.3">
       <c r="W15" s="83" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AO15" s="56"/>
       <c r="AP15" s="56"/>
@@ -11341,55 +14531,55 @@
       </c>
       <c r="AQ16" s="87"/>
       <c r="AR16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS16" s="76">
         <v>5</v>
       </c>
       <c r="AT16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU16" s="76">
         <v>6</v>
       </c>
       <c r="AV16" s="84"/>
       <c r="AW16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX16" s="76">
         <v>6</v>
       </c>
       <c r="AY16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ16" s="76">
         <v>7</v>
       </c>
       <c r="BA16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB16" s="84"/>
       <c r="BC16" s="76">
         <v>7</v>
       </c>
       <c r="BD16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF16" s="76">
         <v>2</v>
       </c>
       <c r="BG16" s="84"/>
       <c r="BH16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI16" s="76">
         <v>2</v>
       </c>
       <c r="BJ16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK16" s="76">
         <v>3</v>
@@ -11399,10 +14589,10 @@
         <v>3</v>
       </c>
       <c r="BN16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO16" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP16" s="76">
         <v>5</v>
@@ -11528,55 +14718,55 @@
       </c>
       <c r="AQ17" s="87"/>
       <c r="AR17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS17" s="76">
         <v>2</v>
       </c>
       <c r="AT17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU17" s="76">
         <v>3</v>
       </c>
       <c r="AV17" s="84"/>
       <c r="AW17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX17" s="76">
         <v>3</v>
       </c>
       <c r="AY17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BA17" s="76">
         <v>5</v>
       </c>
       <c r="BB17" s="84"/>
       <c r="BC17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BD17" s="76">
         <v>5</v>
       </c>
       <c r="BE17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF17" s="76">
         <v>6</v>
       </c>
       <c r="BG17" s="84"/>
       <c r="BH17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI17" s="76">
         <v>6</v>
       </c>
       <c r="BJ17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK17" s="76">
         <v>7</v>
@@ -11586,10 +14776,10 @@
         <v>7</v>
       </c>
       <c r="BN17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO17" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP17" s="76">
         <v>2</v>
@@ -11720,52 +14910,52 @@
         <v>6</v>
       </c>
       <c r="AS18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT18" s="76">
         <v>7</v>
       </c>
       <c r="AU18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AV18" s="84"/>
       <c r="AW18" s="76">
         <v>7</v>
       </c>
       <c r="AX18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AY18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ18" s="76">
         <v>2</v>
       </c>
       <c r="BA18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB18" s="84"/>
       <c r="BC18" s="76">
         <v>2</v>
       </c>
       <c r="BD18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE18" s="76">
         <v>3</v>
       </c>
       <c r="BF18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BG18" s="84"/>
       <c r="BH18" s="76">
         <v>3</v>
       </c>
       <c r="BI18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BJ18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK18" s="76">
         <v>5</v>
@@ -11775,13 +14965,13 @@
         <v>5</v>
       </c>
       <c r="BN18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO18" s="76">
         <v>6</v>
       </c>
       <c r="BP18" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ18" s="88"/>
     </row>
@@ -11909,52 +15099,52 @@
         <v>3</v>
       </c>
       <c r="AS19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU19" s="76">
         <v>5</v>
       </c>
       <c r="AV19" s="84"/>
       <c r="AW19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX19" s="76">
         <v>5</v>
       </c>
       <c r="AY19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ19" s="76">
         <v>6</v>
       </c>
       <c r="BA19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB19" s="84"/>
       <c r="BC19" s="76">
         <v>6</v>
       </c>
       <c r="BD19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE19" s="76">
         <v>7</v>
       </c>
       <c r="BF19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BG19" s="84"/>
       <c r="BH19" s="76">
         <v>7</v>
       </c>
       <c r="BI19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BJ19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK19" s="76">
         <v>2</v>
@@ -11964,13 +15154,13 @@
         <v>2</v>
       </c>
       <c r="BN19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO19" s="76">
         <v>3</v>
       </c>
       <c r="BP19" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ19" s="88"/>
     </row>
@@ -12098,52 +15288,52 @@
         <v>7</v>
       </c>
       <c r="AS20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU20" s="76">
         <v>2</v>
       </c>
       <c r="AV20" s="84"/>
       <c r="AW20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX20" s="76">
         <v>2</v>
       </c>
       <c r="AY20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ20" s="76">
         <v>3</v>
       </c>
       <c r="BA20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB20" s="84"/>
       <c r="BC20" s="76">
         <v>3</v>
       </c>
       <c r="BD20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF20" s="76">
         <v>5</v>
       </c>
       <c r="BG20" s="84"/>
       <c r="BH20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI20" s="76">
         <v>5</v>
       </c>
       <c r="BJ20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK20" s="76">
         <v>6</v>
@@ -12153,13 +15343,13 @@
         <v>6</v>
       </c>
       <c r="BN20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO20" s="76">
         <v>7</v>
       </c>
       <c r="BP20" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ20" s="88"/>
     </row>
@@ -12284,55 +15474,55 @@
       </c>
       <c r="AQ21" s="87"/>
       <c r="AR21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS21" s="76">
         <v>5</v>
       </c>
       <c r="AT21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU21" s="76">
         <v>6</v>
       </c>
       <c r="AV21" s="84"/>
       <c r="AW21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX21" s="76">
         <v>6</v>
       </c>
       <c r="AY21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ21" s="76">
         <v>7</v>
       </c>
       <c r="BA21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB21" s="84"/>
       <c r="BC21" s="76">
         <v>7</v>
       </c>
       <c r="BD21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF21" s="76">
         <v>2</v>
       </c>
       <c r="BG21" s="84"/>
       <c r="BH21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI21" s="76">
         <v>2</v>
       </c>
       <c r="BJ21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK21" s="76">
         <v>3</v>
@@ -12342,10 +15532,10 @@
         <v>3</v>
       </c>
       <c r="BN21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO21" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP21" s="76">
         <v>5</v>
@@ -12472,7 +15662,7 @@
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
       <c r="W23" s="82" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="X23" s="76"/>
       <c r="Y23" s="76"/>
@@ -12617,55 +15807,55 @@
       </c>
       <c r="AQ24" s="87"/>
       <c r="AR24" s="71" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS24" s="76">
         <v>4</v>
       </c>
       <c r="AT24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU24" s="76">
         <v>5</v>
       </c>
       <c r="AV24" s="84"/>
       <c r="AW24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX24" s="76">
         <v>5</v>
       </c>
       <c r="AY24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ24" s="76">
         <v>6</v>
       </c>
       <c r="BA24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB24" s="84"/>
       <c r="BC24" s="76">
         <v>6</v>
       </c>
       <c r="BD24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF24" s="76">
         <v>1</v>
       </c>
       <c r="BG24" s="84"/>
       <c r="BH24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI24" s="76">
         <v>1</v>
       </c>
       <c r="BJ24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK24" s="76">
         <v>2</v>
@@ -12675,10 +15865,10 @@
         <v>2</v>
       </c>
       <c r="BN24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO24" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP24" s="76">
         <v>4</v>
@@ -12803,55 +15993,55 @@
       </c>
       <c r="AQ25" s="87"/>
       <c r="AR25" s="71" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS25" s="76">
         <v>1</v>
       </c>
       <c r="AT25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU25" s="76">
         <v>2</v>
       </c>
       <c r="AV25" s="84"/>
       <c r="AW25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX25" s="76">
         <v>2</v>
       </c>
       <c r="AY25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BA25" s="76">
         <v>4</v>
       </c>
       <c r="BB25" s="84"/>
       <c r="BC25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BD25" s="76">
         <v>4</v>
       </c>
       <c r="BE25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF25" s="76">
         <v>5</v>
       </c>
       <c r="BG25" s="84"/>
       <c r="BH25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI25" s="76">
         <v>5</v>
       </c>
       <c r="BJ25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK25" s="76">
         <v>6</v>
@@ -12861,10 +16051,10 @@
         <v>6</v>
       </c>
       <c r="BN25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO25" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP25" s="76">
         <v>1</v>
@@ -12995,52 +16185,52 @@
         <v>5</v>
       </c>
       <c r="AS26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT26" s="76">
         <v>6</v>
       </c>
       <c r="AU26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AV26" s="84"/>
       <c r="AW26" s="76">
         <v>6</v>
       </c>
       <c r="AX26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AY26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ26" s="76">
         <v>1</v>
       </c>
       <c r="BA26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB26" s="84"/>
       <c r="BC26" s="76">
         <v>1</v>
       </c>
       <c r="BD26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE26" s="76">
         <v>2</v>
       </c>
       <c r="BF26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BG26" s="84"/>
       <c r="BH26" s="76">
         <v>2</v>
       </c>
       <c r="BI26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BJ26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK26" s="76">
         <v>4</v>
@@ -13050,13 +16240,13 @@
         <v>4</v>
       </c>
       <c r="BN26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO26" s="76">
         <v>5</v>
       </c>
       <c r="BP26" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ26" s="88"/>
     </row>
@@ -13184,52 +16374,52 @@
         <v>2</v>
       </c>
       <c r="AS27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU27" s="76">
         <v>4</v>
       </c>
       <c r="AV27" s="84"/>
       <c r="AW27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX27" s="76">
         <v>4</v>
       </c>
       <c r="AY27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ27" s="76">
         <v>5</v>
       </c>
       <c r="BA27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB27" s="84"/>
       <c r="BC27" s="76">
         <v>5</v>
       </c>
       <c r="BD27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE27" s="76">
         <v>6</v>
       </c>
       <c r="BF27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BG27" s="84"/>
       <c r="BH27" s="76">
         <v>6</v>
       </c>
       <c r="BI27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BJ27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK27" s="76">
         <v>1</v>
@@ -13239,13 +16429,13 @@
         <v>1</v>
       </c>
       <c r="BN27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO27" s="76">
         <v>2</v>
       </c>
       <c r="BP27" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ27" s="88"/>
     </row>
@@ -13370,52 +16560,52 @@
         <v>6</v>
       </c>
       <c r="AS28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU28" s="76">
         <v>1</v>
       </c>
       <c r="AV28" s="84"/>
       <c r="AW28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX28" s="76">
         <v>1</v>
       </c>
       <c r="AY28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ28" s="76">
         <v>2</v>
       </c>
       <c r="BA28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB28" s="84"/>
       <c r="BC28" s="76">
         <v>2</v>
       </c>
       <c r="BD28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF28" s="76">
         <v>4</v>
       </c>
       <c r="BG28" s="84"/>
       <c r="BH28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI28" s="76">
         <v>4</v>
       </c>
       <c r="BJ28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK28" s="76">
         <v>5</v>
@@ -13425,13 +16615,13 @@
         <v>5</v>
       </c>
       <c r="BN28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO28" s="76">
         <v>6</v>
       </c>
       <c r="BP28" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ28" s="88"/>
     </row>
@@ -13553,55 +16743,55 @@
       </c>
       <c r="AQ29" s="87"/>
       <c r="AR29" s="71" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS29" s="76">
         <v>4</v>
       </c>
       <c r="AT29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU29" s="76">
         <v>5</v>
       </c>
       <c r="AV29" s="84"/>
       <c r="AW29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX29" s="76">
         <v>5</v>
       </c>
       <c r="AY29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ29" s="76">
         <v>6</v>
       </c>
       <c r="BA29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB29" s="84"/>
       <c r="BC29" s="76">
         <v>6</v>
       </c>
       <c r="BD29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF29" s="76">
         <v>1</v>
       </c>
       <c r="BG29" s="84"/>
       <c r="BH29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI29" s="76">
         <v>1</v>
       </c>
       <c r="BJ29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK29" s="76">
         <v>2</v>
@@ -13611,10 +16801,10 @@
         <v>2</v>
       </c>
       <c r="BN29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO29" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP29" s="76">
         <v>4</v>
@@ -13732,7 +16922,7 @@
       <c r="T31" s="70"/>
       <c r="U31" s="70"/>
       <c r="W31" s="83" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="X31" s="76"/>
       <c r="Y31" s="76"/>
@@ -13877,55 +17067,55 @@
       </c>
       <c r="AQ32" s="87"/>
       <c r="AR32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS32" s="76">
         <v>1</v>
       </c>
       <c r="AT32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU32" s="76">
         <v>2</v>
       </c>
       <c r="AV32" s="84"/>
       <c r="AW32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX32" s="76">
         <v>2</v>
       </c>
       <c r="AY32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ32" s="76">
         <v>3</v>
       </c>
       <c r="BA32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB32" s="85"/>
       <c r="BC32" s="71">
         <v>3</v>
       </c>
       <c r="BD32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF32" s="76">
         <v>5</v>
       </c>
       <c r="BG32" s="84"/>
       <c r="BH32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI32" s="76">
         <v>5</v>
       </c>
       <c r="BJ32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK32" s="76">
         <v>6</v>
@@ -13935,10 +17125,10 @@
         <v>6</v>
       </c>
       <c r="BN32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO32" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP32" s="76">
         <v>1</v>
@@ -14059,55 +17249,55 @@
       </c>
       <c r="AQ33" s="87"/>
       <c r="AR33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS33" s="76">
         <v>5</v>
       </c>
       <c r="AT33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU33" s="76">
         <v>6</v>
       </c>
       <c r="AV33" s="84"/>
       <c r="AW33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX33" s="76">
         <v>6</v>
       </c>
       <c r="AY33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BA33" s="76">
         <v>1</v>
       </c>
       <c r="BB33" s="85"/>
       <c r="BC33" s="71" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BD33" s="76">
         <v>1</v>
       </c>
       <c r="BE33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF33" s="76">
         <v>2</v>
       </c>
       <c r="BG33" s="84"/>
       <c r="BH33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI33" s="76">
         <v>2</v>
       </c>
       <c r="BJ33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK33" s="76">
         <v>3</v>
@@ -14117,10 +17307,10 @@
         <v>3</v>
       </c>
       <c r="BN33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO33" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP33" s="76">
         <v>5</v>
@@ -14246,52 +17436,52 @@
         <v>2</v>
       </c>
       <c r="AS34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT34" s="76">
         <v>3</v>
       </c>
       <c r="AU34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AV34" s="84"/>
       <c r="AW34" s="76">
         <v>3</v>
       </c>
       <c r="AX34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AY34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ34" s="76">
         <v>5</v>
       </c>
       <c r="BA34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB34" s="85"/>
       <c r="BC34" s="71">
         <v>5</v>
       </c>
       <c r="BD34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE34" s="76">
         <v>6</v>
       </c>
       <c r="BF34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BG34" s="84"/>
       <c r="BH34" s="76">
         <v>6</v>
       </c>
       <c r="BI34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BJ34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK34" s="76">
         <v>1</v>
@@ -14301,13 +17491,13 @@
         <v>1</v>
       </c>
       <c r="BN34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO34" s="76">
         <v>2</v>
       </c>
       <c r="BP34" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ34" s="88"/>
     </row>
@@ -14430,52 +17620,52 @@
         <v>6</v>
       </c>
       <c r="AS35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU35" s="76">
         <v>1</v>
       </c>
       <c r="AV35" s="84"/>
       <c r="AW35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX35" s="76">
         <v>1</v>
       </c>
       <c r="AY35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ35" s="76">
         <v>2</v>
       </c>
       <c r="BA35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB35" s="85"/>
       <c r="BC35" s="71">
         <v>2</v>
       </c>
       <c r="BD35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE35" s="76">
         <v>3</v>
       </c>
       <c r="BF35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BG35" s="84"/>
       <c r="BH35" s="76">
         <v>3</v>
       </c>
       <c r="BI35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BJ35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK35" s="76">
         <v>5</v>
@@ -14485,13 +17675,13 @@
         <v>5</v>
       </c>
       <c r="BN35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO35" s="76">
         <v>6</v>
       </c>
       <c r="BP35" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ35" s="88"/>
     </row>
@@ -14614,52 +17804,52 @@
         <v>3</v>
       </c>
       <c r="AS36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AT36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU36" s="76">
         <v>5</v>
       </c>
       <c r="AV36" s="84"/>
       <c r="AW36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX36" s="76">
         <v>5</v>
       </c>
       <c r="AY36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ36" s="76">
         <v>6</v>
       </c>
       <c r="BA36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB36" s="85"/>
       <c r="BC36" s="71">
         <v>6</v>
       </c>
       <c r="BD36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF36" s="76">
         <v>1</v>
       </c>
       <c r="BG36" s="84"/>
       <c r="BH36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI36" s="76">
         <v>1</v>
       </c>
       <c r="BJ36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK36" s="76">
         <v>2</v>
@@ -14669,13 +17859,13 @@
         <v>2</v>
       </c>
       <c r="BN36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO36" s="76">
         <v>3</v>
       </c>
       <c r="BP36" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BQ36" s="88"/>
     </row>
@@ -14793,55 +17983,55 @@
       </c>
       <c r="AQ37" s="87"/>
       <c r="AR37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AS37" s="76">
         <v>1</v>
       </c>
       <c r="AT37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AU37" s="76">
         <v>2</v>
       </c>
       <c r="AV37" s="84"/>
       <c r="AW37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX37" s="76">
         <v>2</v>
       </c>
       <c r="AY37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AZ37" s="76">
         <v>3</v>
       </c>
       <c r="BA37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BB37" s="85"/>
       <c r="BC37" s="71">
         <v>3</v>
       </c>
       <c r="BD37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BE37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BF37" s="76">
         <v>5</v>
       </c>
       <c r="BG37" s="84"/>
       <c r="BH37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BI37" s="76">
         <v>5</v>
       </c>
       <c r="BJ37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BK37" s="76">
         <v>6</v>
@@ -14851,10 +18041,10 @@
         <v>6</v>
       </c>
       <c r="BN37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BO37" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="BP37" s="76">
         <v>1</v>
@@ -14979,13 +18169,13 @@
         <v>2</v>
       </c>
       <c r="X41" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y41" s="76">
         <v>3</v>
       </c>
       <c r="Z41" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:69" x14ac:dyDescent="0.3">
@@ -14993,13 +18183,13 @@
         <v>6</v>
       </c>
       <c r="X42" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y42" s="76">
         <v>7</v>
       </c>
       <c r="Z42" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:69" x14ac:dyDescent="0.3">
@@ -15007,10 +18197,10 @@
         <v>3</v>
       </c>
       <c r="X43" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y43" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Z43" s="76">
         <v>5</v>
@@ -15021,13 +18211,13 @@
         <v>1</v>
       </c>
       <c r="X45" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y45" s="76">
         <v>2</v>
       </c>
       <c r="Z45" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:69" x14ac:dyDescent="0.3">
@@ -15035,13 +18225,13 @@
         <v>5</v>
       </c>
       <c r="X46" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y46" s="76">
         <v>6</v>
       </c>
       <c r="Z46" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="2:69" x14ac:dyDescent="0.3">
@@ -15049,10 +18239,10 @@
         <v>2</v>
       </c>
       <c r="X47" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y47" s="76" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Z47" s="76">
         <v>4</v>
@@ -15063,13 +18253,13 @@
         <v>5</v>
       </c>
       <c r="X49" s="67" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y49" s="67">
         <v>6</v>
       </c>
       <c r="Z49" s="67" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="23:26" x14ac:dyDescent="0.3">
@@ -15077,13 +18267,13 @@
         <v>2</v>
       </c>
       <c r="X50" s="67" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y50" s="67">
         <v>3</v>
       </c>
       <c r="Z50" s="67" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="23:26" x14ac:dyDescent="0.3">
@@ -15091,10 +18281,10 @@
         <v>6</v>
       </c>
       <c r="X51" s="67" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Y51" s="67" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="Z51" s="67">
         <v>1</v>
@@ -15104,385 +18294,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="3" style="68"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B2" s="104">
-        <v>3</v>
-      </c>
-      <c r="C2" s="105">
-        <v>4</v>
-      </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105">
-        <v>5</v>
-      </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105">
-        <v>6</v>
-      </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105">
-        <v>7</v>
-      </c>
-      <c r="J2" s="105">
-        <v>1</v>
-      </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105">
-        <v>2</v>
-      </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105">
-        <v>3</v>
-      </c>
-      <c r="O2" s="105">
-        <v>4</v>
-      </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105">
-        <v>5</v>
-      </c>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105">
-        <v>6</v>
-      </c>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105">
-        <v>7</v>
-      </c>
-      <c r="X2" s="68">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="68">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="68">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="68">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="68">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="68">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="104">
-        <v>7</v>
-      </c>
-      <c r="C3" s="105">
-        <v>1</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105">
-        <v>2</v>
-      </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105">
-        <v>3</v>
-      </c>
-      <c r="H3" s="105">
-        <v>4</v>
-      </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105">
-        <v>5</v>
-      </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105">
-        <v>6</v>
-      </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105">
-        <v>7</v>
-      </c>
-      <c r="O3" s="105">
-        <v>1</v>
-      </c>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105">
-        <v>2</v>
-      </c>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105">
-        <v>3</v>
-      </c>
-      <c r="T3" s="105">
-        <v>4</v>
-      </c>
-      <c r="U3" s="105"/>
-      <c r="X3" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="104">
-        <v>5</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105">
-        <v>6</v>
-      </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105">
-        <v>7</v>
-      </c>
-      <c r="G4" s="105">
-        <v>1</v>
-      </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105">
-        <v>2</v>
-      </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105">
-        <v>3</v>
-      </c>
-      <c r="L4" s="105">
-        <v>4</v>
-      </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105">
-        <v>5</v>
-      </c>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105">
-        <v>7</v>
-      </c>
-      <c r="S4" s="105">
-        <v>1</v>
-      </c>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105">
-        <v>2</v>
-      </c>
-      <c r="X4" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB4" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="104">
-        <v>2</v>
-      </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105">
-        <v>3</v>
-      </c>
-      <c r="E5" s="105">
-        <v>4</v>
-      </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105">
-        <v>5</v>
-      </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105">
-        <v>6</v>
-      </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105">
-        <v>7</v>
-      </c>
-      <c r="L5" s="105">
-        <v>1</v>
-      </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105">
-        <v>2</v>
-      </c>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="105">
-        <v>4</v>
-      </c>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105">
-        <v>5</v>
-      </c>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC5" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD5" s="68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B6" s="104">
-        <v>6</v>
-      </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105">
-        <v>7</v>
-      </c>
-      <c r="E6" s="105">
-        <v>1</v>
-      </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105">
-        <v>2</v>
-      </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105">
-        <v>3</v>
-      </c>
-      <c r="J6" s="105">
-        <v>4</v>
-      </c>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105">
-        <v>5</v>
-      </c>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105">
-        <v>6</v>
-      </c>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="105">
-        <v>1</v>
-      </c>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105">
-        <v>2</v>
-      </c>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B7" s="104">
-        <v>3</v>
-      </c>
-      <c r="C7" s="105">
-        <v>4</v>
-      </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105">
-        <v>5</v>
-      </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105">
-        <v>6</v>
-      </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105">
-        <v>7</v>
-      </c>
-      <c r="J7" s="105">
-        <v>1</v>
-      </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105">
-        <v>2</v>
-      </c>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105">
-        <v>3</v>
-      </c>
-      <c r="O7" s="105">
-        <v>4</v>
-      </c>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105">
-        <v>5</v>
-      </c>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105">
-        <v>6</v>
-      </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105">
-        <v>7</v>
-      </c>
-      <c r="X7" s="68">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="68">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="68">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="68">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="68">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="68">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="68">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Music/Guitar/Guitar.xlsx
+++ b/Music/Guitar/Guitar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="228" windowWidth="12960" windowHeight="10104" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="10272" yWindow="288" windowWidth="12960" windowHeight="10044" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>tremolo</t>
-  </si>
-  <si>
-    <t>multi-finger</t>
   </si>
   <si>
     <t>chording</t>
@@ -392,9 +389,6 @@
     <t>single-finger</t>
   </si>
   <si>
-    <t>strummed</t>
-  </si>
-  <si>
     <t>Minor Techniques</t>
   </si>
   <si>
@@ -435,9 +429,6 @@
   </si>
   <si>
     <t>left-finger on fret</t>
-  </si>
-  <si>
-    <t>?picado</t>
   </si>
   <si>
     <t>six-string</t>
@@ -513,6 +504,15 @@
   </si>
   <si>
     <t>Bach's Music</t>
+  </si>
+  <si>
+    <t>picado</t>
+  </si>
+  <si>
+    <t>2-string, 2-finger alternations</t>
+  </si>
+  <si>
+    <t>2,3,4-finger</t>
   </si>
 </sst>
 </file>
@@ -1466,13 +1466,13 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="6" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="1st" xfId="12"/>
@@ -1864,40 +1864,40 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="67"/>
       <c r="I1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="67"/>
       <c r="K1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="67"/>
       <c r="M1" s="67"/>
       <c r="N1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O1" s="67"/>
       <c r="P1" s="67"/>
       <c r="Q1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R1" s="67"/>
       <c r="S1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T1" s="67"/>
       <c r="U1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
@@ -2734,27 +2734,27 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G1" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S1" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
-        <v>97</v>
+      <c r="A2" s="117" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2802,7 +2802,7 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="116"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="U3" s="104"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A4" s="116"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2896,7 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="116"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,7 +2943,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="116"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2990,7 +2990,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="116"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -3059,22 +3059,22 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G8" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8"/>
       <c r="X8" s="68">
@@ -3091,8 +3091,8 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="116" t="s">
-        <v>96</v>
+      <c r="A9" s="117" t="s">
+        <v>95</v>
       </c>
       <c r="B9" s="110" t="s">
         <v>0</v>
@@ -3152,7 +3152,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="116"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="111" t="s">
         <v>1</v>
       </c>
@@ -3211,7 +3211,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="116"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="112" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3270,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A12" s="116"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="113" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="116"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="114" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3388,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="116"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="110" t="s">
         <v>0</v>
       </c>
@@ -3448,28 +3448,28 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G15" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S15" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="116" t="s">
-        <v>95</v>
+      <c r="A16" s="117" t="s">
+        <v>94</v>
       </c>
       <c r="B16" s="3">
         <v>37</v>
@@ -3517,7 +3517,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="3">
         <v>84</v>
       </c>
@@ -3585,7 +3585,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="3">
         <v>21</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="3">
         <v>82</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="116"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="3">
         <v>42</v>
       </c>
@@ -3751,7 +3751,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="116"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="3">
         <v>37</v>
       </c>
@@ -3799,22 +3799,22 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="G22" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S22" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
@@ -5347,7 +5347,7 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P1" s="105"/>
       <c r="Q1" s="105"/>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" s="105">
         <v>1</v>
@@ -5392,7 +5392,7 @@
       <c r="T2" s="105"/>
       <c r="U2" s="105"/>
       <c r="V2" s="106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W2" s="105"/>
       <c r="X2" s="105"/>
@@ -5401,7 +5401,7 @@
       <c r="AA2" s="105"/>
       <c r="AB2" s="105"/>
       <c r="AC2" s="106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD2" s="105"/>
       <c r="AE2" s="105"/>
@@ -5418,14 +5418,14 @@
       <c r="AN2" s="105"/>
       <c r="AO2" s="105"/>
       <c r="AP2" s="106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AQ2" s="105"/>
       <c r="AR2" s="105"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="P3" s="105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ3" s="105"/>
       <c r="AR3" s="105"/>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="P11" s="105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="105"/>
       <c r="R11" s="105"/>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -5794,7 +5794,7 @@
       <c r="Z13"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE13" s="3"/>
       <c r="AG13"/>
@@ -5842,7 +5842,7 @@
       <c r="AL14"/>
       <c r="AM14"/>
       <c r="AP14" s="107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
@@ -5913,16 +5913,16 @@
     </row>
     <row r="17" spans="2:44" x14ac:dyDescent="0.3">
       <c r="P17" s="108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R17" s="108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S17" s="108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V17"/>
       <c r="W17"/>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9"/>
@@ -6341,22 +6341,22 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -6372,14 +6372,14 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -6403,22 +6403,22 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -6434,14 +6434,14 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -6465,11 +6465,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>25</v>
@@ -6478,7 +6478,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N14" s="107" t="s">
         <v>25</v>
@@ -6498,22 +6498,22 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -6546,79 +6546,79 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -6640,22 +6640,22 @@
         <v>25</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -6670,7 +6670,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>25</v>
@@ -6681,25 +6681,25 @@
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
@@ -6709,7 +6709,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>25</v>
@@ -6720,10 +6720,10 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
@@ -6731,44 +6731,44 @@
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -9295,32 +9295,32 @@
       <c r="F9" s="38">
         <v>4</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="115"/>
-      <c r="AK9" s="115"/>
-      <c r="AL9" s="115"/>
-      <c r="AM9" s="115"/>
-      <c r="AN9" s="115"/>
-      <c r="AO9" s="115"/>
-      <c r="AP9" s="115"/>
-      <c r="AQ9" s="115"/>
-      <c r="AR9" s="115"/>
-      <c r="AS9" s="115"/>
-      <c r="AT9" s="115"/>
-      <c r="AU9" s="115"/>
-      <c r="BD9" s="115" t="s">
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="116"/>
+      <c r="AR9" s="116"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="BD9" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="BE9" s="115"/>
-      <c r="BF9" s="115"/>
-      <c r="BG9" s="115"/>
-      <c r="BH9" s="115"/>
-      <c r="BI9" s="115"/>
-      <c r="BJ9" s="115"/>
-      <c r="BK9" s="115"/>
-      <c r="BL9" s="115"/>
+      <c r="BE9" s="116"/>
+      <c r="BF9" s="116"/>
+      <c r="BG9" s="116"/>
+      <c r="BH9" s="116"/>
+      <c r="BI9" s="116"/>
+      <c r="BJ9" s="116"/>
+      <c r="BK9" s="116"/>
+      <c r="BL9" s="116"/>
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="E10" s="38">
@@ -12795,7 +12795,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12807,11 +12807,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>123</v>
+      <c r="A1" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>38</v>
@@ -12819,85 +12819,85 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>59</v>
       </c>
-      <c r="N4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -12905,222 +12905,222 @@
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
         <v>106</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>126</v>
+      <c r="A13" t="s">
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
+      <c r="B14" t="s">
+        <v>122</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="A17" t="s">
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>148</v>
-      </c>
-      <c r="J18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>132</v>
+      <c r="A23" t="s">
+        <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>40</v>
+      <c r="B24" t="s">
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="J25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="27" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -13130,86 +13130,86 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>105</v>
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
+      <c r="B43" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>142</v>
+      <c r="A46" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>100</v>
+      <c r="B47" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>156</v>
+      <c r="A51" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>109</v>
       </c>
     </row>
@@ -13220,12 +13220,12 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -13244,28 +13244,28 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>115</v>
+      <c r="A59" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>98</v>
+      <c r="B60" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>135</v>
+      <c r="A62" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>136</v>
+      <c r="B63" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -13294,52 +13294,52 @@
   <sheetData>
     <row r="1" spans="2:69" x14ac:dyDescent="0.3">
       <c r="B1" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>46</v>
-      </c>
       <c r="I1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W1" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="67" t="s">
-        <v>46</v>
-      </c>
       <c r="AD1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AP1" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:69" ht="16.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -14405,7 +14405,7 @@
     </row>
     <row r="15" spans="2:69" x14ac:dyDescent="0.3">
       <c r="W15" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO15" s="56"/>
       <c r="AP15" s="56"/>
@@ -14531,55 +14531,55 @@
       </c>
       <c r="AQ16" s="87"/>
       <c r="AR16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS16" s="76">
         <v>5</v>
       </c>
       <c r="AT16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU16" s="76">
         <v>6</v>
       </c>
       <c r="AV16" s="84"/>
       <c r="AW16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX16" s="76">
         <v>6</v>
       </c>
       <c r="AY16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ16" s="76">
         <v>7</v>
       </c>
       <c r="BA16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB16" s="84"/>
       <c r="BC16" s="76">
         <v>7</v>
       </c>
       <c r="BD16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF16" s="76">
         <v>2</v>
       </c>
       <c r="BG16" s="84"/>
       <c r="BH16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI16" s="76">
         <v>2</v>
       </c>
       <c r="BJ16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK16" s="76">
         <v>3</v>
@@ -14589,10 +14589,10 @@
         <v>3</v>
       </c>
       <c r="BN16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO16" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP16" s="76">
         <v>5</v>
@@ -14718,55 +14718,55 @@
       </c>
       <c r="AQ17" s="87"/>
       <c r="AR17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS17" s="76">
         <v>2</v>
       </c>
       <c r="AT17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU17" s="76">
         <v>3</v>
       </c>
       <c r="AV17" s="84"/>
       <c r="AW17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX17" s="76">
         <v>3</v>
       </c>
       <c r="AY17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA17" s="76">
         <v>5</v>
       </c>
       <c r="BB17" s="84"/>
       <c r="BC17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD17" s="76">
         <v>5</v>
       </c>
       <c r="BE17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF17" s="76">
         <v>6</v>
       </c>
       <c r="BG17" s="84"/>
       <c r="BH17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI17" s="76">
         <v>6</v>
       </c>
       <c r="BJ17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK17" s="76">
         <v>7</v>
@@ -14776,10 +14776,10 @@
         <v>7</v>
       </c>
       <c r="BN17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO17" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP17" s="76">
         <v>2</v>
@@ -14910,52 +14910,52 @@
         <v>6</v>
       </c>
       <c r="AS18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT18" s="76">
         <v>7</v>
       </c>
       <c r="AU18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AV18" s="84"/>
       <c r="AW18" s="76">
         <v>7</v>
       </c>
       <c r="AX18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ18" s="76">
         <v>2</v>
       </c>
       <c r="BA18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB18" s="84"/>
       <c r="BC18" s="76">
         <v>2</v>
       </c>
       <c r="BD18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE18" s="76">
         <v>3</v>
       </c>
       <c r="BF18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG18" s="84"/>
       <c r="BH18" s="76">
         <v>3</v>
       </c>
       <c r="BI18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK18" s="76">
         <v>5</v>
@@ -14965,13 +14965,13 @@
         <v>5</v>
       </c>
       <c r="BN18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO18" s="76">
         <v>6</v>
       </c>
       <c r="BP18" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ18" s="88"/>
     </row>
@@ -15099,52 +15099,52 @@
         <v>3</v>
       </c>
       <c r="AS19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU19" s="76">
         <v>5</v>
       </c>
       <c r="AV19" s="84"/>
       <c r="AW19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX19" s="76">
         <v>5</v>
       </c>
       <c r="AY19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ19" s="76">
         <v>6</v>
       </c>
       <c r="BA19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB19" s="84"/>
       <c r="BC19" s="76">
         <v>6</v>
       </c>
       <c r="BD19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE19" s="76">
         <v>7</v>
       </c>
       <c r="BF19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG19" s="84"/>
       <c r="BH19" s="76">
         <v>7</v>
       </c>
       <c r="BI19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK19" s="76">
         <v>2</v>
@@ -15154,13 +15154,13 @@
         <v>2</v>
       </c>
       <c r="BN19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO19" s="76">
         <v>3</v>
       </c>
       <c r="BP19" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ19" s="88"/>
     </row>
@@ -15288,52 +15288,52 @@
         <v>7</v>
       </c>
       <c r="AS20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU20" s="76">
         <v>2</v>
       </c>
       <c r="AV20" s="84"/>
       <c r="AW20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX20" s="76">
         <v>2</v>
       </c>
       <c r="AY20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ20" s="76">
         <v>3</v>
       </c>
       <c r="BA20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB20" s="84"/>
       <c r="BC20" s="76">
         <v>3</v>
       </c>
       <c r="BD20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF20" s="76">
         <v>5</v>
       </c>
       <c r="BG20" s="84"/>
       <c r="BH20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI20" s="76">
         <v>5</v>
       </c>
       <c r="BJ20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK20" s="76">
         <v>6</v>
@@ -15343,13 +15343,13 @@
         <v>6</v>
       </c>
       <c r="BN20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO20" s="76">
         <v>7</v>
       </c>
       <c r="BP20" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ20" s="88"/>
     </row>
@@ -15474,55 +15474,55 @@
       </c>
       <c r="AQ21" s="87"/>
       <c r="AR21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS21" s="76">
         <v>5</v>
       </c>
       <c r="AT21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU21" s="76">
         <v>6</v>
       </c>
       <c r="AV21" s="84"/>
       <c r="AW21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX21" s="76">
         <v>6</v>
       </c>
       <c r="AY21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ21" s="76">
         <v>7</v>
       </c>
       <c r="BA21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB21" s="84"/>
       <c r="BC21" s="76">
         <v>7</v>
       </c>
       <c r="BD21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF21" s="76">
         <v>2</v>
       </c>
       <c r="BG21" s="84"/>
       <c r="BH21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI21" s="76">
         <v>2</v>
       </c>
       <c r="BJ21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK21" s="76">
         <v>3</v>
@@ -15532,10 +15532,10 @@
         <v>3</v>
       </c>
       <c r="BN21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO21" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP21" s="76">
         <v>5</v>
@@ -15662,7 +15662,7 @@
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
       <c r="W23" s="82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X23" s="76"/>
       <c r="Y23" s="76"/>
@@ -15807,55 +15807,55 @@
       </c>
       <c r="AQ24" s="87"/>
       <c r="AR24" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS24" s="76">
         <v>4</v>
       </c>
       <c r="AT24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU24" s="76">
         <v>5</v>
       </c>
       <c r="AV24" s="84"/>
       <c r="AW24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX24" s="76">
         <v>5</v>
       </c>
       <c r="AY24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ24" s="76">
         <v>6</v>
       </c>
       <c r="BA24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB24" s="84"/>
       <c r="BC24" s="76">
         <v>6</v>
       </c>
       <c r="BD24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF24" s="76">
         <v>1</v>
       </c>
       <c r="BG24" s="84"/>
       <c r="BH24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI24" s="76">
         <v>1</v>
       </c>
       <c r="BJ24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK24" s="76">
         <v>2</v>
@@ -15865,10 +15865,10 @@
         <v>2</v>
       </c>
       <c r="BN24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO24" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP24" s="76">
         <v>4</v>
@@ -15993,55 +15993,55 @@
       </c>
       <c r="AQ25" s="87"/>
       <c r="AR25" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS25" s="76">
         <v>1</v>
       </c>
       <c r="AT25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU25" s="76">
         <v>2</v>
       </c>
       <c r="AV25" s="84"/>
       <c r="AW25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX25" s="76">
         <v>2</v>
       </c>
       <c r="AY25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA25" s="76">
         <v>4</v>
       </c>
       <c r="BB25" s="84"/>
       <c r="BC25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD25" s="76">
         <v>4</v>
       </c>
       <c r="BE25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF25" s="76">
         <v>5</v>
       </c>
       <c r="BG25" s="84"/>
       <c r="BH25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI25" s="76">
         <v>5</v>
       </c>
       <c r="BJ25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK25" s="76">
         <v>6</v>
@@ -16051,10 +16051,10 @@
         <v>6</v>
       </c>
       <c r="BN25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP25" s="76">
         <v>1</v>
@@ -16185,52 +16185,52 @@
         <v>5</v>
       </c>
       <c r="AS26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT26" s="76">
         <v>6</v>
       </c>
       <c r="AU26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AV26" s="84"/>
       <c r="AW26" s="76">
         <v>6</v>
       </c>
       <c r="AX26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ26" s="76">
         <v>1</v>
       </c>
       <c r="BA26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB26" s="84"/>
       <c r="BC26" s="76">
         <v>1</v>
       </c>
       <c r="BD26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE26" s="76">
         <v>2</v>
       </c>
       <c r="BF26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG26" s="84"/>
       <c r="BH26" s="76">
         <v>2</v>
       </c>
       <c r="BI26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK26" s="76">
         <v>4</v>
@@ -16240,13 +16240,13 @@
         <v>4</v>
       </c>
       <c r="BN26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO26" s="76">
         <v>5</v>
       </c>
       <c r="BP26" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ26" s="88"/>
     </row>
@@ -16374,52 +16374,52 @@
         <v>2</v>
       </c>
       <c r="AS27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU27" s="76">
         <v>4</v>
       </c>
       <c r="AV27" s="84"/>
       <c r="AW27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX27" s="76">
         <v>4</v>
       </c>
       <c r="AY27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ27" s="76">
         <v>5</v>
       </c>
       <c r="BA27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB27" s="84"/>
       <c r="BC27" s="76">
         <v>5</v>
       </c>
       <c r="BD27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE27" s="76">
         <v>6</v>
       </c>
       <c r="BF27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG27" s="84"/>
       <c r="BH27" s="76">
         <v>6</v>
       </c>
       <c r="BI27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK27" s="76">
         <v>1</v>
@@ -16429,13 +16429,13 @@
         <v>1</v>
       </c>
       <c r="BN27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO27" s="76">
         <v>2</v>
       </c>
       <c r="BP27" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ27" s="88"/>
     </row>
@@ -16560,52 +16560,52 @@
         <v>6</v>
       </c>
       <c r="AS28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU28" s="76">
         <v>1</v>
       </c>
       <c r="AV28" s="84"/>
       <c r="AW28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX28" s="76">
         <v>1</v>
       </c>
       <c r="AY28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ28" s="76">
         <v>2</v>
       </c>
       <c r="BA28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB28" s="84"/>
       <c r="BC28" s="76">
         <v>2</v>
       </c>
       <c r="BD28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF28" s="76">
         <v>4</v>
       </c>
       <c r="BG28" s="84"/>
       <c r="BH28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI28" s="76">
         <v>4</v>
       </c>
       <c r="BJ28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK28" s="76">
         <v>5</v>
@@ -16615,13 +16615,13 @@
         <v>5</v>
       </c>
       <c r="BN28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO28" s="76">
         <v>6</v>
       </c>
       <c r="BP28" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ28" s="88"/>
     </row>
@@ -16743,55 +16743,55 @@
       </c>
       <c r="AQ29" s="87"/>
       <c r="AR29" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS29" s="76">
         <v>4</v>
       </c>
       <c r="AT29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU29" s="76">
         <v>5</v>
       </c>
       <c r="AV29" s="84"/>
       <c r="AW29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX29" s="76">
         <v>5</v>
       </c>
       <c r="AY29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ29" s="76">
         <v>6</v>
       </c>
       <c r="BA29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB29" s="84"/>
       <c r="BC29" s="76">
         <v>6</v>
       </c>
       <c r="BD29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF29" s="76">
         <v>1</v>
       </c>
       <c r="BG29" s="84"/>
       <c r="BH29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI29" s="76">
         <v>1</v>
       </c>
       <c r="BJ29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK29" s="76">
         <v>2</v>
@@ -16801,10 +16801,10 @@
         <v>2</v>
       </c>
       <c r="BN29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO29" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP29" s="76">
         <v>4</v>
@@ -16922,7 +16922,7 @@
       <c r="T31" s="70"/>
       <c r="U31" s="70"/>
       <c r="W31" s="83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X31" s="76"/>
       <c r="Y31" s="76"/>
@@ -17067,55 +17067,55 @@
       </c>
       <c r="AQ32" s="87"/>
       <c r="AR32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS32" s="76">
         <v>1</v>
       </c>
       <c r="AT32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU32" s="76">
         <v>2</v>
       </c>
       <c r="AV32" s="84"/>
       <c r="AW32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX32" s="76">
         <v>2</v>
       </c>
       <c r="AY32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ32" s="76">
         <v>3</v>
       </c>
       <c r="BA32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB32" s="85"/>
       <c r="BC32" s="71">
         <v>3</v>
       </c>
       <c r="BD32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF32" s="76">
         <v>5</v>
       </c>
       <c r="BG32" s="84"/>
       <c r="BH32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI32" s="76">
         <v>5</v>
       </c>
       <c r="BJ32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK32" s="76">
         <v>6</v>
@@ -17125,10 +17125,10 @@
         <v>6</v>
       </c>
       <c r="BN32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO32" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP32" s="76">
         <v>1</v>
@@ -17249,55 +17249,55 @@
       </c>
       <c r="AQ33" s="87"/>
       <c r="AR33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS33" s="76">
         <v>5</v>
       </c>
       <c r="AT33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU33" s="76">
         <v>6</v>
       </c>
       <c r="AV33" s="84"/>
       <c r="AW33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX33" s="76">
         <v>6</v>
       </c>
       <c r="AY33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA33" s="76">
         <v>1</v>
       </c>
       <c r="BB33" s="85"/>
       <c r="BC33" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD33" s="76">
         <v>1</v>
       </c>
       <c r="BE33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF33" s="76">
         <v>2</v>
       </c>
       <c r="BG33" s="84"/>
       <c r="BH33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI33" s="76">
         <v>2</v>
       </c>
       <c r="BJ33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK33" s="76">
         <v>3</v>
@@ -17307,10 +17307,10 @@
         <v>3</v>
       </c>
       <c r="BN33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO33" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP33" s="76">
         <v>5</v>
@@ -17436,52 +17436,52 @@
         <v>2</v>
       </c>
       <c r="AS34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT34" s="76">
         <v>3</v>
       </c>
       <c r="AU34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AV34" s="84"/>
       <c r="AW34" s="76">
         <v>3</v>
       </c>
       <c r="AX34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ34" s="76">
         <v>5</v>
       </c>
       <c r="BA34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB34" s="85"/>
       <c r="BC34" s="71">
         <v>5</v>
       </c>
       <c r="BD34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE34" s="76">
         <v>6</v>
       </c>
       <c r="BF34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG34" s="84"/>
       <c r="BH34" s="76">
         <v>6</v>
       </c>
       <c r="BI34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK34" s="76">
         <v>1</v>
@@ -17491,13 +17491,13 @@
         <v>1</v>
       </c>
       <c r="BN34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO34" s="76">
         <v>2</v>
       </c>
       <c r="BP34" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ34" s="88"/>
     </row>
@@ -17620,52 +17620,52 @@
         <v>6</v>
       </c>
       <c r="AS35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU35" s="76">
         <v>1</v>
       </c>
       <c r="AV35" s="84"/>
       <c r="AW35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX35" s="76">
         <v>1</v>
       </c>
       <c r="AY35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ35" s="76">
         <v>2</v>
       </c>
       <c r="BA35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB35" s="85"/>
       <c r="BC35" s="71">
         <v>2</v>
       </c>
       <c r="BD35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE35" s="76">
         <v>3</v>
       </c>
       <c r="BF35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG35" s="84"/>
       <c r="BH35" s="76">
         <v>3</v>
       </c>
       <c r="BI35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK35" s="76">
         <v>5</v>
@@ -17675,13 +17675,13 @@
         <v>5</v>
       </c>
       <c r="BN35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO35" s="76">
         <v>6</v>
       </c>
       <c r="BP35" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ35" s="88"/>
     </row>
@@ -17804,52 +17804,52 @@
         <v>3</v>
       </c>
       <c r="AS36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU36" s="76">
         <v>5</v>
       </c>
       <c r="AV36" s="84"/>
       <c r="AW36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX36" s="76">
         <v>5</v>
       </c>
       <c r="AY36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ36" s="76">
         <v>6</v>
       </c>
       <c r="BA36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB36" s="85"/>
       <c r="BC36" s="71">
         <v>6</v>
       </c>
       <c r="BD36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF36" s="76">
         <v>1</v>
       </c>
       <c r="BG36" s="84"/>
       <c r="BH36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI36" s="76">
         <v>1</v>
       </c>
       <c r="BJ36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK36" s="76">
         <v>2</v>
@@ -17859,13 +17859,13 @@
         <v>2</v>
       </c>
       <c r="BN36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO36" s="76">
         <v>3</v>
       </c>
       <c r="BP36" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BQ36" s="88"/>
     </row>
@@ -17983,55 +17983,55 @@
       </c>
       <c r="AQ37" s="87"/>
       <c r="AR37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS37" s="76">
         <v>1</v>
       </c>
       <c r="AT37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU37" s="76">
         <v>2</v>
       </c>
       <c r="AV37" s="84"/>
       <c r="AW37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX37" s="76">
         <v>2</v>
       </c>
       <c r="AY37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ37" s="76">
         <v>3</v>
       </c>
       <c r="BA37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB37" s="85"/>
       <c r="BC37" s="71">
         <v>3</v>
       </c>
       <c r="BD37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF37" s="76">
         <v>5</v>
       </c>
       <c r="BG37" s="84"/>
       <c r="BH37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI37" s="76">
         <v>5</v>
       </c>
       <c r="BJ37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK37" s="76">
         <v>6</v>
@@ -18041,10 +18041,10 @@
         <v>6</v>
       </c>
       <c r="BN37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO37" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP37" s="76">
         <v>1</v>
@@ -18169,13 +18169,13 @@
         <v>2</v>
       </c>
       <c r="X41" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y41" s="76">
         <v>3</v>
       </c>
       <c r="Z41" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:69" x14ac:dyDescent="0.3">
@@ -18183,13 +18183,13 @@
         <v>6</v>
       </c>
       <c r="X42" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y42" s="76">
         <v>7</v>
       </c>
       <c r="Z42" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:69" x14ac:dyDescent="0.3">
@@ -18197,10 +18197,10 @@
         <v>3</v>
       </c>
       <c r="X43" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y43" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z43" s="76">
         <v>5</v>
@@ -18211,13 +18211,13 @@
         <v>1</v>
       </c>
       <c r="X45" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y45" s="76">
         <v>2</v>
       </c>
       <c r="Z45" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:69" x14ac:dyDescent="0.3">
@@ -18225,13 +18225,13 @@
         <v>5</v>
       </c>
       <c r="X46" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y46" s="76">
         <v>6</v>
       </c>
       <c r="Z46" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:69" x14ac:dyDescent="0.3">
@@ -18239,10 +18239,10 @@
         <v>2</v>
       </c>
       <c r="X47" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y47" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z47" s="76">
         <v>4</v>
@@ -18253,13 +18253,13 @@
         <v>5</v>
       </c>
       <c r="X49" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y49" s="67">
         <v>6</v>
       </c>
       <c r="Z49" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="23:26" x14ac:dyDescent="0.3">
@@ -18267,13 +18267,13 @@
         <v>2</v>
       </c>
       <c r="X50" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y50" s="67">
         <v>3</v>
       </c>
       <c r="Z50" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="23:26" x14ac:dyDescent="0.3">
@@ -18281,10 +18281,10 @@
         <v>6</v>
       </c>
       <c r="X51" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y51" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z51" s="67">
         <v>1</v>
